--- a/exports/V_final.xlsx
+++ b/exports/V_final.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-961.870361328125</v>
+        <v>-471.5083312988281</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-961.5333862304688</v>
+        <v>-470.4869384765625</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-960.9934692382812</v>
+        <v>-470.8489990234375</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-207.7400054931641</v>
+        <v>39.84671783447266</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-25.30440902709961</v>
+        <v>54.83168029785156</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1.955554723739624</v>
+        <v>64.14456939697266</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-883.0023803710938</v>
+        <v>-203.8791809082031</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-855.4558715820312</v>
+        <v>-202.9294128417969</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-880.4412841796875</v>
+        <v>-203.2465362548828</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-172.7945709228516</v>
+        <v>51.72960662841797</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.6314525604248</v>
+        <v>59.35347366333008</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>3.447052001953125</v>
+        <v>65.30995178222656</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-804.0921630859375</v>
+        <v>61.36913299560547</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-748.53271484375</v>
+        <v>62.24615859985352</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-799.8452758789062</v>
+        <v>61.97419357299805</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-137.8908386230469</v>
+        <v>63.5208740234375</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-17.96301651000977</v>
+        <v>63.84959411621094</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>4.937386512756348</v>
+        <v>66.47894287109375</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-719.3745727539062</v>
+        <v>62.3449592590332</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-443.8179321289062</v>
+        <v>63.07952880859375</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-713.3463134765625</v>
+        <v>62.87723922729492</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-108.6991882324219</v>
+        <v>64.18589019775391</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-15.1865119934082</v>
+        <v>64.56107330322266</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>6.269564628601074</v>
+        <v>66.93154907226562</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-634.522216796875</v>
+        <v>63.34993362426758</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-139.6360778808594</v>
+        <v>63.9814567565918</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-626.529296875</v>
+        <v>63.82898330688477</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>-79.59427642822266</v>
+        <v>64.947998046875</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-12.41180038452148</v>
+        <v>65.36064910888672</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>7.604594707489014</v>
+        <v>67.42315673828125</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-541.30126953125</v>
+        <v>63.77238464355469</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-108.147087097168</v>
+        <v>64.34806823730469</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-522.1986694335938</v>
+        <v>64.22587585449219</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-56.71779251098633</v>
+        <v>65.30667114257812</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-10.16252136230469</v>
+        <v>65.71430969238281</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>8.829880714416504</v>
+        <v>67.73893737792969</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-448.7005615234375</v>
+        <v>64.23969268798828</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>-76.71733856201172</v>
+        <v>64.7821044921875</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-418.1497802734375</v>
+        <v>64.67528533935547</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>-33.84457397460938</v>
+        <v>65.72477722167969</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.913342952728271</v>
+        <v>66.14189910888672</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>10.0579833984375</v>
+        <v>68.11922454833984</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-338.4286499023438</v>
+        <v>64.58586883544922</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-55.71633148193359</v>
+        <v>65.13121795654297</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-229.9358825683594</v>
+        <v>65.02817535400391</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-22.64625358581543</v>
+        <v>66.03743743896484</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-5.99614429473877</v>
+        <v>66.46453094482422</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>11.15363788604736</v>
+        <v>68.40592956542969</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-228.1617431640625</v>
+        <v>64.99544525146484</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>-34.71814346313477</v>
+        <v>65.514892578125</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-41.72524642944336</v>
+        <v>65.42308044433594</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.44608592987061</v>
+        <v>66.40599822998047</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.079029560089111</v>
+        <v>66.83502197265625</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>12.25206756591797</v>
+        <v>68.73334503173828</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-128.0393829345703</v>
+        <v>65.28703308105469</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-26.51636123657227</v>
+        <v>65.80531311035156</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-29.62228202819824</v>
+        <v>65.70686340332031</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.428964614868164</v>
+        <v>66.69307708740234</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.601761102676392</v>
+        <v>67.12621307373047</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>13.23727893829346</v>
+        <v>68.97602081298828</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-880.226806640625</v>
+        <v>59.08721542358398</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-866.9539184570312</v>
+        <v>60.54326248168945</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-877.5200805664062</v>
+        <v>60.03419494628906</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-169.8438873291016</v>
+        <v>62.16255187988281</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-21.66269683837891</v>
+        <v>62.42200469970703</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>3.544535636901855</v>
+        <v>65.75728607177734</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-798.6513671875</v>
+        <v>60.96565628051758</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-704.4471435546875</v>
+        <v>62.01589584350586</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-794.4503784179688</v>
+        <v>61.68077087402344</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-137.9990692138672</v>
+        <v>63.33633422851562</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-18.39708709716797</v>
+        <v>63.66626739501953</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>4.940949440002441</v>
+        <v>66.38098907470703</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-717.0242919921875</v>
+        <v>62.78449249267578</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-534.9513549804688</v>
+        <v>63.45948791503906</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-711.2989501953125</v>
+        <v>63.28688049316406</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-106.1962203979492</v>
+        <v>64.49770355224609</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.20007610321045</v>
+        <v>64.89144134521484</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>6.337413311004639</v>
+        <v>67.10665130615234</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-628.1593017578125</v>
+        <v>63.26530075073242</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-310.847412109375</v>
+        <v>63.90877914428711</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-617.5267944335938</v>
+        <v>63.75238037109375</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-80.04144287109375</v>
+        <v>64.92676544189453</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.66459083557129</v>
+        <v>65.32952117919922</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>7.605391979217529</v>
+        <v>67.44535827636719</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-539.1199340820312</v>
+        <v>63.86399841308594</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-105.9695053100586</v>
+        <v>64.46348571777344</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-523.8828125</v>
+        <v>64.32903289794922</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-54.03168106079102</v>
+        <v>65.40767669677734</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-10.16881847381592</v>
+        <v>65.82438659667969</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>8.89745044708252</v>
+        <v>67.82746887207031</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-438.6675109863281</v>
+        <v>64.25900268554688</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-79.09368133544922</v>
+        <v>64.81575012207031</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-401.1301574707031</v>
+        <v>64.70426177978516</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.86561584472656</v>
+        <v>65.73916625976562</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-8.067553520202637</v>
+        <v>66.15794372558594</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>10.05365180969238</v>
+        <v>68.12514495849609</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-338.3555908203125</v>
+        <v>64.68205261230469</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-52.59528350830078</v>
+        <v>65.20975494384766</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-274.8502502441406</v>
+        <v>65.11174011230469</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-18.008544921875</v>
+        <v>66.13047790527344</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-5.986185550689697</v>
+        <v>66.5504150390625</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>11.21402072906494</v>
+        <v>68.47818756103516</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-214.6311645507812</v>
+        <v>65.00011444091797</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-37.6306037902832</v>
+        <v>65.53234100341797</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-144.6221008300781</v>
+        <v>65.43636322021484</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-13.45933628082275</v>
+        <v>66.42437744140625</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-4.218831062316895</v>
+        <v>66.85408782958984</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>12.24847221374512</v>
+        <v>68.74221038818359</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-90.91272735595703</v>
+        <v>65.37979888916016</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-23.11184501647949</v>
+        <v>65.88384246826172</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-26.65721893310547</v>
+        <v>65.79769134521484</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-9.21385383605957</v>
+        <v>66.76345062255859</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-2.471903085708618</v>
+        <v>67.19575500488281</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>13.28581714630127</v>
+        <v>69.04397583007812</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-55.34271240234375</v>
+        <v>65.63815307617188</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-19.24770545959473</v>
+        <v>66.14182281494141</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-20.51565551757812</v>
+        <v>66.05484771728516</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-7.513057708740234</v>
+        <v>67.01261138916016</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-1.147273063659668</v>
+        <v>67.44902801513672</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>14.21738433837891</v>
+        <v>69.26235198974609</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>-796.0430297851562</v>
+        <v>61.80573654174805</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>-734.9525146484375</v>
+        <v>62.66444778442383</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-791.6078491210938</v>
+        <v>62.3928337097168</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>-135.4554290771484</v>
+        <v>63.83538436889648</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>-18.22801208496094</v>
+        <v>64.20229339599609</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>5.018105983734131</v>
+        <v>66.68219757080078</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>-711.0276489257812</v>
+        <v>62.61891555786133</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>-493.6204223632812</v>
+        <v>63.33637237548828</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>-704.8638916015625</v>
+        <v>63.138427734375</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-106.5031204223633</v>
+        <v>64.38733673095703</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>-15.38189315795898</v>
+        <v>64.780517578125</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>6.342711448669434</v>
+        <v>67.09298706054688</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>-625.945068359375</v>
+        <v>63.50759124755859</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>-252.0083160400391</v>
+        <v>64.10813903808594</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>-617.9727783203125</v>
+        <v>63.97246170043945</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>-77.59686279296875</v>
+        <v>65.06477355957031</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>-12.55493259429932</v>
+        <v>65.47965240478516</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>7.674913883209229</v>
+        <v>67.5352783203125</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-531.74169921875</v>
+        <v>63.90052032470703</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>-164.8805999755859</v>
+        <v>64.47278594970703</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-511.137451171875</v>
+        <v>64.34825897216797</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>-55.05707168579102</v>
+        <v>65.42746734619141</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-10.27953910827637</v>
+        <v>65.84251403808594</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>8.893587112426758</v>
+        <v>67.85228729248047</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>-437.8953247070312</v>
+        <v>64.3447265625</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>-77.85549926757812</v>
+        <v>64.90754699707031</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-404.9270629882812</v>
+        <v>64.78672790527344</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>-32.57797241210938</v>
+        <v>65.8388671875</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-8.007591247558594</v>
+        <v>66.25811767578125</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>10.1156177520752</v>
+        <v>68.20639801025391</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>-326.2899780273438</v>
+        <v>64.70187377929688</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-56.23841094970703</v>
+        <v>65.23822021484375</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-254.4541625976562</v>
+        <v>65.13558959960938</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-21.99645233154297</v>
+        <v>66.14043426513672</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>-6.035242557525635</v>
+        <v>66.56539916992188</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>11.20801639556885</v>
+        <v>68.49037170410156</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-214.6905670166016</v>
+        <v>65.09342193603516</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>-34.61760711669922</v>
+        <v>65.60850524902344</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-103.046745300293</v>
+        <v>65.51879119873047</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-11.41694831848145</v>
+        <v>66.49842834472656</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>-4.058053970336914</v>
+        <v>66.92630767822266</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>12.30348110198975</v>
+        <v>68.81425476074219</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-121.1390380859375</v>
+        <v>65.37779998779297</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-26.36041450500488</v>
+        <v>65.89115905761719</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-60.19205474853516</v>
+        <v>65.80372619628906</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-9.450448036193848</v>
+        <v>66.76969146728516</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-2.553297996520996</v>
+        <v>67.19947052001953</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>13.28351974487305</v>
+        <v>69.05760955810547</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-27.59027481079102</v>
+        <v>65.72772216796875</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-18.10253143310547</v>
+        <v>66.22061157226562</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-17.32038497924805</v>
+        <v>66.140380859375</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-7.480883598327637</v>
+        <v>67.08346557617188</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-1.048687338829041</v>
+        <v>67.51840209960938</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>14.26595306396484</v>
+        <v>69.32142639160156</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-24.12118148803711</v>
+        <v>65.96733093261719</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-15.62386131286621</v>
+        <v>66.44892883300781</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-14.92180824279785</v>
+        <v>66.37338256835938</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-5.917612075805664</v>
+        <v>67.30654907226562</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.2038153111934662</v>
+        <v>67.74546813964844</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>15.14627742767334</v>
+        <v>69.52543640136719</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-708.678466796875</v>
+        <v>63.00038146972656</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-516.3814697265625</v>
+        <v>63.64788055419922</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-702.8353881835938</v>
+        <v>63.48133087158203</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-104.3529281616211</v>
+        <v>64.64873504638672</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-15.24507427215576</v>
+        <v>65.05519104003906</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>6.407638549804688</v>
+        <v>67.21770477294922</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-619.4907836914062</v>
+        <v>63.46078491210938</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-308.5454406738281</v>
+        <v>64.08180999755859</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-608.379638671875</v>
+        <v>63.93075942993164</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-78.43653869628906</v>
+        <v>65.06575012207031</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-12.69472122192383</v>
+        <v>65.47616577148438</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>7.670813083648682</v>
+        <v>67.56363677978516</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-530.2047729492188</v>
+        <v>64.00690460205078</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-126.0765991210938</v>
+        <v>64.58283233642578</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-513.6900634765625</v>
+        <v>64.46000671386719</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-52.57732391357422</v>
+        <v>65.52054595947266</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-10.18590354919434</v>
+        <v>65.93929290771484</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>8.957232475280762</v>
+        <v>67.93311309814453</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-427.9789428710938</v>
+        <v>64.36383056640625</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-89.68047332763672</v>
+        <v>64.92307281494141</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-387.66015625</v>
+        <v>64.80941772460938</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-34.82403564453125</v>
+        <v>65.85196685791016</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-8.039040565490723</v>
+        <v>66.26978302001953</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>10.10995578765869</v>
+        <v>68.22727966308594</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-326.3079833984375</v>
+        <v>64.78070068359375</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-53.98936462402344</v>
+        <v>65.32079315185547</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-260.1221618652344</v>
+        <v>65.21341705322266</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-17.23017501831055</v>
+        <v>66.23496246337891</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-5.911333560943604</v>
+        <v>66.65772247314453</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>11.26733207702637</v>
+        <v>68.56183624267578</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-201.0822906494141</v>
+        <v>65.09938812255859</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-38.19398880004883</v>
+        <v>65.62558746337891</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-136.9657592773438</v>
+        <v>65.52227020263672</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-13.13416385650635</v>
+        <v>66.51410675048828</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-4.143218994140625</v>
+        <v>66.94461822509766</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>12.29902458190918</v>
+        <v>68.81745147705078</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-75.86141204833984</v>
+        <v>65.46917724609375</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-22.92767143249512</v>
+        <v>65.96929931640625</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-26.02809906005859</v>
+        <v>65.88367462158203</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-9.291621208190918</v>
+        <v>66.84133148193359</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-2.381587743759155</v>
+        <v>67.27644348144531</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>13.3339672088623</v>
+        <v>69.12071990966797</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-48.23678588867188</v>
+        <v>65.72449493408203</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-19.07229042053223</v>
+        <v>66.23171234130859</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-20.15462112426758</v>
+        <v>66.14762115478516</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-7.533256530761719</v>
+        <v>67.08796691894531</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-1.069096207618713</v>
+        <v>67.52716827392578</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>14.26213550567627</v>
+        <v>69.33599853515625</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-23.70690727233887</v>
+        <v>66.04107666015625</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-15.32601547241211</v>
+        <v>66.52344512939453</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-14.67590427398682</v>
+        <v>66.44950103759766</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-5.790788650512695</v>
+        <v>67.37725830078125</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>0.2433708310127258</v>
+        <v>67.81460571289062</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>15.19291591644287</v>
+        <v>69.5771484375</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-20.76392555236816</v>
+        <v>66.25482177734375</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-13.19228935241699</v>
+        <v>66.73473358154297</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-12.58451652526855</v>
+        <v>66.66216278076172</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-4.357263088226318</v>
+        <v>67.58958435058594</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>1.517092227935791</v>
+        <v>68.02924346923828</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>16.01956367492676</v>
+        <v>69.77021026611328</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>-617.22119140625</v>
+        <v>63.63762664794922</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>-229.3455505371094</v>
+        <v>64.2257080078125</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>-609.0299682617188</v>
+        <v>64.09600830078125</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-76.28868103027344</v>
+        <v>65.16349792480469</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>-12.43827438354492</v>
+        <v>65.58525085449219</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>7.737301349639893</v>
+        <v>67.63980102539062</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>-522.584716796875</v>
+        <v>64.02043151855469</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>-158.0299377441406</v>
+        <v>64.58760070800781</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>-500.645751953125</v>
+        <v>64.47025299072266</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>-53.99122619628906</v>
+        <v>65.52922058105469</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>-10.17543888092041</v>
+        <v>65.94899749755859</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>8.952335357666016</v>
+        <v>67.95598602294922</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>-427.8092041015625</v>
+        <v>64.46257781982422</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>-93.00388336181641</v>
+        <v>65.01888275146484</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>-391.9341430664062</v>
+        <v>64.90640258789062</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>-31.78325271606445</v>
+        <v>65.94317626953125</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>-7.91466236114502</v>
+        <v>66.36376190185547</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>10.17009353637695</v>
+        <v>68.30469512939453</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>-314.2155456542969</v>
+        <v>64.79717254638672</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-65.75142669677734</v>
+        <v>65.33435821533203</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>-239.3619537353516</v>
+        <v>65.23525238037109</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>-21.62039947509766</v>
+        <v>66.24246978759766</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>-5.923263549804688</v>
+        <v>66.66509246826172</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>11.26032829284668</v>
+        <v>68.57717132568359</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>-201.249267578125</v>
+        <v>65.18466949462891</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-38.58144378662109</v>
+        <v>65.69975280761719</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>-85.11931610107422</v>
+        <v>65.61064910888672</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>-11.46224403381348</v>
+        <v>66.59586334228516</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>-3.931548357009888</v>
+        <v>67.02268218994141</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>12.35299873352051</v>
+        <v>68.89335632324219</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>-114.264289855957</v>
+        <v>65.47693634033203</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-28.25505256652832</v>
+        <v>65.97644805908203</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-51.13988876342773</v>
+        <v>65.89430236816406</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-9.470227241516113</v>
+        <v>66.85247802734375</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-2.454614400863647</v>
+        <v>67.2841796875</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>13.33020496368408</v>
+        <v>69.12379455566406</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-27.28227806091309</v>
+        <v>65.81251525878906</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-17.89958763122559</v>
+        <v>66.30330657958984</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-17.13320350646973</v>
+        <v>66.22386169433594</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-7.475568771362305</v>
+        <v>67.15773010253906</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-0.9779217839241028</v>
+        <v>67.59762573242188</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>14.30960464477539</v>
+        <v>69.39521026611328</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-23.87446784973145</v>
+        <v>66.04060363769531</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-15.45575332641602</v>
+        <v>66.53090667724609</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-14.7691125869751</v>
+        <v>66.45349884033203</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-5.870297908782959</v>
+        <v>67.37680816650391</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>0.2742659747600555</v>
+        <v>67.81864929199219</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>15.18530654907227</v>
+        <v>69.59297180175781</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-20.46375846862793</v>
+        <v>66.32678985595703</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-13.0087366104126</v>
+        <v>66.80228424072266</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-12.40213584899902</v>
+        <v>66.73133850097656</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-4.2624831199646</v>
+        <v>67.65240478515625</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>1.547662377357483</v>
+        <v>68.09086608886719</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>16.06280517578125</v>
+        <v>69.82235717773438</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-17.91183280944824</v>
+        <v>66.53254699707031</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-11.10908222198486</v>
+        <v>66.99522399902344</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-10.53829097747803</v>
+        <v>66.93236541748047</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-2.908818244934082</v>
+        <v>67.84040832519531</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>2.826322793960571</v>
+        <v>68.28250122070312</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>16.83549118041992</v>
+        <v>69.99761199951172</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-521.1000366210938</v>
+        <v>64.12723541259766</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-123.8930969238281</v>
+        <v>64.68983459472656</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-503.5325622558594</v>
+        <v>64.5738525390625</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-51.54746627807617</v>
+        <v>65.61078643798828</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-10.02396488189697</v>
+        <v>66.03438568115234</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>9.016457557678223</v>
+        <v>68.03031921386719</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-417.8208923339844</v>
+        <v>64.47667694091797</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-93.519775390625</v>
+        <v>65.02362823486328</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-374.89599609375</v>
+        <v>64.91743469238281</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-33.9702033996582</v>
+        <v>65.95055389404297</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-7.893557071685791</v>
+        <v>66.37423706054688</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>10.16499805450439</v>
+        <v>68.32106781005859</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-314.3638305664062</v>
+        <v>64.88707733154297</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-64.95659637451172</v>
+        <v>65.42313385009766</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-245.4245300292969</v>
+        <v>65.32361602783203</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-16.48087310791016</v>
+        <v>66.33364868164062</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-5.76624059677124</v>
+        <v>66.75827026367188</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>11.31823825836182</v>
+        <v>68.64818572998047</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-187.5703582763672</v>
+        <v>65.19640350341797</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-43.88201141357422</v>
+        <v>65.71209716796875</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-128.6037750244141</v>
+        <v>65.61875915527344</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-12.7595853805542</v>
+        <v>66.60142517089844</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-4.033986568450928</v>
+        <v>67.03055572509766</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>12.34709739685059</v>
+        <v>68.89810943603516</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-60.85095977783203</v>
+        <v>65.55561065673828</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-23.51005744934082</v>
+        <v>66.05127716064453</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-23.85738563537598</v>
+        <v>65.97042083740234</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-9.235507965087891</v>
+        <v>66.92472839355469</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-2.299032688140869</v>
+        <v>67.35569763183594</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>13.37954711914062</v>
+        <v>69.19286346435547</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-41.15752029418945</v>
+        <v>65.82103729248047</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-19.25198936462402</v>
+        <v>66.31108093261719</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-19.07934951782227</v>
+        <v>66.23501586914062</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-7.459394931793213</v>
+        <v>67.16432189941406</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-0.9961800575256348</v>
+        <v>67.60186767578125</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>14.30311584472656</v>
+        <v>69.40526580810547</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-23.48108100891113</v>
+        <v>66.11733245849609</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-15.13423442840576</v>
+        <v>66.59819793701172</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-14.53615570068359</v>
+        <v>66.52587127685547</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-5.683631420135498</v>
+        <v>67.44449615478516</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>0.3065263032913208</v>
+        <v>67.88584136962891</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>15.2296028137207</v>
+        <v>69.64626312255859</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-20.58037185668945</v>
+        <v>66.32634735107422</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-13.03306484222412</v>
+        <v>66.80368804931641</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-12.46813583374023</v>
+        <v>66.73477172851562</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-4.259392738342285</v>
+        <v>67.65234375</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>1.585058808326721</v>
+        <v>68.09300994873047</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>16.0509033203125</v>
+        <v>69.83392333984375</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-17.67465972900391</v>
+        <v>66.59754180908203</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-10.92927932739258</v>
+        <v>67.05445098876953</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-10.39777946472168</v>
+        <v>66.99318695068359</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-2.835338115692139</v>
+        <v>67.89743041992188</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>2.878885984420776</v>
+        <v>68.337890625</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>16.8746337890625</v>
+        <v>70.05601501464844</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-15.44606113433838</v>
+        <v>66.77713012695312</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-9.240110397338867</v>
+        <v>67.22679901123047</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-8.720966339111328</v>
+        <v>67.16902160644531</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-1.51741099357605</v>
+        <v>68.06233215332031</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>4.134737491607666</v>
+        <v>68.50682830810547</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>17.59549140930176</v>
+        <v>70.20630645751953</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>-418.0591125488281</v>
+        <v>64.56991577148438</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-91.12509155273438</v>
+        <v>65.12081146240234</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="E364" t="n">
-        <v>-380.1234130859375</v>
+        <v>65.01157379150391</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-31.13310050964355</v>
+        <v>66.02953338623047</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>-7.749762535095215</v>
+        <v>66.45701599121094</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>10.22500991821289</v>
+        <v>68.39287567138672</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>-302.73876953125</v>
+        <v>64.89354705810547</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-66.08683776855469</v>
+        <v>65.42665863037109</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>-224.3076324462891</v>
+        <v>65.32694244384766</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>-21.35437965393066</v>
+        <v>66.33503723144531</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>-5.779016017913818</v>
+        <v>66.75999450683594</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>11.31109142303467</v>
+        <v>68.66146850585938</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>-187.8475341796875</v>
+        <v>65.27655029296875</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-42.09031295776367</v>
+        <v>65.79429626464844</v>
       </c>
     </row>
     <row r="376">
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>-67.19974517822266</v>
+        <v>65.70289611816406</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-11.62610340118408</v>
+        <v>66.68698120117188</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>-3.811626195907593</v>
+        <v>67.11449432373047</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>12.39973735809326</v>
+        <v>68.96688079833984</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-107.4251480102539</v>
+        <v>65.56372833251953</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-29.92105865478516</v>
+        <v>66.06114196777344</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-42.10092544555664</v>
+        <v>65.97923278808594</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-9.497713088989258</v>
+        <v>66.93159484863281</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-2.363609552383423</v>
+        <v>67.36502075195312</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>13.3731517791748</v>
+        <v>69.19381713867188</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-27.00698852539062</v>
+        <v>65.89299774169922</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-17.70952033996582</v>
+        <v>66.38230895996094</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-16.96253395080566</v>
+        <v>66.30534362792969</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-7.364893436431885</v>
+        <v>67.23078155517578</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.9133556485176086</v>
+        <v>67.67021179199219</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>14.34829139709473</v>
+        <v>69.46392822265625</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-23.64605903625488</v>
+        <v>66.12542724609375</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-15.29309940338135</v>
+        <v>66.60484313964844</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-14.62691879272461</v>
+        <v>66.53372192382812</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-5.7718505859375</v>
+        <v>67.44511413574219</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>0.3385457992553711</v>
+        <v>67.88697052001953</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>15.21900939941406</v>
+        <v>69.65895843505859</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-20.28799819946289</v>
+        <v>66.39850616455078</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-12.87862300872803</v>
+        <v>66.8719482421875</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-12.29306316375732</v>
+        <v>66.80101776123047</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-4.178645133972168</v>
+        <v>67.71685028076172</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>1.613331913948059</v>
+        <v>68.15866088867188</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>16.09129524230957</v>
+        <v>69.88441467285156</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-17.77056312561035</v>
+        <v>66.59567260742188</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-10.99639701843262</v>
+        <v>67.06779479980469</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-10.4420804977417</v>
+        <v>66.9990234375</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-2.827086687088013</v>
+        <v>67.90132904052734</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>2.892168521881104</v>
+        <v>68.34626007080078</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>16.85903739929199</v>
+        <v>70.05042266845703</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-15.24603843688965</v>
+        <v>66.84789276123047</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-9.111576080322266</v>
+        <v>67.29501342773438</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-8.589005470275879</v>
+        <v>67.23832702636719</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-1.475741028785706</v>
+        <v>68.12136840820312</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>4.185140609741211</v>
+        <v>68.56659698486328</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>17.62994766235352</v>
+        <v>70.25534820556641</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-13.37967872619629</v>
+        <v>66.98912048339844</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-7.599790573120117</v>
+        <v>67.43569946289062</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-7.162483215332031</v>
+        <v>67.37835693359375</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-0.199408158659935</v>
+        <v>68.25813293457031</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>5.400379180908203</v>
+        <v>68.705810546875</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>18.30118370056152</v>
+        <v>70.38261413574219</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-303.5145874023438</v>
+        <v>64.98991394042969</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-63.00592422485352</v>
+        <v>65.51852416992188</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-231.7109680175781</v>
+        <v>65.41985321044922</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-15.67432022094727</v>
+        <v>66.41754150390625</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-5.63126802444458</v>
+        <v>66.84702301025391</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>11.36964797973633</v>
+        <v>68.73187255859375</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-174.4234313964844</v>
+        <v>65.28956604003906</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-42.02684783935547</v>
+        <v>65.79824829101562</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-120.3343811035156</v>
+        <v>65.70878601074219</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-12.33414745330811</v>
+        <v>66.68643951416016</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-3.927007675170898</v>
+        <v>67.11524963378906</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>12.39324283599854</v>
+        <v>68.98155975341797</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-45.89359664916992</v>
+        <v>65.64041137695312</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-22.2030029296875</v>
+        <v>66.13478851318359</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-21.72434616088867</v>
+        <v>66.05120086669922</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-9.130594253540039</v>
+        <v>67.00965118408203</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-2.225675344467163</v>
+        <v>67.44050598144531</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>13.42039775848389</v>
+        <v>69.25910949707031</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-34.12289428710938</v>
+        <v>65.88911437988281</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-18.56126403808594</v>
+        <v>66.37889862060547</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-18.02949523925781</v>
+        <v>66.29789733886719</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-7.348214626312256</v>
+        <v>67.23537445068359</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-0.9313524961471558</v>
+        <v>67.67362213134766</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>14.33885192871094</v>
+        <v>69.46662139892578</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-23.29514503479004</v>
+        <v>66.19293975830078</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-14.95355129241943</v>
+        <v>66.67211151123047</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-14.4078893661499</v>
+        <v>66.60244750976562</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-5.566906452178955</v>
+        <v>67.50963592529297</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>0.363109290599823</v>
+        <v>67.95100402832031</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>15.26034641265869</v>
+        <v>69.71512603759766</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-20.40981101989746</v>
+        <v>66.40218353271484</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-12.8801155090332</v>
+        <v>66.87223815917969</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-12.35567283630371</v>
+        <v>66.80694580078125</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-4.15906286239624</v>
+        <v>67.71157836914062</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>1.644752144813538</v>
+        <v>68.15270233154297</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>16.07626533508301</v>
+        <v>69.89459991455078</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-17.52734184265137</v>
+        <v>66.65732574462891</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-10.80862331390381</v>
+        <v>67.12401580810547</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-10.30521392822266</v>
+        <v>67.05864715576172</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-2.75159764289856</v>
+        <v>67.96221923828125</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>2.94649600982666</v>
+        <v>68.40550231933594</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>16.89506912231445</v>
+        <v>70.11106872558594</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-15.33116817474365</v>
+        <v>66.83277130126953</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-9.139819145202637</v>
+        <v>67.29016876220703</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-8.64250373840332</v>
+        <v>67.22734069824219</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-1.43475615978241</v>
+        <v>68.11540985107422</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>4.200879573822021</v>
+        <v>68.56240081787109</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>17.61114692687988</v>
+        <v>70.24612426757812</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-13.12633323669434</v>
+        <v>67.05421447753906</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-7.468328952789307</v>
+        <v>67.4951171875</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-6.977579116821289</v>
+        <v>67.44391632080078</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-0.1002565324306488</v>
+        <v>68.31216430664062</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>5.467480182647705</v>
+        <v>68.75776672363281</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>18.32991790771484</v>
+        <v>70.42470550537109</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-11.75106620788574</v>
+        <v>67.17181396484375</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-6.236855030059814</v>
+        <v>67.61370086669922</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-5.844411373138428</v>
+        <v>67.56215667724609</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>1.107185125350952</v>
+        <v>68.42613983154297</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>6.63834285736084</v>
+        <v>68.87617492675781</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>18.93859672546387</v>
+        <v>70.53524780273438</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>-175.1292114257812</v>
+        <v>65.36985015869141</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-40.5092887878418</v>
+        <v>65.87968444824219</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>-49.94631958007812</v>
+        <v>65.79129028320312</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>-11.88368511199951</v>
+        <v>66.76213836669922</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>-3.700470924377441</v>
+        <v>67.19523620605469</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>12.4431324005127</v>
+        <v>69.0357666015625</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-100.6338119506836</v>
+        <v>65.64894866943359</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-28.82488822937012</v>
+        <v>66.14745330810547</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-33.07752990722656</v>
+        <v>66.06492614746094</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-9.559393882751465</v>
+        <v>67.01646423339844</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-2.276452302932739</v>
+        <v>67.45036315917969</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>13.41108322143555</v>
+        <v>69.26435852050781</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-26.77069282531738</v>
+        <v>65.97103881835938</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-17.53611183166504</v>
+        <v>66.44988250732422</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-16.81459808349609</v>
+        <v>66.37680053710938</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-7.250317573547363</v>
+        <v>67.29834747314453</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-0.8517912626266479</v>
+        <v>67.73539733886719</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>14.38110828399658</v>
+        <v>69.52460479736328</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-23.45162963867188</v>
+        <v>66.19999694824219</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-15.14458656311035</v>
+        <v>66.67129516601562</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-14.4996862411499</v>
+        <v>66.60324096679688</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-5.675226211547852</v>
+        <v>67.51198577880859</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>0.3988526463508606</v>
+        <v>67.9530029296875</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>15.2465705871582</v>
+        <v>69.71881103515625</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-20.13661575317383</v>
+        <v>66.46790313720703</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-12.75615692138672</v>
+        <v>66.93955993652344</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-12.18717288970947</v>
+        <v>66.87152099609375</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-4.100635051727295</v>
+        <v>67.77892303466797</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>1.675706148147583</v>
+        <v>68.22058868408203</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>16.11359596252441</v>
+        <v>69.94751739501953</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-17.63015556335449</v>
+        <v>66.66151428222656</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-10.88701629638672</v>
+        <v>67.12945556640625</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-10.34734725952148</v>
+        <v>67.05941772460938</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-2.750734806060791</v>
+        <v>67.95858764648438</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>2.955831527709961</v>
+        <v>68.40349578857422</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>16.87628173828125</v>
+        <v>70.10454559326172</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-15.12656021118164</v>
+        <v>66.90357208251953</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-9.019817352294922</v>
+        <v>67.35244750976562</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-8.509278297424316</v>
+        <v>67.29550170898438</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-1.401119112968445</v>
+        <v>68.17489624023438</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>4.250720500946045</v>
+        <v>68.62245178222656</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>17.64223670959473</v>
+        <v>70.30038452148438</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-13.30745124816895</v>
+        <v>67.03685760498047</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-7.523760795593262</v>
+        <v>67.488037109375</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-7.112212181091309</v>
+        <v>67.431884765625</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-0.13358074426651</v>
+        <v>68.30277252197266</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>5.463814258575439</v>
+        <v>68.75255584716797</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>18.30862236022949</v>
+        <v>70.41754913330078</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-11.47862529754639</v>
+        <v>67.23094940185547</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-6.024250984191895</v>
+        <v>67.66437530517578</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-5.712678909301758</v>
+        <v>67.61710357666016</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>1.153948187828064</v>
+        <v>68.47753143310547</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>6.685131072998047</v>
+        <v>68.92388916015625</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>18.97825050354004</v>
+        <v>70.57433319091797</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-10.43648719787598</v>
+        <v>67.33666229248047</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-5.093090534210205</v>
+        <v>67.76924133300781</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-4.735116958618164</v>
+        <v>67.72238922119141</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>2.110317230224609</v>
+        <v>68.58625030517578</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>7.617626190185547</v>
+        <v>69.03525543212891</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>19.49215316772461</v>
+        <v>70.67327117919922</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-31.01673126220703</v>
+        <v>65.71621704101562</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-20.23000144958496</v>
+        <v>66.214599609375</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-19.64436340332031</v>
+        <v>66.13099670410156</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-8.952733993530273</v>
+        <v>67.08314514160156</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-2.153816223144531</v>
+        <v>67.51840209960938</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>13.45545291900635</v>
+        <v>69.32241821289062</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-26.75143623352051</v>
+        <v>65.96619415283203</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-17.46999740600586</v>
+        <v>66.45172119140625</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-16.92558670043945</v>
+        <v>66.376220703125</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-7.200049877166748</v>
+        <v>67.30269622802734</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-0.8690965175628662</v>
+        <v>67.73929595947266</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>14.36847591400146</v>
+        <v>69.529296875</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-23.12199401855469</v>
+        <v>66.26832580566406</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-14.78861713409424</v>
+        <v>66.74021911621094</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-14.29337787628174</v>
+        <v>66.67382049560547</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-5.452582359313965</v>
+        <v>67.57321166992188</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>0.4186717569828033</v>
+        <v>68.01609802246094</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>15.2847728729248</v>
+        <v>69.77257537841797</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-20.2626838684082</v>
+        <v>66.47096252441406</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-12.74149608612061</v>
+        <v>66.93390655517578</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-12.25045871734619</v>
+        <v>66.87164306640625</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-4.063051700592041</v>
+        <v>67.77117156982422</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>1.704865455627441</v>
+        <v>68.21205902099609</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>16.09556579589844</v>
+        <v>69.95063018798828</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-17.40741920471191</v>
+        <v>66.72237396240234</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-10.69747066497803</v>
+        <v>67.18956756591797</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-10.20993995666504</v>
+        <v>67.12641143798828</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-2.673635244369507</v>
+        <v>68.02224731445312</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>3.008967399597168</v>
+        <v>68.46556091308594</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>16.90928268432617</v>
+        <v>70.16400146484375</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-15.22226619720459</v>
+        <v>66.8914794921875</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-9.042849540710449</v>
+        <v>67.34611511230469</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-8.566040992736816</v>
+        <v>67.28896331787109</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-1.357517838478088</v>
+        <v>68.16657257080078</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>4.263885498046875</v>
+        <v>68.61359405517578</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>17.62014007568359</v>
+        <v>70.29203033447266</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-13.0399808883667</v>
+        <v>67.09906005859375</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-7.390172481536865</v>
+        <v>67.53994750976562</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>-6.923900127410889</v>
+        <v>67.48862457275391</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-0.02173302695155144</v>
+        <v>68.35386657714844</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>5.528804302215576</v>
+        <v>68.80204772949219</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>18.33367729187012</v>
+        <v>70.46302795410156</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-11.72655773162842</v>
+        <v>67.21222686767578</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-6.190919399261475</v>
+        <v>67.65603637695312</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-5.821195125579834</v>
+        <v>67.60462951660156</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>1.180476903915405</v>
+        <v>68.46365356445312</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>6.697731971740723</v>
+        <v>68.91529846191406</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>18.95381546020508</v>
+        <v>70.57045745849609</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-10.40176582336426</v>
+        <v>67.38687133789062</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-4.980912208557129</v>
+        <v>67.81478118896484</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-4.690992832183838</v>
+        <v>67.77041625976562</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>2.397498607635498</v>
+        <v>68.62588500976562</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>7.875555992126465</v>
+        <v>69.07365417480469</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>19.57762336730957</v>
+        <v>70.70960998535156</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-9.410945892333984</v>
+        <v>67.48130035400391</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-4.184529781341553</v>
+        <v>67.90779876708984</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-3.786372184753418</v>
+        <v>67.86404418945312</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>3.00851845741272</v>
+        <v>68.72073364257812</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>8.502862930297852</v>
+        <v>69.17082214355469</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>19.95106506347656</v>
+        <v>70.80101776123047</v>
       </c>
     </row>
   </sheetData>

--- a/exports/V_final.xlsx
+++ b/exports/V_final.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-471.5083312988281</v>
+        <v>-472.6009216308594</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-470.4869384765625</v>
+        <v>-471.3779907226562</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-470.8489990234375</v>
+        <v>-471.8092346191406</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>39.84671783447266</v>
+        <v>38.07067489624023</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>54.83168029785156</v>
+        <v>53.13213729858398</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>64.14456939697266</v>
+        <v>62.45352935791016</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-203.8791809082031</v>
+        <v>-205.3096160888672</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-202.9294128417969</v>
+        <v>-204.2277526855469</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-203.2465362548828</v>
+        <v>-204.5993347167969</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>51.72960662841797</v>
+        <v>49.92419052124023</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>59.35347366333008</v>
+        <v>57.62260818481445</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>65.30995178222656</v>
+        <v>63.54094314575195</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>61.36913299560547</v>
+        <v>59.60436248779297</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>62.24615859985352</v>
+        <v>60.54413986206055</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.97419357299805</v>
+        <v>60.2325439453125</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>63.5208740234375</v>
+        <v>61.68579864501953</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>63.84959411621094</v>
+        <v>62.08728790283203</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>66.47894287109375</v>
+        <v>64.64561462402344</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>62.3449592590332</v>
+        <v>60.42168045043945</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>63.07952880859375</v>
+        <v>61.20182800292969</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>62.87723922729492</v>
+        <v>60.96860504150391</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>64.18589019775391</v>
+        <v>62.21028518676758</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>64.56107330322266</v>
+        <v>62.65089416503906</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>66.93154907226562</v>
+        <v>65.00491333007812</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>63.34993362426758</v>
+        <v>61.30191802978516</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>63.9814567565918</v>
+        <v>61.94798278808594</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>63.82898330688477</v>
+        <v>61.78147125244141</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>64.947998046875</v>
+        <v>62.86410522460938</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>65.36064910888672</v>
+        <v>63.32908248901367</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>67.42315673828125</v>
+        <v>65.41114807128906</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>63.77238464355469</v>
+        <v>61.63393020629883</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>64.34806823730469</v>
+        <v>62.27134704589844</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>64.22587585449219</v>
+        <v>62.10613250732422</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>65.30667114257812</v>
+        <v>63.17475128173828</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>65.71430969238281</v>
+        <v>63.64629364013672</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>67.73893737792969</v>
+        <v>65.69882965087891</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>64.23969268798828</v>
+        <v>62.05567932128906</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>64.7821044921875</v>
+        <v>62.65536499023438</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>64.67528533935547</v>
+        <v>62.50911712646484</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>65.72477722167969</v>
+        <v>63.5526237487793</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>66.14189910888672</v>
+        <v>64.02398681640625</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>68.11922454833984</v>
+        <v>66.03328704833984</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>64.58586883544922</v>
+        <v>62.35326385498047</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>65.13121795654297</v>
+        <v>62.95639038085938</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>65.02817535400391</v>
+        <v>62.8067626953125</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>66.03743743896484</v>
+        <v>63.83308792114258</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>66.46453094482422</v>
+        <v>64.310546875</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>68.40592956542969</v>
+        <v>66.28903198242188</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>64.99544525146484</v>
+        <v>62.72665405273438</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>65.514892578125</v>
+        <v>63.30632400512695</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>65.42308044433594</v>
+        <v>63.16860580444336</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>66.40599822998047</v>
+        <v>64.16432189941406</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>66.83502197265625</v>
+        <v>64.64625549316406</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>68.73334503173828</v>
+        <v>66.59812927246094</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>65.28703308105469</v>
+        <v>62.98996734619141</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>65.80531311035156</v>
+        <v>63.5726318359375</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>65.70686340332031</v>
+        <v>63.43465805053711</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>66.69307708740234</v>
+        <v>64.41615295410156</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>67.12621307373047</v>
+        <v>64.90259552001953</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>68.97602081298828</v>
+        <v>66.82144165039062</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>59.08721542358398</v>
+        <v>56.93581771850586</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>60.54326248168945</v>
+        <v>58.60850143432617</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>60.03419494628906</v>
+        <v>58.00078582763672</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>62.16255187988281</v>
+        <v>60.16319274902344</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>62.42200469970703</v>
+        <v>60.46911239624023</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>65.75728607177734</v>
+        <v>63.86145401000977</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>60.96565628051758</v>
+        <v>58.90005111694336</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>62.01589584350586</v>
+        <v>60.07298278808594</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>61.68077087402344</v>
+        <v>59.67730712890625</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>63.33633422851562</v>
+        <v>61.31157684326172</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>63.66626739501953</v>
+        <v>61.69768905639648</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>66.38098907470703</v>
+        <v>64.42145538330078</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>62.78449249267578</v>
+        <v>60.75773239135742</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>63.45948791503906</v>
+        <v>61.47135925292969</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>63.28688049316406</v>
+        <v>61.27285385131836</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>64.49770355224609</v>
+        <v>62.43278884887695</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>64.89144134521484</v>
+        <v>62.87635803222656</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>67.10665130615234</v>
+        <v>65.07624053955078</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>63.26530075073242</v>
+        <v>61.15200805664062</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>63.90877914428711</v>
+        <v>61.84742736816406</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>63.75238037109375</v>
+        <v>61.65903472900391</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>64.92676544189453</v>
+        <v>62.79011535644531</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>65.32952117919922</v>
+        <v>63.25010299682617</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>67.44535827636719</v>
+        <v>65.3819580078125</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>63.86399841308594</v>
+        <v>61.68697738647461</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>64.46348571777344</v>
+        <v>62.30957794189453</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>64.32903289794922</v>
+        <v>62.15377044677734</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>65.40767669677734</v>
+        <v>63.213623046875</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>65.82438659667969</v>
+        <v>63.68180847167969</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>67.82746887207031</v>
+        <v>65.72617340087891</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>64.25900268554688</v>
+        <v>62.00542831420898</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>64.81575012207031</v>
+        <v>62.61700057983398</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>64.70426177978516</v>
+        <v>62.46323776245117</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>65.73916625976562</v>
+        <v>63.50798797607422</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>66.15794372558594</v>
+        <v>63.98163604736328</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>68.12514495849609</v>
+        <v>65.99947357177734</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>64.68205261230469</v>
+        <v>62.40142440795898</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>65.20975494384766</v>
+        <v>62.98947525024414</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>65.11174011230469</v>
+        <v>62.85104370117188</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>66.13047790527344</v>
+        <v>63.86478424072266</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>66.5504150390625</v>
+        <v>64.34075927734375</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>68.47818756103516</v>
+        <v>66.32606506347656</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>65.00011444091797</v>
+        <v>62.68291854858398</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>65.53234100341797</v>
+        <v>63.26621246337891</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>65.43636322021484</v>
+        <v>63.12743759155273</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>66.42437744140625</v>
+        <v>64.12397766113281</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>66.85408782958984</v>
+        <v>64.60609436035156</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>68.74221038818359</v>
+        <v>66.56784820556641</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>65.37979888916016</v>
+        <v>63.03681945800781</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>65.88384246826172</v>
+        <v>63.60690689086914</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>65.79769134521484</v>
+        <v>63.47445297241211</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>66.76345062255859</v>
+        <v>64.44797515869141</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>67.19575500488281</v>
+        <v>64.93541717529297</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>69.04397583007812</v>
+        <v>66.85073852539062</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>65.63815307617188</v>
+        <v>63.27531814575195</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>66.14182281494141</v>
+        <v>63.84450912475586</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>66.05484771728516</v>
+        <v>63.71365356445312</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>67.01261138916016</v>
+        <v>64.67668914794922</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>67.44902801513672</v>
+        <v>65.1668701171875</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>69.26235198974609</v>
+        <v>67.05603790283203</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>61.80573654174805</v>
+        <v>59.61124420166016</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>62.66444778442383</v>
+        <v>60.54649353027344</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>62.3928337097168</v>
+        <v>60.22542572021484</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>63.83538436889648</v>
+        <v>61.68631362915039</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>64.20229339599609</v>
+        <v>62.0982780456543</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>66.68219757080078</v>
+        <v>64.6356201171875</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>62.61891555786133</v>
+        <v>60.41556930541992</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>63.33637237548828</v>
+        <v>61.19223022460938</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>63.138427734375</v>
+        <v>60.95343780517578</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>64.38733673095703</v>
+        <v>62.20443344116211</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>64.780517578125</v>
+        <v>62.64907073974609</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>67.09298706054688</v>
+        <v>64.99703216552734</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>63.50759124755859</v>
+        <v>61.29113006591797</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>64.10813903808594</v>
+        <v>61.93886566162109</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>63.97246170043945</v>
+        <v>61.76729965209961</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>65.06477355957031</v>
+        <v>62.85284423828125</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>65.47965240478516</v>
+        <v>63.31993865966797</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>67.5352783203125</v>
+        <v>65.40755462646484</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>63.90052032470703</v>
+        <v>61.63319396972656</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>64.47278594970703</v>
+        <v>62.26472473144531</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>64.34825897216797</v>
+        <v>62.10137557983398</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>65.42746734619141</v>
+        <v>63.17801284790039</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>65.84251403808594</v>
+        <v>63.64393615722656</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>67.85228729248047</v>
+        <v>65.69725799560547</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>64.3447265625</v>
+        <v>62.05652618408203</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>64.90754699707031</v>
+        <v>62.65529632568359</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>64.78672790527344</v>
+        <v>62.51224136352539</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>65.8388671875</v>
+        <v>63.54819488525391</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>66.25811767578125</v>
+        <v>64.01667022705078</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>68.20639801025391</v>
+        <v>66.03461456298828</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>64.70187377929688</v>
+        <v>62.35838317871094</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>65.23822021484375</v>
+        <v>62.95028686523438</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>65.13558959960938</v>
+        <v>62.80538177490234</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>66.14043426513672</v>
+        <v>63.82778930664062</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>66.56539916992188</v>
+        <v>64.30393981933594</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>68.49037170410156</v>
+        <v>66.29597473144531</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>65.09342193603516</v>
+        <v>62.72770690917969</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>65.60850524902344</v>
+        <v>63.30759429931641</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>65.51879119873047</v>
+        <v>63.17040634155273</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>66.49842834472656</v>
+        <v>64.16511535644531</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>66.92630767822266</v>
+        <v>64.64774322509766</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>68.81425476074219</v>
+        <v>66.59637451171875</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>65.37779998779297</v>
+        <v>62.98755645751953</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>65.89115905761719</v>
+        <v>63.56645965576172</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>65.80372619628906</v>
+        <v>63.42832946777344</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>66.76969146728516</v>
+        <v>64.41505432128906</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>67.19947052001953</v>
+        <v>64.90111541748047</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>69.05760955810547</v>
+        <v>66.81755065917969</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>65.72772216796875</v>
+        <v>63.31608581542969</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>66.22061157226562</v>
+        <v>63.87809753417969</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>66.140380859375</v>
+        <v>63.7518196105957</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>67.08346557617188</v>
+        <v>64.71642303466797</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>67.51840209960938</v>
+        <v>65.20408630371094</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>69.32142639160156</v>
+        <v>67.08242034912109</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>65.96733093261719</v>
+        <v>63.54167938232422</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>66.44892883300781</v>
+        <v>64.09690093994141</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>66.37338256835938</v>
+        <v>63.97398376464844</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>67.30654907226562</v>
+        <v>64.92476654052734</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>67.74546813964844</v>
+        <v>65.41151428222656</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>69.52543640136719</v>
+        <v>67.27701568603516</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>63.00038146972656</v>
+        <v>60.74034881591797</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>63.64788055419922</v>
+        <v>61.45537948608398</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>63.48133087158203</v>
+        <v>61.25588607788086</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>64.64873504638672</v>
+        <v>62.40796661376953</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>65.05519104003906</v>
+        <v>62.86282730102539</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>67.21770477294922</v>
+        <v>65.06484985351562</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>63.46078491210938</v>
+        <v>61.1790885925293</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>64.08180999755859</v>
+        <v>61.85105514526367</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>63.93075942993164</v>
+        <v>61.67126083374023</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>65.06575012207031</v>
+        <v>62.78159332275391</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>65.47616577148438</v>
+        <v>63.24123382568359</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>67.56363677978516</v>
+        <v>65.37590026855469</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>64.00690460205078</v>
+        <v>61.68568801879883</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>64.58283233642578</v>
+        <v>62.30709838867188</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>64.46000671386719</v>
+        <v>62.15124893188477</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>65.52054595947266</v>
+        <v>63.20341110229492</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>65.93929290771484</v>
+        <v>63.66992568969727</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>67.93311309814453</v>
+        <v>65.72915649414062</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>64.36383056640625</v>
+        <v>62.00926971435547</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>64.92307281494141</v>
+        <v>62.61528396606445</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>64.80941772460938</v>
+        <v>62.46279525756836</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>65.85196685791016</v>
+        <v>63.51150131225586</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>66.26978302001953</v>
+        <v>63.98016738891602</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>68.22727966308594</v>
+        <v>66.00957489013672</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>64.78070068359375</v>
+        <v>62.39976119995117</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>65.32079315185547</v>
+        <v>62.99146270751953</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>65.21341705322266</v>
+        <v>62.8523063659668</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>66.23496246337891</v>
+        <v>63.86263275146484</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>66.65772247314453</v>
+        <v>64.33802795410156</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>68.56183624267578</v>
+        <v>66.32392883300781</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>65.09938812255859</v>
+        <v>62.6849365234375</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>65.62558746337891</v>
+        <v>63.2675895690918</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>65.52227020263672</v>
+        <v>63.12836074829102</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>66.51410675048828</v>
+        <v>64.13479614257812</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>66.94461822509766</v>
+        <v>64.61519622802734</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>68.81745147705078</v>
+        <v>66.56391906738281</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>65.46917724609375</v>
+        <v>63.03514099121094</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>65.96929931640625</v>
+        <v>63.60290145874023</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>65.88367462158203</v>
+        <v>63.47262573242188</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>66.84133148193359</v>
+        <v>64.44851684570312</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>67.27644348144531</v>
+        <v>64.93374633789062</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>69.12071990966797</v>
+        <v>66.84593200683594</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>65.72449493408203</v>
+        <v>63.2745361328125</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>66.23171234130859</v>
+        <v>63.83772277832031</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>66.14762115478516</v>
+        <v>63.70877456665039</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>67.08796691894531</v>
+        <v>64.67652130126953</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>67.52716827392578</v>
+        <v>65.16519927978516</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>69.33599853515625</v>
+        <v>67.05288696289062</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>66.04107666015625</v>
+        <v>63.57554626464844</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>66.52344512939453</v>
+        <v>64.13059997558594</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>66.44950103759766</v>
+        <v>64.00724792480469</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>67.37725830078125</v>
+        <v>64.96504211425781</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>67.81460571289062</v>
+        <v>65.45496368408203</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>69.5771484375</v>
+        <v>67.30614471435547</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>66.25482177734375</v>
+        <v>63.78876113891602</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>66.73473358154297</v>
+        <v>64.34170532226562</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>66.66216278076172</v>
+        <v>64.21797943115234</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>67.58958435058594</v>
+        <v>65.16385650634766</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>68.02924346923828</v>
+        <v>65.6549072265625</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>69.77021026611328</v>
+        <v>67.48811340332031</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>63.63762664794922</v>
+        <v>61.28098297119141</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>64.2257080078125</v>
+        <v>61.92109298706055</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>64.09600830078125</v>
+        <v>61.755126953125</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>65.16349792480469</v>
+        <v>62.83376693725586</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>65.58525085449219</v>
+        <v>63.30217742919922</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>67.63980102539062</v>
+        <v>65.40350341796875</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>64.02043151855469</v>
+        <v>61.65895080566406</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>64.58760070800781</v>
+        <v>62.27371215820312</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>64.47025299072266</v>
+        <v>62.12306976318359</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>65.52922058105469</v>
+        <v>63.15927124023438</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>65.94899749755859</v>
+        <v>63.63092422485352</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>67.95598602294922</v>
+        <v>65.70384979248047</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>64.46257781982422</v>
+        <v>62.05244445800781</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>65.01888275146484</v>
+        <v>62.65786743164062</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>64.90640258789062</v>
+        <v>62.51127624511719</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>65.94317626953125</v>
+        <v>63.53540420532227</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>66.36376190185547</v>
+        <v>64.00489044189453</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>68.30469512939453</v>
+        <v>66.03463745117188</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>64.79717254638672</v>
+        <v>62.35723114013672</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>65.33435821533203</v>
+        <v>62.94678115844727</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>65.23525238037109</v>
+        <v>62.80521392822266</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>66.24246978759766</v>
+        <v>63.82041168212891</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>66.66509246826172</v>
+        <v>64.29460144042969</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>68.57717132568359</v>
+        <v>66.29386901855469</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>65.18466949462891</v>
+        <v>62.72846984863281</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>65.69975280761719</v>
+        <v>63.30881118774414</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>65.61064910888672</v>
+        <v>63.17218017578125</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>66.59586334228516</v>
+        <v>64.16578674316406</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>67.02268218994141</v>
+        <v>64.64746856689453</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>68.89335632324219</v>
+        <v>66.59062194824219</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>65.47693634033203</v>
+        <v>62.98370742797852</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>65.97644805908203</v>
+        <v>63.55991363525391</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>65.89430236816406</v>
+        <v>63.42669296264648</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>66.85247802734375</v>
+        <v>64.41414642333984</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>67.2841796875</v>
+        <v>64.89862060546875</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>69.12379455566406</v>
+        <v>66.81285095214844</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>65.81251525878906</v>
+        <v>63.31369400024414</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>66.30330657958984</v>
+        <v>63.87336730957031</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>66.22386169433594</v>
+        <v>63.74840927124023</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>67.15773010253906</v>
+        <v>64.71814727783203</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>67.59762573242188</v>
+        <v>65.20401763916016</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>69.39521026611328</v>
+        <v>67.07986450195312</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>66.04060363769531</v>
+        <v>63.53810119628906</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>66.53090667724609</v>
+        <v>64.09200286865234</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>66.45349884033203</v>
+        <v>63.96974945068359</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>67.37680816650391</v>
+        <v>64.92665100097656</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>67.81864929199219</v>
+        <v>65.4110107421875</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>69.59297180175781</v>
+        <v>67.27471923828125</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>66.32678985595703</v>
+        <v>63.83077239990234</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>66.80228424072266</v>
+        <v>64.37227630615234</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>66.73133850097656</v>
+        <v>64.2550048828125</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>67.65240478515625</v>
+        <v>65.19194030761719</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>68.09086608886719</v>
+        <v>65.68434143066406</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>69.82235717773438</v>
+        <v>67.52028656005859</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>66.53254699707031</v>
+        <v>64.0291748046875</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>66.99522399902344</v>
+        <v>64.56576538085938</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>66.93236541748047</v>
+        <v>64.45000457763672</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>67.84040832519531</v>
+        <v>65.37910461425781</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>68.28250122070312</v>
+        <v>65.87354278564453</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>69.99761199951172</v>
+        <v>67.68555450439453</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>64.12723541259766</v>
+        <v>61.67679977416992</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>64.68983459472656</v>
+        <v>62.29493713378906</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>64.5738525390625</v>
+        <v>62.140380859375</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>65.61078643798828</v>
+        <v>63.18406677246094</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>66.03438568115234</v>
+        <v>63.65452194213867</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>68.03031921386719</v>
+        <v>65.72482299804688</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>64.47667694091797</v>
+        <v>62.02392959594727</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>65.02362823486328</v>
+        <v>62.62554550170898</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>64.91743469238281</v>
+        <v>62.48093795776367</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>65.95055389404297</v>
+        <v>63.49370193481445</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>66.37423706054688</v>
+        <v>63.96941757202148</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>68.32106781005859</v>
+        <v>66.00526428222656</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>64.88707733154297</v>
+        <v>62.39545059204102</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>65.42313385009766</v>
+        <v>62.99054718017578</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>65.32361602783203</v>
+        <v>62.84710311889648</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>66.33364868164062</v>
+        <v>63.85892868041992</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>66.75827026367188</v>
+        <v>64.33553314208984</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>68.64818572998047</v>
+        <v>66.32097625732422</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>65.19640350341797</v>
+        <v>62.68406295776367</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>65.71209716796875</v>
+        <v>63.26212310791016</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>65.61875915527344</v>
+        <v>63.12837219238281</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>66.60142517089844</v>
+        <v>64.12981414794922</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>67.03055572509766</v>
+        <v>64.60739898681641</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>68.89810943603516</v>
+        <v>66.56022644042969</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>65.55561065673828</v>
+        <v>63.03288650512695</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>66.05127716064453</v>
+        <v>63.60048294067383</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>65.97042083740234</v>
+        <v>63.47039794921875</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>66.92472839355469</v>
+        <v>64.44940948486328</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>67.35569763183594</v>
+        <v>64.93051910400391</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>69.19286346435547</v>
+        <v>66.84051513671875</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>65.82103729248047</v>
+        <v>63.27590560913086</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>66.31108093261719</v>
+        <v>63.8309440612793</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>66.23501586914062</v>
+        <v>63.70962142944336</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>67.16432189941406</v>
+        <v>64.67440795898438</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>67.60186767578125</v>
+        <v>65.16114807128906</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>69.40526580810547</v>
+        <v>67.04891967773438</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>66.11733245849609</v>
+        <v>63.57633972167969</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>66.59819793701172</v>
+        <v>64.12530517578125</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>66.52587127685547</v>
+        <v>64.00624847412109</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>67.44449615478516</v>
+        <v>64.964599609375</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>67.88584136962891</v>
+        <v>65.45284271240234</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>69.64626312255859</v>
+        <v>67.30644226074219</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>66.32634735107422</v>
+        <v>63.78924942016602</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>66.80368804931641</v>
+        <v>64.33274078369141</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>66.73477172851562</v>
+        <v>64.21686553955078</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>67.65234375</v>
+        <v>65.16151428222656</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>68.09300994873047</v>
+        <v>65.65182495117188</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>69.83392333984375</v>
+        <v>67.48682403564453</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>66.59754180908203</v>
+        <v>64.06996917724609</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>67.05445098876953</v>
+        <v>64.59696197509766</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>66.99318695068359</v>
+        <v>64.48770141601562</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>67.89743041992188</v>
+        <v>65.40731048583984</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>68.337890625</v>
+        <v>65.90010070800781</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>70.05601501464844</v>
+        <v>67.72211456298828</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>66.77713012695312</v>
+        <v>64.24759674072266</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>67.22679901123047</v>
+        <v>64.77342224121094</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>67.16902160644531</v>
+        <v>64.66301727294922</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>68.06233215332031</v>
+        <v>65.57856750488281</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>68.50682830810547</v>
+        <v>66.07472991943359</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>70.20630645751953</v>
+        <v>67.8648681640625</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>64.56991577148438</v>
+        <v>62.04281234741211</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>65.12081146240234</v>
+        <v>62.64706420898438</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="E364" t="n">
-        <v>65.01157379150391</v>
+        <v>62.49892044067383</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>66.02953338623047</v>
+        <v>63.51877975463867</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>66.45701599121094</v>
+        <v>63.99512481689453</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>68.39287567138672</v>
+        <v>66.02863311767578</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>64.89354705810547</v>
+        <v>62.37044143676758</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>65.42665863037109</v>
+        <v>62.96099472045898</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>65.32694244384766</v>
+        <v>62.82179260253906</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>66.33503723144531</v>
+        <v>63.81618881225586</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>66.75999450683594</v>
+        <v>64.29764556884766</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>68.66146850585938</v>
+        <v>66.28801727294922</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>65.27655029296875</v>
+        <v>62.72230529785156</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>65.79429626464844</v>
+        <v>63.30458831787109</v>
       </c>
     </row>
     <row r="376">
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>65.70289611816406</v>
+        <v>63.1671028137207</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>66.68698120117188</v>
+        <v>64.16062927246094</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>67.11449432373047</v>
+        <v>64.64276885986328</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>68.96688079833984</v>
+        <v>66.58757019042969</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>65.56372833251953</v>
+        <v>62.98001480102539</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>66.06114196777344</v>
+        <v>63.555419921875</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>65.97923278808594</v>
+        <v>63.42337036132812</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>66.93159484863281</v>
+        <v>64.40995025634766</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>67.36502075195312</v>
+        <v>64.89193725585938</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>69.19381713867188</v>
+        <v>66.8099365234375</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>65.89299774169922</v>
+        <v>63.30993270874023</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>66.38230895996094</v>
+        <v>63.86968994140625</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>66.30534362792969</v>
+        <v>63.74394989013672</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>67.23078155517578</v>
+        <v>64.71756744384766</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>67.67021179199219</v>
+        <v>65.20124053955078</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>69.46392822265625</v>
+        <v>67.07794189453125</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>66.12542724609375</v>
+        <v>63.53525543212891</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>66.60484313964844</v>
+        <v>64.08845520019531</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>66.53372192382812</v>
+        <v>63.96704864501953</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>67.44511413574219</v>
+        <v>64.92931365966797</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>67.88697052001953</v>
+        <v>65.41748809814453</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>69.65895843505859</v>
+        <v>67.27230834960938</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>66.39850616455078</v>
+        <v>63.83443069458008</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>66.8719482421875</v>
+        <v>64.36811828613281</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>66.80101776123047</v>
+        <v>64.25806427001953</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>67.71685028076172</v>
+        <v>65.18758392333984</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>68.15866088867188</v>
+        <v>65.68118286132812</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>69.88441467285156</v>
+        <v>67.51998138427734</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>66.59567260742188</v>
+        <v>64.03225708007812</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>67.06779479980469</v>
+        <v>64.55973052978516</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>66.9990234375</v>
+        <v>64.45197296142578</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>67.90132904052734</v>
+        <v>65.37786102294922</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>68.34626007080078</v>
+        <v>65.872314453125</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>70.05042266845703</v>
+        <v>67.68446350097656</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>66.84789276123047</v>
+        <v>64.28248596191406</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>67.29501342773438</v>
+        <v>64.80735778808594</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>67.23832702636719</v>
+        <v>64.70039367675781</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>68.12136840820312</v>
+        <v>65.6158447265625</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>68.56659698486328</v>
+        <v>66.11092376708984</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>70.25534820556641</v>
+        <v>67.90782165527344</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>66.98912048339844</v>
+        <v>64.43721008300781</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>67.43569946289062</v>
+        <v>64.96043395996094</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>67.37835693359375</v>
+        <v>64.85447692871094</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>68.25813293457031</v>
+        <v>65.76051330566406</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>68.705810546875</v>
+        <v>66.25945281982422</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>70.38261413574219</v>
+        <v>68.03016662597656</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>64.98991394042969</v>
+        <v>62.38336563110352</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>65.51852416992188</v>
+        <v>62.98128890991211</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>65.41985321044922</v>
+        <v>62.83663940429688</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>66.41754150390625</v>
+        <v>63.85041046142578</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>66.84702301025391</v>
+        <v>64.32966613769531</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>68.73187255859375</v>
+        <v>66.31481170654297</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>65.28956604003906</v>
+        <v>62.695068359375</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>65.79824829101562</v>
+        <v>63.28187561035156</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>65.70878601074219</v>
+        <v>63.1436767578125</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>66.68643951416016</v>
+        <v>64.13231658935547</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>67.11524963378906</v>
+        <v>64.61573791503906</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>68.98155975341797</v>
+        <v>66.55278015136719</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>65.64041137695312</v>
+        <v>63.02526473999023</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>66.13478851318359</v>
+        <v>63.59510803222656</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>66.05120086669922</v>
+        <v>63.46490478515625</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>67.00965118408203</v>
+        <v>64.44511413574219</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>67.44050598144531</v>
+        <v>64.92561340332031</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>69.25910949707031</v>
+        <v>66.83580017089844</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>65.88911437988281</v>
+        <v>63.26892471313477</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>66.37889862060547</v>
+        <v>63.82631301879883</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>66.29789733886719</v>
+        <v>63.70362091064453</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>67.23537445068359</v>
+        <v>64.67879486083984</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>67.67362213134766</v>
+        <v>65.15941619873047</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>69.46662139892578</v>
+        <v>67.04569244384766</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>66.19293975830078</v>
+        <v>63.57795333862305</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>66.67211151123047</v>
+        <v>64.12296295166016</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>66.60244750976562</v>
+        <v>64.00839233398438</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>67.50963592529297</v>
+        <v>64.95697784423828</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>67.95100402832031</v>
+        <v>65.443359375</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>69.71512603759766</v>
+        <v>67.30549621582031</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>66.40218353271484</v>
+        <v>63.79159545898438</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>66.87223815917969</v>
+        <v>64.32953643798828</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>66.80694580078125</v>
+        <v>64.21858978271484</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>67.71157836914062</v>
+        <v>65.157958984375</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>68.15270233154297</v>
+        <v>65.64627838134766</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>69.89459991455078</v>
+        <v>67.48503112792969</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>66.65732574462891</v>
+        <v>64.06906127929688</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>67.12401580810547</v>
+        <v>64.59388732910156</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>67.05864715576172</v>
+        <v>64.48743438720703</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>67.96221923828125</v>
+        <v>65.40642547607422</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>68.40550231933594</v>
+        <v>65.89837646484375</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>70.11106872558594</v>
+        <v>67.72079467773438</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>66.83277130126953</v>
+        <v>64.24611663818359</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>67.29016876220703</v>
+        <v>64.76891326904297</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>67.22734069824219</v>
+        <v>64.6607666015625</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>68.11540985107422</v>
+        <v>65.57865905761719</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>68.56240081787109</v>
+        <v>66.07382965087891</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>70.24612426757812</v>
+        <v>67.86684417724609</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>67.05421447753906</v>
+        <v>64.48659515380859</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>67.4951171875</v>
+        <v>64.99913787841797</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>67.44391632080078</v>
+        <v>64.89873504638672</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>68.31216430664062</v>
+        <v>65.80183410644531</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>68.75776672363281</v>
+        <v>66.29854583740234</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>70.42470550537109</v>
+        <v>68.06867218017578</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>67.17181396484375</v>
+        <v>64.61453247070312</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>67.61370086669922</v>
+        <v>65.12808227539062</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>67.56215667724609</v>
+        <v>65.02755737304688</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>68.42613983154297</v>
+        <v>65.92011260986328</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>68.87617492675781</v>
+        <v>66.42156219482422</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>70.53524780273438</v>
+        <v>68.17681884765625</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>65.36985015869141</v>
+        <v>62.70651626586914</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>65.87968444824219</v>
+        <v>63.29217147827148</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>65.79129028320312</v>
+        <v>63.15385818481445</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>66.76213836669922</v>
+        <v>64.14978790283203</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>67.19523620605469</v>
+        <v>64.63247680664062</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>69.0357666015625</v>
+        <v>66.57942962646484</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>65.64894866943359</v>
+        <v>62.98743438720703</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>66.14745330810547</v>
+        <v>63.55790328979492</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>66.06492614746094</v>
+        <v>63.42611312866211</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>67.01646423339844</v>
+        <v>64.40110015869141</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>67.45036315917969</v>
+        <v>64.8870849609375</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>69.26435852050781</v>
+        <v>66.80421447753906</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>65.97103881835938</v>
+        <v>63.30933380126953</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>66.44988250732422</v>
+        <v>63.86309432983398</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>66.37680053710938</v>
+        <v>63.73844528198242</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>67.29834747314453</v>
+        <v>64.70967102050781</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>67.73539733886719</v>
+        <v>65.19375610351562</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>69.52460479736328</v>
+        <v>67.07850646972656</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>66.19999694824219</v>
+        <v>63.53197479248047</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>66.67129516601562</v>
+        <v>64.08543395996094</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>66.60324096679688</v>
+        <v>63.96420669555664</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>67.51198577880859</v>
+        <v>64.92306518554688</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>67.9530029296875</v>
+        <v>65.40840911865234</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>69.71881103515625</v>
+        <v>67.27449035644531</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>66.46790313720703</v>
+        <v>63.83716201782227</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>66.93955993652344</v>
+        <v>64.36980438232422</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>66.87152099609375</v>
+        <v>64.26181030273438</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>67.77892303466797</v>
+        <v>65.18539428710938</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>68.22058868408203</v>
+        <v>65.67815399169922</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>69.94751739501953</v>
+        <v>67.51760101318359</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>66.66151428222656</v>
+        <v>64.02851867675781</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>67.12945556640625</v>
+        <v>64.55561828613281</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>67.05941772460938</v>
+        <v>64.44999694824219</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>67.95858764648438</v>
+        <v>65.37657165527344</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>68.40349578857422</v>
+        <v>65.86970520019531</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>70.10454559326172</v>
+        <v>67.68792724609375</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>66.90357208251953</v>
+        <v>64.27992248535156</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>67.35244750976562</v>
+        <v>64.80412292480469</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>67.29550170898438</v>
+        <v>64.698486328125</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>68.17489624023438</v>
+        <v>65.61714172363281</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>68.62245178222656</v>
+        <v>66.10967254638672</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>70.30038452148438</v>
+        <v>67.90821838378906</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>67.03685760498047</v>
+        <v>64.43515014648438</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>67.488037109375</v>
+        <v>64.95626068115234</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>67.431884765625</v>
+        <v>64.85130310058594</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>68.30277252197266</v>
+        <v>65.76046752929688</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>68.75255584716797</v>
+        <v>66.25863647460938</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>70.41754913330078</v>
+        <v>68.03411865234375</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>67.23094940185547</v>
+        <v>64.65975189208984</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>67.66437530517578</v>
+        <v>65.16276550292969</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>67.61710357666016</v>
+        <v>65.06770324707031</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>68.47753143310547</v>
+        <v>65.96139526367188</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>68.92388916015625</v>
+        <v>66.46035766601562</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>70.57433319091797</v>
+        <v>68.21063232421875</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>67.33666229248047</v>
+        <v>64.77052307128906</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>67.76924133300781</v>
+        <v>65.27492523193359</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>67.72238922119141</v>
+        <v>65.17887115478516</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>68.58625030517578</v>
+        <v>66.06609344482422</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>69.03525543212891</v>
+        <v>66.56364440917969</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>70.67327117919922</v>
+        <v>68.30937194824219</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>65.71621704101562</v>
+        <v>63.01029968261719</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>66.214599609375</v>
+        <v>63.58388519287109</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>66.13099670410156</v>
+        <v>63.45216369628906</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>67.08314514160156</v>
+        <v>64.43574523925781</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>67.51840209960938</v>
+        <v>64.91774749755859</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>69.32241821289062</v>
+        <v>66.82933807373047</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>65.96619415283203</v>
+        <v>63.28102874755859</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>66.45172119140625</v>
+        <v>63.84602355957031</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>66.376220703125</v>
+        <v>63.71980285644531</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>67.30269622802734</v>
+        <v>64.6788330078125</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>67.73929595947266</v>
+        <v>65.16730499267578</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>69.529296875</v>
+        <v>67.04908752441406</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>66.26832580566406</v>
+        <v>63.57975387573242</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>66.74021911621094</v>
+        <v>64.12379455566406</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>66.67382049560547</v>
+        <v>64.00981140136719</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>67.57321166992188</v>
+        <v>64.94545745849609</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>68.01609802246094</v>
+        <v>65.43618774414062</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>69.77257537841797</v>
+        <v>67.30561065673828</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>66.47096252441406</v>
+        <v>63.79221343994141</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>66.93390655517578</v>
+        <v>64.33075714111328</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>66.87164306640625</v>
+        <v>64.21925354003906</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>67.77117156982422</v>
+        <v>65.15119934082031</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>68.21205902099609</v>
+        <v>65.63887023925781</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>69.95063018798828</v>
+        <v>67.49204254150391</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>66.72237396240234</v>
+        <v>64.06401824951172</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>67.18956756591797</v>
+        <v>64.592529296875</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>67.12641143798828</v>
+        <v>64.48451232910156</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>68.02224731445312</v>
+        <v>65.40537261962891</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>68.46556091308594</v>
+        <v>65.89582061767578</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>70.16400146484375</v>
+        <v>67.71738433837891</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>66.8914794921875</v>
+        <v>64.24357604980469</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>67.34611511230469</v>
+        <v>64.76565551757812</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>67.28896331787109</v>
+        <v>64.65946960449219</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>68.16657257080078</v>
+        <v>65.57799530029297</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>68.61359405517578</v>
+        <v>66.07156372070312</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>70.29203033447266</v>
+        <v>67.87128448486328</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>67.09906005859375</v>
+        <v>64.4881591796875</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>67.53994750976562</v>
+        <v>64.99924468994141</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>67.48862457275391</v>
+        <v>64.90044403076172</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>68.35386657714844</v>
+        <v>65.80364227294922</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>68.80204772949219</v>
+        <v>66.29911041259766</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>70.46302795410156</v>
+        <v>68.06892395019531</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>67.21222686767578</v>
+        <v>64.61497497558594</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>67.65603637695312</v>
+        <v>65.12603759765625</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>67.60462951660156</v>
+        <v>65.02738952636719</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>68.46365356445312</v>
+        <v>65.92046356201172</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>68.91529846191406</v>
+        <v>66.42125701904297</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>70.57045745849609</v>
+        <v>68.18154144287109</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>67.38687133789062</v>
+        <v>64.81038665771484</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>67.81478118896484</v>
+        <v>65.30651092529297</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>67.77041625976562</v>
+        <v>65.21533966064453</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>68.62588500976562</v>
+        <v>66.10323333740234</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>69.07365417480469</v>
+        <v>66.60377502441406</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>70.70960998535156</v>
+        <v>68.33969116210938</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>67.48130035400391</v>
+        <v>64.90998840332031</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>67.90779876708984</v>
+        <v>65.40904998779297</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>67.86404418945312</v>
+        <v>65.31446075439453</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>68.72073364257812</v>
+        <v>66.20050811767578</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>69.17082214355469</v>
+        <v>66.70260620117188</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>70.80101776123047</v>
+        <v>68.43184661865234</v>
       </c>
     </row>
   </sheetData>

--- a/exports/V_final.xlsx
+++ b/exports/V_final.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueFunction" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ValueVFunction" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-472.6009216308594</v>
+        <v>-961.8629150390625</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-471.3779907226562</v>
+        <v>-961.52880859375</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-471.8092346191406</v>
+        <v>-961.04296875</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>38.07067489624023</v>
+        <v>-267.744384765625</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>53.13213729858398</v>
+        <v>-27.2718391418457</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>62.45352935791016</v>
+        <v>0.421911895275116</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-205.3096160888672</v>
+        <v>-881.94287109375</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-204.2277526855469</v>
+        <v>-880.9080810546875</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-204.5993347167969</v>
+        <v>-879.494873046875</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>49.92419052124023</v>
+        <v>-240.8625946044922</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>57.62260818481445</v>
+        <v>-24.53886413574219</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>63.54094314575195</v>
+        <v>1.894687175750732</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>59.60436248779297</v>
+        <v>-801.878173828125</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>60.54413986206055</v>
+        <v>-800.1372680664062</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>60.2325439453125</v>
+        <v>-797.803466796875</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>61.68579864501953</v>
+        <v>-214.0290069580078</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>62.08728790283203</v>
+        <v>-21.80832672119141</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>64.64561462402344</v>
+        <v>3.365823745727539</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>60.42168045043945</v>
+        <v>-716.5758666992188</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>61.20182800292969</v>
+        <v>-713.904541015625</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>60.96860504150391</v>
+        <v>-710.8958740234375</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>62.21028518676758</v>
+        <v>-186.3538360595703</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>62.65089416503906</v>
+        <v>-19.1653938293457</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>65.00491333007812</v>
+        <v>4.787569046020508</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>61.30191802978516</v>
+        <v>-630.836669921875</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>61.94798278808594</v>
+        <v>-627.1854248046875</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>61.78147125244141</v>
+        <v>-623.50537109375</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>62.86410522460938</v>
+        <v>-158.8899993896484</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>63.32908248901367</v>
+        <v>-16.54044342041016</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>65.41114807128906</v>
+        <v>6.222655773162842</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>61.63393020629883</v>
+        <v>-538.930419921875</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>62.27134704589844</v>
+        <v>-533.3551635742188</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>62.10613250732422</v>
+        <v>-529.5095825195312</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>63.17475128173828</v>
+        <v>-127.7279663085938</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>63.64629364013672</v>
+        <v>-14.127366065979</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>65.69882965087891</v>
+        <v>7.605613231658936</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>62.05567932128906</v>
+        <v>-449.3375854492188</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>62.65536499023438</v>
+        <v>-441.9443969726562</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>62.50911712646484</v>
+        <v>-437.9274291992188</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>63.5526237487793</v>
+        <v>-96.89907836914062</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>64.02398681640625</v>
+        <v>-11.69298648834229</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>66.03328704833984</v>
+        <v>8.986362457275391</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>62.35326385498047</v>
+        <v>-345.6238403320312</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>62.95639038085938</v>
+        <v>-334.69287109375</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>62.8067626953125</v>
+        <v>-330.6650390625</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>63.83308792114258</v>
+        <v>-66.20053100585938</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>64.310546875</v>
+        <v>-9.807796478271484</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>66.28903198242188</v>
+        <v>10.20583152770996</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>62.72665405273438</v>
+        <v>-241.9273681640625</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>63.30632400512695</v>
+        <v>-227.4234313964844</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>63.16860580444336</v>
+        <v>-223.3851318359375</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>64.16432189941406</v>
+        <v>-35.49066925048828</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>64.64625549316406</v>
+        <v>-7.916011810302734</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>66.59812927246094</v>
+        <v>11.42143630981445</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>62.98996734619141</v>
+        <v>-149.9691162109375</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>63.5726318359375</v>
+        <v>-132.5771942138672</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>63.43465805053711</v>
+        <v>-128.3869323730469</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>64.41615295410156</v>
+        <v>-26.94891929626465</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>64.90259552001953</v>
+        <v>-6.87696361541748</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>66.82144165039062</v>
+        <v>12.57487869262695</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>56.93581771850586</v>
+        <v>-880.2608642578125</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>58.60850143432617</v>
+        <v>-879.1920166015625</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>58.00078582763672</v>
+        <v>-877.719970703125</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>60.16319274902344</v>
+        <v>-239.598388671875</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>60.46911239624023</v>
+        <v>-24.47167778015137</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>63.86145401000977</v>
+        <v>1.916820168495178</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>58.90005111694336</v>
+        <v>-797.8755493164062</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>60.07298278808594</v>
+        <v>-796.0286865234375</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>59.67730712890625</v>
+        <v>-793.7348022460938</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>61.31157684326172</v>
+        <v>-213.8241577148438</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>61.69768905639648</v>
+        <v>-21.7724666595459</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>64.42145538330078</v>
+        <v>3.363710403442383</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>60.75773239135742</v>
+        <v>-715.3172607421875</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>61.47135925292969</v>
+        <v>-712.6785888671875</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>61.27285385131836</v>
+        <v>-709.5755615234375</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>62.43278884887695</v>
+        <v>-187.6461639404297</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>62.87635803222656</v>
+        <v>-19.07709503173828</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>65.07624053955078</v>
+        <v>4.808933734893799</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>61.15200805664062</v>
+        <v>-626.4356689453125</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>61.84742736816406</v>
+        <v>-622.526611328125</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>61.65903472900391</v>
+        <v>-619.0057983398438</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>62.79011535644531</v>
+        <v>-158.5340881347656</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>63.25010299682617</v>
+        <v>-16.52254104614258</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>65.3819580078125</v>
+        <v>6.184617042541504</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>61.68697738647461</v>
+        <v>-536.9918212890625</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>62.30957794189453</v>
+        <v>-531.7822875976562</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>62.15377044677734</v>
+        <v>-527.8421020507812</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>63.213623046875</v>
+        <v>-128.8019409179688</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>63.68180847167969</v>
+        <v>-13.99324226379395</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>65.72617340087891</v>
+        <v>7.62517261505127</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>62.00542831420898</v>
+        <v>-440.4778747558594</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>62.61700057983398</v>
+        <v>-432.3974609375</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>62.46323776245117</v>
+        <v>-428.4247436523438</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>63.50798797607422</v>
+        <v>-96.52958679199219</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>63.98163604736328</v>
+        <v>-11.75704669952393</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>65.99947357177734</v>
+        <v>8.91489315032959</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>62.40142440795898</v>
+        <v>-344.4961547851562</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>62.98947525024414</v>
+        <v>-333.5572814941406</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>62.85104370117188</v>
+        <v>-329.5650024414062</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>63.86478424072266</v>
+        <v>-63.89689636230469</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>64.34075927734375</v>
+        <v>-9.539902687072754</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>66.32606506347656</v>
+        <v>10.20798015594482</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>62.68291854858398</v>
+        <v>-230.3196411132812</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>63.26621246337891</v>
+        <v>-215.3409576416016</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>63.12743759155273</v>
+        <v>-211.3035278320312</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>64.12397766113281</v>
+        <v>-40.17741012573242</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>64.60609436035156</v>
+        <v>-8.11150074005127</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>66.56784820556641</v>
+        <v>11.3745174407959</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>63.03681945800781</v>
+        <v>-116.1488952636719</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>63.60690689086914</v>
+        <v>-97.11219787597656</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>63.47445297241211</v>
+        <v>-93.0374755859375</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>64.44797515869141</v>
+        <v>-20.19414520263672</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>64.93541717529297</v>
+        <v>-6.810655117034912</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>66.85073852539062</v>
+        <v>12.54056835174561</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>63.27531814575195</v>
+        <v>-77.50967407226562</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>63.84450912475586</v>
+        <v>-58.11361312866211</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>63.71365356445312</v>
+        <v>-53.73867797851562</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>64.67668914794922</v>
+        <v>-18.68722534179688</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>65.1668701171875</v>
+        <v>-5.723942756652832</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>67.05603790283203</v>
+        <v>13.65493011474609</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>59.61124420166016</v>
+        <v>-796.3060302734375</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>60.54649353027344</v>
+        <v>-794.4293212890625</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>60.22542572021484</v>
+        <v>-792.0667724609375</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>61.68631362915039</v>
+        <v>-214.9877624511719</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>62.0982780456543</v>
+        <v>-21.70217132568359</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>64.6356201171875</v>
+        <v>3.375910043716431</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>60.41556930541992</v>
+        <v>-711.018310546875</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>61.19223022460938</v>
+        <v>-708.242919921875</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>60.95343780517578</v>
+        <v>-705.2050170898438</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>62.20443344116211</v>
+        <v>-188.3993530273438</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>62.64907073974609</v>
+        <v>-19.05673408508301</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>64.99703216552734</v>
+        <v>4.794187068939209</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>61.29113006591797</v>
+        <v>-625.497314453125</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>61.93886566162109</v>
+        <v>-621.7861938476562</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>61.76729965209961</v>
+        <v>-618.0869140625</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>62.85284423828125</v>
+        <v>-161.7757873535156</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>63.31993865966797</v>
+        <v>-16.41743087768555</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>65.40755462646484</v>
+        <v>6.23615837097168</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>61.63319396972656</v>
+        <v>-531.6251220703125</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>62.26472473144531</v>
+        <v>-525.7982177734375</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>62.10137557983398</v>
+        <v>-521.977294921875</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>63.17801284790039</v>
+        <v>-128.3657379150391</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>63.64393615722656</v>
+        <v>-14.00363349914551</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>65.69725799560547</v>
+        <v>7.584806442260742</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>62.05652618408203</v>
+        <v>-439.1325073242188</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>62.65529632568359</v>
+        <v>-431.2554016113281</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>62.51224136352539</v>
+        <v>-427.3076171875</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>63.54819488525391</v>
+        <v>-94.77199554443359</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>64.01667022705078</v>
+        <v>-11.59631538391113</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>66.03461456298828</v>
+        <v>8.940217018127441</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>62.35838317871094</v>
+        <v>-334.4232788085938</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>62.95028686523438</v>
+        <v>-322.9604187011719</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>62.80538177490234</v>
+        <v>-318.9828491210938</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>63.82778930664062</v>
+        <v>-64.46389007568359</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>64.30393981933594</v>
+        <v>-9.755245208740234</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>66.29597473144531</v>
+        <v>10.14559936523438</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>62.72770690917969</v>
+        <v>-229.7295379638672</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>63.30759429931641</v>
+        <v>-214.6492462158203</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>63.17040634155273</v>
+        <v>-210.6661987304688</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>64.16511535644531</v>
+        <v>-34.10755920410156</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>64.64774322509766</v>
+        <v>-7.909784317016602</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>66.59637451171875</v>
+        <v>11.35206985473633</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>62.98755645751953</v>
+        <v>-143.7689208984375</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>63.56645965576172</v>
+        <v>-126.0942230224609</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>63.42832946777344</v>
+        <v>-121.9331665039062</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>64.41505432128906</v>
+        <v>-26.25684356689453</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>64.90111541748047</v>
+        <v>-6.891230583190918</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>66.81755065917969</v>
+        <v>12.49020290374756</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>63.31608581542969</v>
+        <v>-57.79408264160156</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>63.87809753417969</v>
+        <v>-37.53170776367188</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>63.7518196105957</v>
+        <v>-33.20279693603516</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>64.71642303466797</v>
+        <v>-18.39608383178711</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>65.20408630371094</v>
+        <v>-5.71043872833252</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>67.08242034912109</v>
+        <v>13.63379669189453</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>63.54167938232422</v>
+        <v>-55.27834320068359</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>64.09690093994141</v>
+        <v>-36.04427337646484</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>63.97398376464844</v>
+        <v>-31.38650131225586</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>64.92476654052734</v>
+        <v>-17.51338195800781</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>65.41151428222656</v>
+        <v>-4.551620960235596</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>67.27701568603516</v>
+        <v>14.69789218902588</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>60.74034881591797</v>
+        <v>-709.6144409179688</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>61.45537948608398</v>
+        <v>-706.8214721679688</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>61.25588607788086</v>
+        <v>-703.70068359375</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>62.40796661376953</v>
+        <v>-193.2836303710938</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>62.86282730102539</v>
+        <v>-18.98044586181641</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>65.06484985351562</v>
+        <v>4.810621738433838</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>61.1790885925293</v>
+        <v>-620.8096923828125</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>61.85105514526367</v>
+        <v>-616.7738647460938</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>61.67126083374023</v>
+        <v>-613.2684326171875</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>62.78159332275391</v>
+        <v>-161.7432250976562</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>63.24123382568359</v>
+        <v>-16.4200553894043</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>65.37590026855469</v>
+        <v>6.180744171142578</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>61.68568801879883</v>
+        <v>-531.673828125</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>62.30709838867188</v>
+        <v>-526.34326171875</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>62.15124893188477</v>
+        <v>-522.46484375</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>63.20341110229492</v>
+        <v>-130.2341003417969</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>63.66992568969727</v>
+        <v>-13.86991596221924</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>65.72915649414062</v>
+        <v>7.625579833984375</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>62.00926971435547</v>
+        <v>-431.5217895507812</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>62.61528396606445</v>
+        <v>-423.0287170410156</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>62.46279525756836</v>
+        <v>-419.1326904296875</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>63.51150131225586</v>
+        <v>-96.96842956542969</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>63.98016738891602</v>
+        <v>-11.68492412567139</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>66.00957489013672</v>
+        <v>8.898368835449219</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>62.39976119995117</v>
+        <v>-333.4562377929688</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>62.99146270751953</v>
+        <v>-321.9038696289062</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>62.8523063659668</v>
+        <v>-317.9812927246094</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>63.86263275146484</v>
+        <v>-63.65296936035156</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>64.33802795410156</v>
+        <v>-9.480179786682129</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>66.32392883300781</v>
+        <v>10.17196846008301</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>62.6849365234375</v>
+        <v>-218.013916015625</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>63.2675895690918</v>
+        <v>-202.4363555908203</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>63.12836074829102</v>
+        <v>-198.449462890625</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>64.13479614257812</v>
+        <v>-40.25975799560547</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>64.61519622802734</v>
+        <v>-8.123011589050293</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>66.56391906738281</v>
+        <v>11.32837772369385</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>63.03514099121094</v>
+        <v>-102.5936126708984</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>63.60290145874023</v>
+        <v>-82.93486785888672</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>63.47262573242188</v>
+        <v>-78.90716552734375</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>64.44851684570312</v>
+        <v>-20.61171340942383</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>64.93374633789062</v>
+        <v>-6.862813472747803</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>66.84593200683594</v>
+        <v>12.48486137390137</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>63.2745361328125</v>
+        <v>-72.82960510253906</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>63.83772277832031</v>
+        <v>-53.12883377075195</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>63.70877456665039</v>
+        <v>-48.79906463623047</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>64.67652130126953</v>
+        <v>-18.88122177124023</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>65.16519927978516</v>
+        <v>-5.765432357788086</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>67.05288696289062</v>
+        <v>13.56707954406738</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>63.57554626464844</v>
+        <v>-54.92192840576172</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>64.13059997558594</v>
+        <v>-35.66204452514648</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>64.00724792480469</v>
+        <v>-31.04446220397949</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>64.96504211425781</v>
+        <v>-17.46140480041504</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>65.45496368408203</v>
+        <v>-4.461956024169922</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>67.30614471435547</v>
+        <v>14.65075397491455</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>63.78876113891602</v>
+        <v>-52.82347869873047</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>64.34170532226562</v>
+        <v>-34.59670257568359</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>64.21797943115234</v>
+        <v>-29.64224243164062</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>65.16385650634766</v>
+        <v>-16.46207046508789</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>65.6549072265625</v>
+        <v>-3.380250453948975</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>67.48811340332031</v>
+        <v>15.73186302185059</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>61.28098297119141</v>
+        <v>-619.6700439453125</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>61.92109298706055</v>
+        <v>-615.7959594726562</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>61.755126953125</v>
+        <v>-612.096435546875</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>62.83376693725586</v>
+        <v>-173.0536041259766</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>63.30217742919922</v>
+        <v>-16.33224487304688</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>65.40350341796875</v>
+        <v>6.233230590820312</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>61.65895080566406</v>
+        <v>-525.9017333984375</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>62.27371215820312</v>
+        <v>-519.8186645507812</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>62.12306976318359</v>
+        <v>-516.0411987304688</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>63.15927124023438</v>
+        <v>-136.9286956787109</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>63.63092422485352</v>
+        <v>-13.90924263000488</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>65.70384979248047</v>
+        <v>7.579821109771729</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>62.05244445800781</v>
+        <v>-431.6868896484375</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>62.65786743164062</v>
+        <v>-423.3432006835938</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>62.51127624511719</v>
+        <v>-419.4901123046875</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>63.53540420532227</v>
+        <v>-104.0139389038086</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>64.00489044189453</v>
+        <v>-11.50526332855225</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>66.03463745117188</v>
+        <v>8.925685882568359</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>62.35723114013672</v>
+        <v>-323.5224609375</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>62.94678115844727</v>
+        <v>-311.4104614257812</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>62.80521392822266</v>
+        <v>-307.5317993164062</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>63.82041168212891</v>
+        <v>-72.61508178710938</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>64.29460144042969</v>
+        <v>-9.724320411682129</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>66.29386901855469</v>
+        <v>10.12667274475098</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>62.72846984863281</v>
+        <v>-217.6972045898438</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>63.30881118774414</v>
+        <v>-201.9231872558594</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>63.17218017578125</v>
+        <v>-198.0135498046875</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>64.16578674316406</v>
+        <v>-41.61875534057617</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>64.64746856689453</v>
+        <v>-7.922730445861816</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>66.59062194824219</v>
+        <v>11.32787322998047</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>62.98370742797852</v>
+        <v>-137.7072448730469</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>63.55991363525391</v>
+        <v>-119.6623764038086</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>63.42669296264648</v>
+        <v>-115.5645904541016</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>64.41414642333984</v>
+        <v>-30.0334300994873</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>64.89862060546875</v>
+        <v>-6.929707527160645</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>66.81285095214844</v>
+        <v>12.44799423217773</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>63.31369400024414</v>
+        <v>-57.73181533813477</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>63.87336730957031</v>
+        <v>-37.38908767700195</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>63.74840927124023</v>
+        <v>-33.0999641418457</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>64.71814727783203</v>
+        <v>-18.4146614074707</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>65.20401763916016</v>
+        <v>-5.736117362976074</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>67.07986450195312</v>
+        <v>13.57091045379639</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>63.53810119628906</v>
+        <v>-55.302001953125</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>64.09200286865234</v>
+        <v>-35.99846267700195</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>63.96974945068359</v>
+        <v>-31.36457443237305</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>64.92665100097656</v>
+        <v>-17.5723934173584</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>65.4110107421875</v>
+        <v>-4.605652809143066</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>67.27471923828125</v>
+        <v>14.64308643341064</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>63.83077239990234</v>
+        <v>-52.82067489624023</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>64.37227630615234</v>
+        <v>-34.59146881103516</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>64.2550048828125</v>
+        <v>-29.61714553833008</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>65.19194030761719</v>
+        <v>-16.43621635437012</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>65.68434143066406</v>
+        <v>-3.352655410766602</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>67.52028656005859</v>
+        <v>15.7266731262207</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>64.0291748046875</v>
+        <v>-50.83986282348633</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>64.56576538085938</v>
+        <v>-33.50986480712891</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>64.45000457763672</v>
+        <v>-28.36822891235352</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>65.37910461425781</v>
+        <v>-15.33382415771484</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>65.87354278564453</v>
+        <v>-2.218339920043945</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>67.68555450439453</v>
+        <v>16.78495979309082</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>61.67679977416992</v>
+        <v>-525.7440185546875</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>62.29493713378906</v>
+        <v>-520.2242431640625</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>62.140380859375</v>
+        <v>-516.451171875</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>63.18406677246094</v>
+        <v>-143.6040954589844</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>63.65452194213867</v>
+        <v>-13.79841804504395</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>65.72482299804688</v>
+        <v>7.607258319854736</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>62.02392959594727</v>
+        <v>-424.6199340820312</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>62.62554550170898</v>
+        <v>-415.7124328613281</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>62.48093795776367</v>
+        <v>-411.9320678710938</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>63.49370193481445</v>
+        <v>-106.6709976196289</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>63.96941757202148</v>
+        <v>-11.61006259918213</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>66.00526428222656</v>
+        <v>8.87349796295166</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>62.39545059204102</v>
+        <v>-322.91162109375</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>62.99054718017578</v>
+        <v>-310.5969848632812</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>62.84710311889648</v>
+        <v>-306.8059692382812</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>63.85892868041992</v>
+        <v>-73.70028686523438</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>64.33553314208984</v>
+        <v>-9.447600364685059</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>66.32097625732422</v>
+        <v>10.14129447937012</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>62.68406295776367</v>
+        <v>-205.8901519775391</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>63.26212310791016</v>
+        <v>-189.5531463623047</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>63.12837219238281</v>
+        <v>-185.6710205078125</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>64.12981414794922</v>
+        <v>-46.10263824462891</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>64.60739898681641</v>
+        <v>-8.151704788208008</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>66.56022644042969</v>
+        <v>11.28721904754639</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>63.03288650512695</v>
+        <v>-89.13540649414062</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>63.60048294067383</v>
+        <v>-68.79452514648438</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>63.47039794921875</v>
+        <v>-64.83209228515625</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>64.44940948486328</v>
+        <v>-23.99170875549316</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>64.93051910400391</v>
+        <v>-6.935456275939941</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>66.84051513671875</v>
+        <v>12.43362617492676</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>63.27590560913086</v>
+        <v>-68.12763977050781</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>63.8309440612793</v>
+        <v>-48.12109756469727</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>63.70962142944336</v>
+        <v>-43.81652069091797</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>64.67440795898438</v>
+        <v>-20.14059638977051</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>65.16114807128906</v>
+        <v>-5.816758632659912</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>67.04891967773438</v>
+        <v>13.53357410430908</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>63.57633972167969</v>
+        <v>-55.17112350463867</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>64.12530517578125</v>
+        <v>-35.70569610595703</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>64.00624847412109</v>
+        <v>-31.09183502197266</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>64.964599609375</v>
+        <v>-17.57583808898926</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>65.45284271240234</v>
+        <v>-4.53525972366333</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>67.30644226074219</v>
+        <v>14.63777542114258</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>63.78924942016602</v>
+        <v>-52.89910888671875</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>64.33274078369141</v>
+        <v>-34.62839508056641</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>64.21686553955078</v>
+        <v>-29.67147254943848</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>65.16151428222656</v>
+        <v>-16.55738639831543</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>65.65182495117188</v>
+        <v>-3.407557725906372</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>67.48682403564453</v>
+        <v>15.7342004776001</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>64.06996917724609</v>
+        <v>-50.75598907470703</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>64.59696197509766</v>
+        <v>-33.30257034301758</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>64.48770141601562</v>
+        <v>-28.26542282104492</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>65.40731048583984</v>
+        <v>-15.29237651824951</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>65.90010070800781</v>
+        <v>-2.161003351211548</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>67.72211456298828</v>
+        <v>16.84444999694824</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>64.24759674072266</v>
+        <v>-48.98457717895508</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>64.77342224121094</v>
+        <v>-32.20754623413086</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>64.66301727294922</v>
+        <v>-27.09540557861328</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>65.57856750488281</v>
+        <v>-14.13607501983643</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>66.07472991943359</v>
+        <v>-1.029799222946167</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>67.8648681640625</v>
+        <v>17.83292579650879</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>62.04281234741211</v>
+        <v>-425.7438354492188</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>62.64706420898438</v>
+        <v>-416.7585754394531</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="E364" t="n">
-        <v>62.49892044067383</v>
+        <v>-413.0589904785156</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>63.51877975463867</v>
+        <v>-108.59130859375</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>63.99512481689453</v>
+        <v>-11.4489049911499</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>66.02863311767578</v>
+        <v>8.889537811279297</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>62.37044143676758</v>
+        <v>-315.0513000488281</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>62.96099472045898</v>
+        <v>-302.1435852050781</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>62.82179260253906</v>
+        <v>-298.4273071289062</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>63.81618881225586</v>
+        <v>-74.10475158691406</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>64.29764556884766</v>
+        <v>-9.704685211181641</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>66.28801727294922</v>
+        <v>10.08462524414062</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>62.72230529785156</v>
+        <v>-206.0158538818359</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>63.30458831787109</v>
+        <v>-189.2505187988281</v>
       </c>
     </row>
     <row r="376">
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>63.1671028137207</v>
+        <v>-185.5144653320312</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>64.16062927246094</v>
+        <v>-42.91750717163086</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>64.64276885986328</v>
+        <v>-7.96390962600708</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>66.58757019042969</v>
+        <v>11.28107929229736</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>62.98001480102539</v>
+        <v>-131.9730682373047</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>63.555419921875</v>
+        <v>-113.294059753418</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>63.42337036132812</v>
+        <v>-109.321159362793</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>64.40995025634766</v>
+        <v>-30.71914672851562</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>64.89193725585938</v>
+        <v>-6.998377799987793</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>66.8099365234375</v>
+        <v>12.37074279785156</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>63.30993270874023</v>
+        <v>-57.97004699707031</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>63.86968994140625</v>
+        <v>-37.32403564453125</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>63.74394989013672</v>
+        <v>-33.14538192749023</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>64.71756744384766</v>
+        <v>-18.46199989318848</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>65.20124053955078</v>
+        <v>-5.797638893127441</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>67.07794189453125</v>
+        <v>13.46245002746582</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>63.53525543212891</v>
+        <v>-55.39349365234375</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>64.08845520019531</v>
+        <v>-35.95866394042969</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>63.96704864501953</v>
+        <v>-31.36466598510742</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>64.92931365966797</v>
+        <v>-17.61552238464355</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>65.41748809814453</v>
+        <v>-4.660370349884033</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>67.27230834960938</v>
+        <v>14.59749889373779</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>63.83443069458008</v>
+        <v>-52.799560546875</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>64.36811828613281</v>
+        <v>-34.58317184448242</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>64.25806427001953</v>
+        <v>-29.5850715637207</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>65.18758392333984</v>
+        <v>-16.46012496948242</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>65.68118286132812</v>
+        <v>-3.378850698471069</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>67.51998138427734</v>
+        <v>15.74544525146484</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>64.03225708007812</v>
+        <v>-50.79218292236328</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>64.55973052978516</v>
+        <v>-33.50261306762695</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>64.45197296142578</v>
+        <v>-28.35555267333984</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>65.37786102294922</v>
+        <v>-15.3616828918457</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>65.872314453125</v>
+        <v>-2.183521747589111</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>67.68446350097656</v>
+        <v>16.7906494140625</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>64.28248596191406</v>
+        <v>-48.76560974121094</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>64.80735778808594</v>
+        <v>-32.02603149414062</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>64.70039367675781</v>
+        <v>-26.95852279663086</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>65.6158447265625</v>
+        <v>-14.00855541229248</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>66.11092376708984</v>
+        <v>-0.9049567580223083</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>67.90782165527344</v>
+        <v>17.8514232635498</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>64.43721008300781</v>
+        <v>-47.36723709106445</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>64.96043395996094</v>
+        <v>-30.92670631408691</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>64.85447692871094</v>
+        <v>-25.83235740661621</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>65.76051330566406</v>
+        <v>-12.85182857513428</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>66.25945281982422</v>
+        <v>0.1850370764732361</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>68.03016662597656</v>
+        <v>18.78458023071289</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>62.38336563110352</v>
+        <v>-316.8161926269531</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>62.98128890991211</v>
+        <v>-303.5014343261719</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>62.83663940429688</v>
+        <v>-299.934814453125</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>63.85041046142578</v>
+        <v>-74.32041931152344</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>64.32966613769531</v>
+        <v>-9.418022155761719</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>66.31481170654297</v>
+        <v>10.08580207824707</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>62.695068359375</v>
+        <v>-195.3080139160156</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>63.28187561035156</v>
+        <v>-177.9902496337891</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>63.1436767578125</v>
+        <v>-174.2853546142578</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>64.13231658935547</v>
+        <v>-44.51798629760742</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>64.61573791503906</v>
+        <v>-8.202377319335938</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>66.55278015136719</v>
+        <v>11.21466732025146</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>63.02526473999023</v>
+        <v>-75.86836242675781</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>63.59510803222656</v>
+        <v>-54.68668365478516</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>63.46490478515625</v>
+        <v>-50.82661819458008</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>64.44511413574219</v>
+        <v>-22.00275993347168</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>64.92561340332031</v>
+        <v>-7.03803014755249</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>66.83580017089844</v>
+        <v>12.3441047668457</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>63.26892471313477</v>
+        <v>-63.39836120605469</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>63.82631301879883</v>
+        <v>-43.12458038330078</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>63.70362091064453</v>
+        <v>-38.84108734130859</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>64.67879486083984</v>
+        <v>-19.46809387207031</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>65.15941619873047</v>
+        <v>-5.910189628601074</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>67.04569244384766</v>
+        <v>13.48603057861328</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>63.57795333862305</v>
+        <v>-55.17164611816406</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>64.12296295166016</v>
+        <v>-35.73138427734375</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>64.00839233398438</v>
+        <v>-31.11209487915039</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>64.95697784423828</v>
+        <v>-17.62017631530762</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>65.443359375</v>
+        <v>-4.641101837158203</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>67.30549621582031</v>
+        <v>14.6311502456665</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>63.79159545898438</v>
+        <v>-52.89244842529297</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>64.32953643798828</v>
+        <v>-34.65813827514648</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>64.21858978271484</v>
+        <v>-29.70126342773438</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>65.157958984375</v>
+        <v>-16.58847808837891</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>65.64627838134766</v>
+        <v>-3.478003978729248</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>67.48503112792969</v>
+        <v>15.7348690032959</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>64.06906127929688</v>
+        <v>-50.69556045532227</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>64.59388732910156</v>
+        <v>-33.36610794067383</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>64.48743438720703</v>
+        <v>-28.32134246826172</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>65.40642547607422</v>
+        <v>-15.26333808898926</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>65.89837646484375</v>
+        <v>-2.147983074188232</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>67.72079467773438</v>
+        <v>16.85102081298828</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>64.24611663818359</v>
+        <v>-49.00640106201172</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>64.76891326904297</v>
+        <v>-32.25883483886719</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>64.6607666015625</v>
+        <v>-27.16560554504395</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>65.57865905761719</v>
+        <v>-14.15113258361816</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>66.07382965087891</v>
+        <v>-0.9683043956756592</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>67.86684417724609</v>
+        <v>17.82641792297363</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>64.48659515380859</v>
+        <v>-47.31532669067383</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>64.99913787841797</v>
+        <v>-30.80778503417969</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>64.89873504638672</v>
+        <v>-25.81416320800781</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>65.80183410644531</v>
+        <v>-12.7810640335083</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>66.29854583740234</v>
+        <v>0.2572553753852844</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>68.06867218017578</v>
+        <v>18.82217788696289</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>64.61453247070312</v>
+        <v>-46.06166458129883</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>65.12808227539062</v>
+        <v>-29.79319381713867</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>65.02755737304688</v>
+        <v>-24.72110939025879</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>65.92011260986328</v>
+        <v>-11.65766620635986</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>66.42156219482422</v>
+        <v>1.284513235092163</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>68.17681884765625</v>
+        <v>19.68739128112793</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>62.70651626586914</v>
+        <v>-197.6643981933594</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>63.29217147827148</v>
+        <v>-179.1923217773438</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>63.15385818481445</v>
+        <v>-175.7850952148438</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>64.14978790283203</v>
+        <v>-46.54253005981445</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>64.63247680664062</v>
+        <v>-8.025337219238281</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>66.57942962646484</v>
+        <v>11.20529174804688</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>62.98743438720703</v>
+        <v>-127.272331237793</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>63.55790328979492</v>
+        <v>-107.0532836914062</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>63.42611312866211</v>
+        <v>-103.3988571166992</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>64.40110015869141</v>
+        <v>-30.90929794311523</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>64.8870849609375</v>
+        <v>-7.104134559631348</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>66.80421447753906</v>
+        <v>12.3288631439209</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>63.30933380126953</v>
+        <v>-58.9319953918457</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>63.86309432983398</v>
+        <v>-37.37912368774414</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>63.73844528198242</v>
+        <v>-33.46725845336914</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>64.70967102050781</v>
+        <v>-18.55613327026367</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>65.19375610351562</v>
+        <v>-5.901267051696777</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>67.07850646972656</v>
+        <v>13.45343399047852</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>63.53197479248047</v>
+        <v>-55.80020141601562</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>64.08543395996094</v>
+        <v>-35.99272918701172</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>63.96420669555664</v>
+        <v>-31.51127815246582</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>64.92306518554688</v>
+        <v>-17.67280960083008</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>65.40840911865234</v>
+        <v>-4.707517623901367</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>67.27449035644531</v>
+        <v>14.595778465271</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>63.83716201782227</v>
+        <v>-52.67750549316406</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>64.36980438232422</v>
+        <v>-34.583251953125</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>64.26181030273438</v>
+        <v>-29.55560111999512</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>65.18539428710938</v>
+        <v>-16.47577667236328</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>65.67815399169922</v>
+        <v>-3.374267578125</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>67.51760101318359</v>
+        <v>15.75127410888672</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>64.02851867675781</v>
+        <v>-50.72039031982422</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>64.55561828613281</v>
+        <v>-33.50637054443359</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>64.44999694824219</v>
+        <v>-28.36132431030273</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>65.37657165527344</v>
+        <v>-15.37425518035889</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>65.86970520019531</v>
+        <v>-2.194438695907593</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>67.68792724609375</v>
+        <v>16.78215026855469</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>64.27992248535156</v>
+        <v>-48.75124359130859</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>64.80412292480469</v>
+        <v>-32.04652404785156</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>64.698486328125</v>
+        <v>-27.04424285888672</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>65.61714172363281</v>
+        <v>-13.97967338562012</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>66.10967254638672</v>
+        <v>-0.8844809532165527</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>67.90821838378906</v>
+        <v>17.83197593688965</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>64.43515014648438</v>
+        <v>-47.44919586181641</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>64.95626068115234</v>
+        <v>-30.93640518188477</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>64.85130310058594</v>
+        <v>-25.89820671081543</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>65.76046752929688</v>
+        <v>-12.86173248291016</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>66.25863647460938</v>
+        <v>0.2447317242622375</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>68.03411865234375</v>
+        <v>18.74768447875977</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>64.65975189208984</v>
+        <v>-46.0843620300293</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>65.16276550292969</v>
+        <v>-29.56604766845703</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>65.06770324707031</v>
+        <v>-24.65316772460938</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>65.96139526367188</v>
+        <v>-11.55974388122559</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>66.46035766601562</v>
+        <v>1.417275786399841</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>68.21063232421875</v>
+        <v>19.67703247070312</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>64.77052307128906</v>
+        <v>-44.88065338134766</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>65.27492523193359</v>
+        <v>-28.58439636230469</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>65.17887115478516</v>
+        <v>-23.53551864624023</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>66.06609344482422</v>
+        <v>-10.56010818481445</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>66.56364440917969</v>
+        <v>2.351259469985962</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>68.30937194824219</v>
+        <v>20.57129669189453</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>63.01029968261719</v>
+        <v>-63.03212738037109</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>63.58388519287109</v>
+        <v>-40.68059921264648</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>63.45216369628906</v>
+        <v>-37.02077484130859</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>64.43574523925781</v>
+        <v>-19.79961585998535</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>64.91774749755859</v>
+        <v>-7.128159523010254</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>66.82933807373047</v>
+        <v>12.25857353210449</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>63.28102874755859</v>
+        <v>-57.61936569213867</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>63.84602355957031</v>
+        <v>-36.89524459838867</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>63.71980285644531</v>
+        <v>-32.67672729492188</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>64.6788330078125</v>
+        <v>-18.47672271728516</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>65.16730499267578</v>
+        <v>-5.966244220733643</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>67.04908752441406</v>
+        <v>13.44926071166992</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>63.57975387573242</v>
+        <v>-54.99161529541016</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>64.12379455566406</v>
+        <v>-35.71647644042969</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>64.00981140136719</v>
+        <v>-31.02410316467285</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>64.94545745849609</v>
+        <v>-17.58350944519043</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>65.43618774414062</v>
+        <v>-4.67551326751709</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>67.30561065673828</v>
+        <v>14.64164924621582</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>63.79221343994141</v>
+        <v>-52.78312301635742</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>64.33075714111328</v>
+        <v>-34.67263793945312</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>64.21925354003906</v>
+        <v>-29.69495010375977</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>65.15119934082031</v>
+        <v>-16.61751365661621</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>65.63887023925781</v>
+        <v>-3.487356185913086</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>67.49204254150391</v>
+        <v>15.73691177368164</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>64.06401824951172</v>
+        <v>-50.62909317016602</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>64.592529296875</v>
+        <v>-33.38922119140625</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>64.48451232910156</v>
+        <v>-28.35986328125</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>65.40537261962891</v>
+        <v>-15.26576995849609</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>65.89582061767578</v>
+        <v>-2.144185066223145</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>67.71738433837891</v>
+        <v>16.84465789794922</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>64.24357604980469</v>
+        <v>-49.05738067626953</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>64.76565551757812</v>
+        <v>-32.27608108520508</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>64.65946960449219</v>
+        <v>-27.22684478759766</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>65.57799530029297</v>
+        <v>-14.1791934967041</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>66.07156372070312</v>
+        <v>-0.9892565011978149</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>67.87128448486328</v>
+        <v>17.8020133972168</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>64.4881591796875</v>
+        <v>-47.47205352783203</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>64.99924468994141</v>
+        <v>-30.85669708251953</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>64.90044403076172</v>
+        <v>-25.91450691223145</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>65.80364227294922</v>
+        <v>-12.78814697265625</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>66.29911041259766</v>
+        <v>0.2476175427436829</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>68.06892395019531</v>
+        <v>18.78250885009766</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>64.61497497558594</v>
+        <v>-46.1325798034668</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>65.12603759765625</v>
+        <v>-29.82818222045898</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>65.02738952636719</v>
+        <v>-24.75702285766602</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>65.92046356201172</v>
+        <v>-11.69636917114258</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>66.42125701904297</v>
+        <v>1.272540330886841</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>68.18154144287109</v>
+        <v>19.65582847595215</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>64.81038665771484</v>
+        <v>-44.81408309936523</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>65.30651092529297</v>
+        <v>-28.55346488952637</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>65.21533966064453</v>
+        <v>-23.5265998840332</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>66.10323333740234</v>
+        <v>-10.49355125427246</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>66.60377502441406</v>
+        <v>2.39120888710022</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>68.33969116210938</v>
+        <v>20.55089950561523</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>64.90998840332031</v>
+        <v>-43.53229522705078</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>65.40904998779297</v>
+        <v>-27.50374221801758</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>65.31446075439453</v>
+        <v>-22.36929130554199</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>66.20050811767578</v>
+        <v>-9.538240432739258</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>66.70260620117188</v>
+        <v>3.329457998275757</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>68.43184661865234</v>
+        <v>21.48556709289551</v>
       </c>
     </row>
   </sheetData>

--- a/exports/V_final.xlsx
+++ b/exports/V_final.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-961.8629150390625</v>
+        <v>-961.903076171875</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-961.52880859375</v>
+        <v>-961.5885009765625</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-961.04296875</v>
+        <v>-961.1468505859375</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-267.744384765625</v>
+        <v>-323.6528930664062</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-27.2718391418457</v>
+        <v>-47.30991363525391</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.421911895275116</v>
+        <v>-7.903491973876953</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-881.94287109375</v>
+        <v>-883.2086181640625</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-880.9080810546875</v>
+        <v>-882.241943359375</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-879.494873046875</v>
+        <v>-880.9923095703125</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-240.8625946044922</v>
+        <v>-300.0871276855469</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.53886413574219</v>
+        <v>-43.08414459228516</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1.894687175750732</v>
+        <v>-6.019320487976074</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-801.878173828125</v>
+        <v>-804.4782104492188</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-800.1372680664062</v>
+        <v>-802.8582153320312</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-797.803466796875</v>
+        <v>-800.8023071289062</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-214.0290069580078</v>
+        <v>-276.4646301269531</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.80832672119141</v>
+        <v>-38.85849761962891</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3.365823745727539</v>
+        <v>-4.091889381408691</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-716.5758666992188</v>
+        <v>-720.7938232421875</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-713.904541015625</v>
+        <v>-718.3299560546875</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-710.8958740234375</v>
+        <v>-715.7106323242188</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-186.3538360595703</v>
+        <v>-243.3639526367188</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-19.1653938293457</v>
+        <v>-34.64606857299805</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>4.787569046020508</v>
+        <v>-2.44481897354126</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-630.836669921875</v>
+        <v>-637.0084228515625</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-627.1854248046875</v>
+        <v>-633.6820068359375</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-623.50537109375</v>
+        <v>-630.4996948242188</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>-158.8899993896484</v>
+        <v>-210.2403869628906</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-16.54044342041016</v>
+        <v>-30.43738555908203</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>6.222655773162842</v>
+        <v>-0.7698419094085693</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-538.930419921875</v>
+        <v>-546.5906982421875</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-533.3551635742188</v>
+        <v>-541.9656372070312</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-529.5095825195312</v>
+        <v>-538.5335693359375</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-127.7279663085938</v>
+        <v>-169.612548828125</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-14.127366065979</v>
+        <v>-26.35486030578613</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>7.605613231658936</v>
+        <v>0.6505004167556763</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-449.3375854492188</v>
+        <v>-456.7471618652344</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>-441.9443969726562</v>
+        <v>-450.84716796875</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-437.9274291992188</v>
+        <v>-447.1690673828125</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>-96.89907836914062</v>
+        <v>-129.1336975097656</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-11.69298648834229</v>
+        <v>-22.26331329345703</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>8.986362457275391</v>
+        <v>2.080188989639282</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-345.6238403320312</v>
+        <v>-354.1413269042969</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-334.69287109375</v>
+        <v>-344.2632446289062</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-330.6650390625</v>
+        <v>-340.4225463867188</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-66.20053100585938</v>
+        <v>-89.56116485595703</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-9.807796478271484</v>
+        <v>-18.6203498840332</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>10.20583152770996</v>
+        <v>3.402368307113647</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-241.9273681640625</v>
+        <v>-251.5349578857422</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>-227.4234313964844</v>
+        <v>-237.6762084960938</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-223.3851318359375</v>
+        <v>-233.6742248535156</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>-35.49066925048828</v>
+        <v>-49.98225784301758</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.916011810302734</v>
+        <v>-14.9724817276001</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>11.42143630981445</v>
+        <v>4.727846622467041</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-149.9691162109375</v>
+        <v>-159.2846527099609</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-132.5771942138672</v>
+        <v>-141.4022064208984</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-128.3869323730469</v>
+        <v>-137.0582275390625</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-26.94891929626465</v>
+        <v>-36.78295135498047</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.87696361541748</v>
+        <v>-13.23639869689941</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>12.57487869262695</v>
+        <v>5.608447074890137</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-880.2608642578125</v>
+        <v>-880.39404296875</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-879.1920166015625</v>
+        <v>-879.3854370117188</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-877.719970703125</v>
+        <v>-878.061279296875</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-239.598388671875</v>
+        <v>-302.0386047363281</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-24.47167778015137</v>
+        <v>-42.92292785644531</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1.916820168495178</v>
+        <v>-5.927401542663574</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-797.8755493164062</v>
+        <v>-799.2933349609375</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-796.0286865234375</v>
+        <v>-797.5547485351562</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-793.7348022460938</v>
+        <v>-795.5414428710938</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-213.8241577148438</v>
+        <v>-275.025390625</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-21.7724666595459</v>
+        <v>-38.69623565673828</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>3.363710403442383</v>
+        <v>-4.166873931884766</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-715.3172607421875</v>
+        <v>-718.1500244140625</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-712.6785888671875</v>
+        <v>-715.67919921875</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-709.5755615234375</v>
+        <v>-712.9788818359375</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-187.6461639404297</v>
+        <v>-247.64306640625</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-19.07709503173828</v>
+        <v>-34.469970703125</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>4.808933734893799</v>
+        <v>-2.336727619171143</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-626.4356689453125</v>
+        <v>-631.10302734375</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-622.526611328125</v>
+        <v>-627.5972900390625</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-619.0057983398438</v>
+        <v>-624.4859619140625</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-158.5340881347656</v>
+        <v>-208.3871002197266</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.52254104614258</v>
+        <v>-30.29811859130859</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>6.184617042541504</v>
+        <v>-0.8211385011672974</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-536.9918212890625</v>
+        <v>-543.911865234375</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-531.7822875976562</v>
+        <v>-539.3507690429688</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-527.8421020507812</v>
+        <v>-535.8272705078125</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-128.8019409179688</v>
+        <v>-168.816162109375</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-13.99324226379395</v>
+        <v>-26.13646697998047</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>7.62517261505127</v>
+        <v>0.7090018391609192</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-440.4778747558594</v>
+        <v>-448.5763244628906</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-432.3974609375</v>
+        <v>-441.6454772949219</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-428.4247436523438</v>
+        <v>-437.9948120117188</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-96.52958679199219</v>
+        <v>-129.5927886962891</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-11.75704669952393</v>
+        <v>-22.20552062988281</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>8.91489315032959</v>
+        <v>2.056302070617676</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-344.4961547851562</v>
+        <v>-353.3655700683594</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-333.5572814941406</v>
+        <v>-344.0580139160156</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-329.5650024414062</v>
+        <v>-340.2855834960938</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-63.89689636230469</v>
+        <v>-90.38425445556641</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-9.539902687072754</v>
+        <v>-18.27026557922363</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>10.20798015594482</v>
+        <v>3.408615827560425</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-230.3196411132812</v>
+        <v>-239.1406097412109</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-215.3409576416016</v>
+        <v>-224.5363922119141</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-211.3035278320312</v>
+        <v>-220.4982147216797</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-40.17741012573242</v>
+        <v>-57.55652618408203</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-8.11150074005127</v>
+        <v>-15.43263816833496</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>11.3745174407959</v>
+        <v>4.56749153137207</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-116.1488952636719</v>
+        <v>-124.9152069091797</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-97.11219787597656</v>
+        <v>-105.0113067626953</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-93.0374755859375</v>
+        <v>-100.7086181640625</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-20.19414520263672</v>
+        <v>-25.81030082702637</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-6.810655117034912</v>
+        <v>-12.65847778320312</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>12.54056835174561</v>
+        <v>5.735262870788574</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-77.50967407226562</v>
+        <v>-92.63011932373047</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-58.11361312866211</v>
+        <v>-72.23152160644531</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-53.73867797851562</v>
+        <v>-67.56233215332031</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-18.68722534179688</v>
+        <v>-24.18156242370605</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-5.723942756652832</v>
+        <v>-11.55708122253418</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>13.65493011474609</v>
+        <v>6.502682209014893</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>-796.3060302734375</v>
+        <v>-796.55224609375</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>-794.4293212890625</v>
+        <v>-794.774658203125</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-792.0667724609375</v>
+        <v>-792.6845092773438</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>-214.9877624511719</v>
+        <v>-282.5655212402344</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>-21.70217132568359</v>
+        <v>-38.53322982788086</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>3.375910043716431</v>
+        <v>-4.043666839599609</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>-711.018310546875</v>
+        <v>-712.626953125</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>-708.242919921875</v>
+        <v>-709.9993286132812</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>-705.2050170898438</v>
+        <v>-707.3582153320312</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-188.3993530273438</v>
+        <v>-247.8766326904297</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>-19.05673408508301</v>
+        <v>-34.32190704345703</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>4.794187068939209</v>
+        <v>-2.411651849746704</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>-625.497314453125</v>
+        <v>-628.6493530273438</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>-621.7861938476562</v>
+        <v>-625.1680908203125</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>-618.0869140625</v>
+        <v>-621.9783325195312</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>-161.7757873535156</v>
+        <v>-213.5153656005859</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>-16.41743087768555</v>
+        <v>-30.11152267456055</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>6.23615837097168</v>
+        <v>-0.7482830286026001</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-531.6251220703125</v>
+        <v>-537.419921875</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>-525.7982177734375</v>
+        <v>-532.5843505859375</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-521.977294921875</v>
+        <v>-529.1679077148438</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>-128.3657379150391</v>
+        <v>-173.0440368652344</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-14.00363349914551</v>
+        <v>-26.02734565734863</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>7.584806442260742</v>
+        <v>0.663058876991272</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>-439.1325073242188</v>
+        <v>-446.5276489257812</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>-431.2554016113281</v>
+        <v>-440.3540954589844</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-427.3076171875</v>
+        <v>-436.7098083496094</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>-94.77199554443359</v>
+        <v>-132.7177124023438</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-11.59631538391113</v>
+        <v>-21.94919967651367</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>8.940217018127441</v>
+        <v>2.086028814315796</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>-334.4232788085938</v>
+        <v>-342.9141845703125</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-322.9604187011719</v>
+        <v>-332.5451049804688</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-318.9828491210938</v>
+        <v>-328.7363586425781</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-64.46389007568359</v>
+        <v>-93.41743469238281</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>-9.755245208740234</v>
+        <v>-18.34809303283691</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>10.14559936523438</v>
+        <v>3.39888596534729</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-229.7295379638672</v>
+        <v>-239.3023376464844</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>-214.6492462158203</v>
+        <v>-224.7251586914062</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-210.6661987304688</v>
+        <v>-220.7546844482422</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-34.10755920410156</v>
+        <v>-54.10245513916016</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>-7.909784317016602</v>
+        <v>-14.74305725097656</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>11.35206985473633</v>
+        <v>4.714208126068115</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-143.7689208984375</v>
+        <v>-153.1427154541016</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-126.0942230224609</v>
+        <v>-134.9134063720703</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-121.9331665039062</v>
+        <v>-130.5878448486328</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-26.25684356689453</v>
+        <v>-38.84949493408203</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-6.891230583190918</v>
+        <v>-13.13606929779053</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>12.49020290374756</v>
+        <v>5.601789474487305</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-57.79408264160156</v>
+        <v>-66.9832763671875</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-37.53170776367188</v>
+        <v>-45.09895706176758</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-33.20279693603516</v>
+        <v>-40.41955947875977</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-18.39608383178711</v>
+        <v>-23.58949279785156</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-5.71043872833252</v>
+        <v>-11.44034194946289</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>13.63379669189453</v>
+        <v>6.496022701263428</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-55.27834320068359</v>
+        <v>-64.63907623291016</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-36.04427337646484</v>
+        <v>-43.78467178344727</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-31.38650131225586</v>
+        <v>-38.79199600219727</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-17.51338195800781</v>
+        <v>-22.69476509094238</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-4.551620960235596</v>
+        <v>-10.45225715637207</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>14.69789218902588</v>
+        <v>7.228594303131104</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-709.6144409179688</v>
+        <v>-710.003173828125</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-706.8214721679688</v>
+        <v>-707.3444213867188</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-703.70068359375</v>
+        <v>-704.631103515625</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-193.2836303710938</v>
+        <v>-258.4054565429688</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-18.98044586181641</v>
+        <v>-34.15481185913086</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>4.810621738433838</v>
+        <v>-2.31824779510498</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-620.8096923828125</v>
+        <v>-622.679931640625</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-616.7738647460938</v>
+        <v>-618.9796142578125</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-613.2684326171875</v>
+        <v>-615.8704223632812</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-161.7432250976562</v>
+        <v>-220.2899169921875</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-16.4200553894043</v>
+        <v>-29.98560905456543</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>6.180744171142578</v>
+        <v>-0.8144580125808716</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-531.673828125</v>
+        <v>-535.2877807617188</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-526.34326171875</v>
+        <v>-530.5311889648438</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-522.46484375</v>
+        <v>-527.0279541015625</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-130.2341003417969</v>
+        <v>-182.5705261230469</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-13.86991596221924</v>
+        <v>-25.81830024719238</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>7.625579833984375</v>
+        <v>0.7068126797676086</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-431.5217895507812</v>
+        <v>-438.6164245605469</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-423.0287170410156</v>
+        <v>-431.2380981445312</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-419.1326904296875</v>
+        <v>-427.6229858398438</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-96.96842956542969</v>
+        <v>-142.9753570556641</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-11.68492412567139</v>
+        <v>-21.9068660736084</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>8.898368835449219</v>
+        <v>2.050639867782593</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-333.4562377929688</v>
+        <v>-342.4588928222656</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-321.9038696289062</v>
+        <v>-332.4865112304688</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-317.9812927246094</v>
+        <v>-328.7606811523438</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-63.65296936035156</v>
+        <v>-103.6075286865234</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-9.480179786682129</v>
+        <v>-17.99188995361328</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>10.17196846008301</v>
+        <v>3.396432161331177</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-218.013916015625</v>
+        <v>-226.8265075683594</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-202.4363555908203</v>
+        <v>-211.4859924316406</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-198.449462890625</v>
+        <v>-207.4784240722656</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-40.25975799560547</v>
+        <v>-66.09090423583984</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-8.123011589050293</v>
+        <v>-15.29238796234131</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>11.32837772369385</v>
+        <v>4.555723190307617</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-102.5936126708984</v>
+        <v>-111.1960830688477</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-82.93486785888672</v>
+        <v>-90.48027801513672</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-78.90716552734375</v>
+        <v>-86.19392395019531</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-20.61171340942383</v>
+        <v>-29.94566535949707</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-6.862813472747803</v>
+        <v>-12.63224792480469</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>12.48486137390137</v>
+        <v>5.720668792724609</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-72.82960510253906</v>
+        <v>-86.39869689941406</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-53.12883377075195</v>
+        <v>-65.53955841064453</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-48.79906463623047</v>
+        <v>-60.91448593139648</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-18.88122177124023</v>
+        <v>-26.12987518310547</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-5.765432357788086</v>
+        <v>-11.54788017272949</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>13.56707954406738</v>
+        <v>6.49633264541626</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-54.92192840576172</v>
+        <v>-64.54940032958984</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-35.66204452514648</v>
+        <v>-43.64686965942383</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-31.04446220397949</v>
+        <v>-38.729736328125</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-17.46140480041504</v>
+        <v>-22.56196975708008</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-4.461956024169922</v>
+        <v>-10.38326263427734</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>14.65075397491455</v>
+        <v>7.279348850250244</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-52.82347869873047</v>
+        <v>-62.34721374511719</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-34.59670257568359</v>
+        <v>-42.36735916137695</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-29.64224243164062</v>
+        <v>-37.14118194580078</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-16.46207046508789</v>
+        <v>-21.66316604614258</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>-3.380250453948975</v>
+        <v>-9.421422958374023</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>15.73186302185059</v>
+        <v>7.92693567276001</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>-619.6700439453125</v>
+        <v>-620.2468872070312</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>-615.7959594726562</v>
+        <v>-616.534423828125</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>-612.096435546875</v>
+        <v>-613.356201171875</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-173.0536041259766</v>
+        <v>-224.2959899902344</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>-16.33224487304688</v>
+        <v>-29.80990600585938</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>6.233230590820312</v>
+        <v>-0.7588706612586975</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>-525.9017333984375</v>
+        <v>-528.6936645507812</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>-519.8186645507812</v>
+        <v>-523.6129150390625</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>-516.0411987304688</v>
+        <v>-520.2294921875</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>-136.9286956787109</v>
+        <v>-184.3311157226562</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>-13.90924263000488</v>
+        <v>-25.7292308807373</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>7.579821109771729</v>
+        <v>0.648320198059082</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>-431.6868896484375</v>
+        <v>-437.0361938476562</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>-423.3432006835938</v>
+        <v>-430.5675659179688</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>-419.4901123046875</v>
+        <v>-426.9795837402344</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>-104.0139389038086</v>
+        <v>-145.2610168457031</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>-11.50526332855225</v>
+        <v>-21.65256309509277</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>8.925685882568359</v>
+        <v>2.059758186340332</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>-323.5224609375</v>
+        <v>-331.8388671875</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-311.4104614257812</v>
+        <v>-320.8951721191406</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>-307.5317993164062</v>
+        <v>-317.1469116210938</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>-72.61508178710938</v>
+        <v>-106.6468505859375</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>-9.724320411682129</v>
+        <v>-18.09853744506836</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>10.12667274475098</v>
+        <v>3.371438980102539</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>-217.6972045898438</v>
+        <v>-227.2224731445312</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-201.9231872558594</v>
+        <v>-211.8283233642578</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>-198.0135498046875</v>
+        <v>-207.9241790771484</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>-41.61875534057617</v>
+        <v>-68.18508911132812</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>-7.922730445861816</v>
+        <v>-14.53503322601318</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>11.32787322998047</v>
+        <v>4.685686588287354</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>-137.7072448730469</v>
+        <v>-147.1580352783203</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-119.6623764038086</v>
+        <v>-128.4790344238281</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-115.5645904541016</v>
+        <v>-124.2077941894531</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-30.0334300994873</v>
+        <v>-45.90777969360352</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-6.929707527160645</v>
+        <v>-13.06200981140137</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>12.44799423217773</v>
+        <v>5.598164558410645</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-57.73181533813477</v>
+        <v>-67.08935546875</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-37.38908767700195</v>
+        <v>-45.12691879272461</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-33.0999641418457</v>
+        <v>-40.48910522460938</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-18.4146614074707</v>
+        <v>-23.62508201599121</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-5.736117362976074</v>
+        <v>-11.48242473602295</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>13.57091045379639</v>
+        <v>6.51698112487793</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-55.302001953125</v>
+        <v>-64.72422790527344</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-35.99846267700195</v>
+        <v>-43.80922317504883</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-31.36457443237305</v>
+        <v>-38.84356307983398</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-17.5723934173584</v>
+        <v>-22.74657249450684</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>-4.605652809143066</v>
+        <v>-10.454665184021</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>14.64308643341064</v>
+        <v>7.22981071472168</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-52.82067489624023</v>
+        <v>-62.35959625244141</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-34.59146881103516</v>
+        <v>-42.33838272094727</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-29.61714553833008</v>
+        <v>-37.10567855834961</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-16.43621635437012</v>
+        <v>-21.61686706542969</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>-3.352655410766602</v>
+        <v>-9.369195938110352</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>15.7266731262207</v>
+        <v>7.950465679168701</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-50.83986282348633</v>
+        <v>-60.11861801147461</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-33.50986480712891</v>
+        <v>-41.00203704833984</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-28.36822891235352</v>
+        <v>-35.51087188720703</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-15.33382415771484</v>
+        <v>-20.64787101745605</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>-2.218339920043945</v>
+        <v>-8.355469703674316</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>16.78495979309082</v>
+        <v>8.576948165893555</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-525.7440185546875</v>
+        <v>-526.5852661132812</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-520.2242431640625</v>
+        <v>-521.5421142578125</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-516.451171875</v>
+        <v>-518.082275390625</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-143.6040954589844</v>
+        <v>-184.0042419433594</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-13.79841804504395</v>
+        <v>-25.5351448059082</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>7.607258319854736</v>
+        <v>0.6665025949478149</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-424.6199340820312</v>
+        <v>-429.2870483398438</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-415.7124328613281</v>
+        <v>-421.3768920898438</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-411.9320678710938</v>
+        <v>-417.8345336914062</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-106.6709976196289</v>
+        <v>-143.8273162841797</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-11.61006259918213</v>
+        <v>-21.63185501098633</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>8.87349796295166</v>
+        <v>2.004549503326416</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-322.91162109375</v>
+        <v>-331.8390502929688</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-310.5969848632812</v>
+        <v>-321.0422058105469</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-306.8059692382812</v>
+        <v>-317.4156799316406</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-73.70028686523438</v>
+        <v>-104.6362686157227</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-9.447600364685059</v>
+        <v>-17.73959159851074</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>10.14129447937012</v>
+        <v>3.346084356307983</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-205.8901519775391</v>
+        <v>-214.6808013916016</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-189.5531463623047</v>
+        <v>-198.4895935058594</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-185.6710205078125</v>
+        <v>-194.5507354736328</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-46.10263824462891</v>
+        <v>-67.62576293945312</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-8.151704788208008</v>
+        <v>-15.17557907104492</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>11.28721904754639</v>
+        <v>4.531346797943115</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-89.13540649414062</v>
+        <v>-97.58423614501953</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-68.79452514648438</v>
+        <v>-75.98841857910156</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-64.83209228515625</v>
+        <v>-71.7425537109375</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-23.99170875549316</v>
+        <v>-32.14667129516602</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-6.935456275939941</v>
+        <v>-12.63068008422852</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>12.43362617492676</v>
+        <v>5.721860885620117</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-68.12763977050781</v>
+        <v>-80.26286315917969</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-48.12109756469727</v>
+        <v>-58.87298965454102</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-43.81652069091797</v>
+        <v>-54.26399230957031</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-20.14059638977051</v>
+        <v>-27.19601440429688</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-5.816758632659912</v>
+        <v>-11.60303115844727</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>13.53357410430908</v>
+        <v>6.503418922424316</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-55.17112350463867</v>
+        <v>-64.92189025878906</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-35.70569610595703</v>
+        <v>-43.77592849731445</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-31.09183502197266</v>
+        <v>-38.85425186157227</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-17.57583808898926</v>
+        <v>-22.64911270141602</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>-4.53525972366333</v>
+        <v>-10.48214626312256</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>14.63777542114258</v>
+        <v>7.292619705200195</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-52.89910888671875</v>
+        <v>-62.47019958496094</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-34.62839508056641</v>
+        <v>-42.40860366821289</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-29.67147254943848</v>
+        <v>-37.17124176025391</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-16.55738639831543</v>
+        <v>-21.69958877563477</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>-3.407557725906372</v>
+        <v>-9.433332443237305</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>15.7342004776001</v>
+        <v>7.923115730285645</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-50.75598907470703</v>
+        <v>-60.03267669677734</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-33.30257034301758</v>
+        <v>-40.97421264648438</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-28.26542282104492</v>
+        <v>-35.45717239379883</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-15.29237651824951</v>
+        <v>-20.61237335205078</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>-2.161003351211548</v>
+        <v>-8.300495147705078</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>16.84444999694824</v>
+        <v>8.561846733093262</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-48.98457717895508</v>
+        <v>-57.95730590820312</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-32.20754623413086</v>
+        <v>-39.67098617553711</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-27.09540557861328</v>
+        <v>-33.97850799560547</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-14.13607501983643</v>
+        <v>-19.61487579345703</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>-1.029799222946167</v>
+        <v>-7.312356472015381</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>17.83292579650879</v>
+        <v>9.194497108459473</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>-425.7438354492188</v>
+        <v>-427.9788818359375</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-416.7585754394531</v>
+        <v>-421.1327514648438</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="E364" t="n">
-        <v>-413.0589904785156</v>
+        <v>-417.6337585449219</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-108.59130859375</v>
+        <v>-143.0131530761719</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>-11.4489049911499</v>
+        <v>-21.39521598815918</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>8.889537811279297</v>
+        <v>1.988033533096313</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>-315.0513000488281</v>
+        <v>-321.5326538085938</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-302.1435852050781</v>
+        <v>-309.8619079589844</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>-298.4273071289062</v>
+        <v>-306.2324829101562</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>-74.10475158691406</v>
+        <v>-103.7699432373047</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>-9.704685211181641</v>
+        <v>-17.87382888793945</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>10.08462524414062</v>
+        <v>3.298258781433105</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>-206.0158538818359</v>
+        <v>-215.4880065917969</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-189.2505187988281</v>
+        <v>-199.0153198242188</v>
       </c>
     </row>
     <row r="376">
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>-185.5144653320312</v>
+        <v>-195.2543792724609</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-42.91750717163086</v>
+        <v>-65.56684112548828</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>-7.96390962600708</v>
+        <v>-14.35784721374512</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>11.28107929229736</v>
+        <v>4.612188339233398</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-131.9730682373047</v>
+        <v>-141.5169525146484</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-113.294059753418</v>
+        <v>-122.1322326660156</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-109.321159362793</v>
+        <v>-117.9936981201172</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-30.71914672851562</v>
+        <v>-44.63307952880859</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-6.998377799987793</v>
+        <v>-13.02408885955811</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>12.37074279785156</v>
+        <v>5.568666934967041</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-57.97004699707031</v>
+        <v>-67.51866149902344</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-37.32403564453125</v>
+        <v>-45.23940658569336</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-33.14538192749023</v>
+        <v>-40.71382522583008</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-18.46199989318848</v>
+        <v>-23.69038009643555</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-5.797638893127441</v>
+        <v>-11.5706090927124</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>13.46245002746582</v>
+        <v>6.530887126922607</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-55.39349365234375</v>
+        <v>-64.91926574707031</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-35.95866394042969</v>
+        <v>-43.85537338256836</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-31.36466598510742</v>
+        <v>-38.93019104003906</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-17.61552238464355</v>
+        <v>-22.78104400634766</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>-4.660370349884033</v>
+        <v>-10.50410842895508</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>14.59749889373779</v>
+        <v>7.229371547698975</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-52.799560546875</v>
+        <v>-62.31996154785156</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-34.58317184448242</v>
+        <v>-42.31797027587891</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-29.5850715637207</v>
+        <v>-37.05392837524414</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-16.46012496948242</v>
+        <v>-21.61982345581055</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>-3.378850698471069</v>
+        <v>-9.366394996643066</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>15.74544525146484</v>
+        <v>7.936118125915527</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-50.79218292236328</v>
+        <v>-60.04475402832031</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-33.50261306762695</v>
+        <v>-40.96972274780273</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-28.35555267333984</v>
+        <v>-35.45968627929688</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-15.3616828918457</v>
+        <v>-20.63326072692871</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>-2.183521747589111</v>
+        <v>-8.319177627563477</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>16.7906494140625</v>
+        <v>8.555529594421387</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-48.76560974121094</v>
+        <v>-57.72756958007812</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-32.02603149414062</v>
+        <v>-39.55055999755859</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-26.95852279663086</v>
+        <v>-33.83329391479492</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-14.00855541229248</v>
+        <v>-19.50335693359375</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>-0.9049567580223083</v>
+        <v>-7.193847179412842</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>17.8514232635498</v>
+        <v>9.181681632995605</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-47.36723709106445</v>
+        <v>-55.91708374023438</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-30.92670631408691</v>
+        <v>-38.34880447387695</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-25.83235740661621</v>
+        <v>-32.52667999267578</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-12.85182857513428</v>
+        <v>-18.53406143188477</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>0.1850370764732361</v>
+        <v>-6.267587184906006</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>18.78458023071289</v>
+        <v>9.83919620513916</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-316.8161926269531</v>
+        <v>-322.7037353515625</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-303.5014343261719</v>
+        <v>-310.7503662109375</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-299.934814453125</v>
+        <v>-307.3491516113281</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-74.32041931152344</v>
+        <v>-103.9546127319336</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-9.418022155761719</v>
+        <v>-17.51811790466309</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>10.08580207824707</v>
+        <v>3.239773988723755</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-195.3080139160156</v>
+        <v>-203.1852874755859</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-177.9902496337891</v>
+        <v>-185.8806304931641</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-174.2853546142578</v>
+        <v>-182.1007232666016</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-44.51798629760742</v>
+        <v>-65.08358764648438</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-8.202377319335938</v>
+        <v>-15.0900239944458</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>11.21466732025146</v>
+        <v>4.485254764556885</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-75.86836242675781</v>
+        <v>-84.1788330078125</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-54.68668365478516</v>
+        <v>-61.55520248413086</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-50.82661819458008</v>
+        <v>-57.39709854125977</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-22.00275993347168</v>
+        <v>-28.56945419311523</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-7.03803014755249</v>
+        <v>-12.66372776031494</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>12.3441047668457</v>
+        <v>5.736543655395508</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-63.39836120605469</v>
+        <v>-74.02581787109375</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-43.12458038330078</v>
+        <v>-52.16427993774414</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-38.84108734130859</v>
+        <v>-47.59302139282227</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-19.46809387207031</v>
+        <v>-25.56191444396973</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-5.910189628601074</v>
+        <v>-11.63434505462646</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>13.48603057861328</v>
+        <v>6.512957096099854</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-55.17164611816406</v>
+        <v>-64.90940856933594</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-35.73138427734375</v>
+        <v>-43.77685165405273</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-31.11209487915039</v>
+        <v>-38.85319519042969</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-17.62017631530762</v>
+        <v>-22.71537971496582</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>-4.641101837158203</v>
+        <v>-10.51512432098389</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>14.6311502456665</v>
+        <v>7.29596996307373</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-52.89244842529297</v>
+        <v>-62.40692901611328</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-34.65813827514648</v>
+        <v>-42.38276672363281</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-29.70126342773438</v>
+        <v>-37.1357536315918</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-16.58847808837891</v>
+        <v>-21.71571159362793</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>-3.478003978729248</v>
+        <v>-9.438702583312988</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>15.7348690032959</v>
+        <v>7.909609794616699</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-50.69556045532227</v>
+        <v>-59.93037796020508</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-33.36610794067383</v>
+        <v>-40.92097091674805</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-28.32134246826172</v>
+        <v>-35.39789199829102</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-15.26333808898926</v>
+        <v>-20.57059669494629</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>-2.147983074188232</v>
+        <v>-8.27944278717041</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>16.85102081298828</v>
+        <v>8.530887603759766</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-49.00640106201172</v>
+        <v>-57.90598678588867</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-32.25883483886719</v>
+        <v>-39.65651702880859</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-27.16560554504395</v>
+        <v>-33.96086883544922</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-14.15113258361816</v>
+        <v>-19.60563087463379</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>-0.9683043956756592</v>
+        <v>-7.288224220275879</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>17.82641792297363</v>
+        <v>9.173986434936523</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-47.31532669067383</v>
+        <v>-55.87022018432617</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-30.80778503417969</v>
+        <v>-38.3223876953125</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-25.81416320800781</v>
+        <v>-32.49471664428711</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-12.7810640335083</v>
+        <v>-18.47667694091797</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>0.2572553753852844</v>
+        <v>-6.22242259979248</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>18.82217788696289</v>
+        <v>9.825432777404785</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-46.06166458129883</v>
+        <v>-54.36374664306641</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-29.79319381713867</v>
+        <v>-37.25388336181641</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-24.72110939025879</v>
+        <v>-31.3672046661377</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-11.65766620635986</v>
+        <v>-17.57655906677246</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>1.284513235092163</v>
+        <v>-5.384740829467773</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>19.68739128112793</v>
+        <v>10.51222705841064</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>-197.6643981933594</v>
+        <v>-205.4837188720703</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-179.1923217773438</v>
+        <v>-186.9614715576172</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>-175.7850952148438</v>
+        <v>-183.5543212890625</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>-46.54253005981445</v>
+        <v>-68.64846801757812</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>-8.025337219238281</v>
+        <v>-14.21621704101562</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>11.20529174804688</v>
+        <v>4.468867301940918</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-127.272331237793</v>
+        <v>-136.5494079589844</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-107.0532836914062</v>
+        <v>-115.9365081787109</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-103.3988571166992</v>
+        <v>-112.0737686157227</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-30.90929794311523</v>
+        <v>-45.52600860595703</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-7.104134559631348</v>
+        <v>-12.97710037231445</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>12.3288631439209</v>
+        <v>5.499037742614746</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-58.9319953918457</v>
+        <v>-68.1258544921875</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-37.37912368774414</v>
+        <v>-45.50205993652344</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-33.46725845336914</v>
+        <v>-41.16345596313477</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-18.55613327026367</v>
+        <v>-23.79986190795898</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-5.901267051696777</v>
+        <v>-11.60568237304688</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>13.45343399047852</v>
+        <v>6.534868717193604</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-55.80020141601562</v>
+        <v>-65.13699340820312</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-35.99272918701172</v>
+        <v>-43.95873641967773</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-31.51127815246582</v>
+        <v>-39.11339950561523</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-17.67280960083008</v>
+        <v>-22.82386779785156</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>-4.707517623901367</v>
+        <v>-10.5081958770752</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>14.595778465271</v>
+        <v>7.217187881469727</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-52.67750549316406</v>
+        <v>-62.15328979492188</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-34.583251953125</v>
+        <v>-42.2628173828125</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-29.55560111999512</v>
+        <v>-36.97784423828125</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-16.47577667236328</v>
+        <v>-21.60008239746094</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>-3.374267578125</v>
+        <v>-9.319377899169922</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>15.75127410888672</v>
+        <v>7.908793926239014</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-50.72039031982422</v>
+        <v>-59.91058731079102</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-33.50637054443359</v>
+        <v>-40.92529296875</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-28.36132431030273</v>
+        <v>-35.40177536010742</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-15.37425518035889</v>
+        <v>-20.6109790802002</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>-2.194438695907593</v>
+        <v>-8.293474197387695</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>16.78215026855469</v>
+        <v>8.522760391235352</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-48.75124359130859</v>
+        <v>-57.65976715087891</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-32.04652404785156</v>
+        <v>-39.51233291625977</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-27.04424285888672</v>
+        <v>-33.80265426635742</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-13.97967338562012</v>
+        <v>-19.46212577819824</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>-0.8844809532165527</v>
+        <v>-7.167966365814209</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>17.83197593688965</v>
+        <v>9.144442558288574</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-47.44919586181641</v>
+        <v>-55.90803527832031</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-30.93640518188477</v>
+        <v>-38.34865570068359</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-25.89820671081543</v>
+        <v>-32.54090118408203</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-12.86173248291016</v>
+        <v>-18.52544975280762</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>0.2447317242622375</v>
+        <v>-6.261552810668945</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>18.74768447875977</v>
+        <v>9.831002235412598</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-46.0843620300293</v>
+        <v>-54.17126846313477</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-29.56604766845703</v>
+        <v>-37.138671875</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-24.65316772460938</v>
+        <v>-31.26520347595215</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>-11.55974388122559</v>
+        <v>-17.46755599975586</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>1.417275786399841</v>
+        <v>-5.259834289550781</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>19.67703247070312</v>
+        <v>10.52562522888184</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-44.88065338134766</v>
+        <v>-52.79395294189453</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-28.58439636230469</v>
+        <v>-36.17388153076172</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-23.53551864624023</v>
+        <v>-30.19890785217285</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-10.56010818481445</v>
+        <v>-16.66916084289551</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>2.351259469985962</v>
+        <v>-4.488540172576904</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>20.57129669189453</v>
+        <v>11.21469116210938</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-63.03212738037109</v>
+        <v>-71.26741027832031</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-40.68059921264648</v>
+        <v>-47.20882415771484</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-37.02077484130859</v>
+        <v>-43.24147796630859</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-19.79961585998535</v>
+        <v>-24.75350379943848</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-7.128159523010254</v>
+        <v>-12.74772262573242</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>12.25857353210449</v>
+        <v>5.774991989135742</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-57.61936569213867</v>
+        <v>-67.65235137939453</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-36.89524459838867</v>
+        <v>-45.1634635925293</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-32.67672729492188</v>
+        <v>-40.65909576416016</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-18.47672271728516</v>
+        <v>-23.68838119506836</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-5.966244220733643</v>
+        <v>-11.6568660736084</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>13.44926071166992</v>
+        <v>6.526985168457031</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-54.99161529541016</v>
+        <v>-64.74421691894531</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-35.71647644042969</v>
+        <v>-43.6966667175293</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-31.02410316467285</v>
+        <v>-38.74856567382812</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-17.58350944519043</v>
+        <v>-22.6460132598877</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>-4.67551326751709</v>
+        <v>-10.46929454803467</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>14.64164924621582</v>
+        <v>7.286198616027832</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-52.78312301635742</v>
+        <v>-62.27550888061523</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-34.67263793945312</v>
+        <v>-42.34296035766602</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-29.69495010375977</v>
+        <v>-37.07228088378906</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-16.61751365661621</v>
+        <v>-21.70400428771973</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>-3.487356185913086</v>
+        <v>-9.420657157897949</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>15.73691177368164</v>
+        <v>7.888955593109131</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-50.62909317016602</v>
+        <v>-59.82861709594727</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-33.38922119140625</v>
+        <v>-40.88975524902344</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-28.35986328125</v>
+        <v>-35.36318969726562</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-15.26576995849609</v>
+        <v>-20.55537223815918</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>-2.144185066223145</v>
+        <v>-8.254825592041016</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>16.84465789794922</v>
+        <v>8.49818229675293</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-49.05738067626953</v>
+        <v>-57.87378311157227</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-32.27608108520508</v>
+        <v>-39.65763854980469</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-27.22684478759766</v>
+        <v>-33.96295928955078</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-14.1791934967041</v>
+        <v>-19.60675811767578</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>-0.9892565011978149</v>
+        <v>-7.300713539123535</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>17.8020133972168</v>
+        <v>9.165114402770996</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-47.47205352783203</v>
+        <v>-55.89943313598633</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-30.85669708251953</v>
+        <v>-38.34727478027344</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>-25.91450691223145</v>
+        <v>-32.54246139526367</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-12.78814697265625</v>
+        <v>-18.48178482055664</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>0.2476175427436829</v>
+        <v>-6.236949443817139</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>18.78250885009766</v>
+        <v>9.840131759643555</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-46.1325798034668</v>
+        <v>-54.42477798461914</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-29.82818222045898</v>
+        <v>-37.31841659545898</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-24.75702285766602</v>
+        <v>-31.39822769165039</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-11.69636917114258</v>
+        <v>-17.61606979370117</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>1.272540330886841</v>
+        <v>-5.436484336853027</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>19.65582847595215</v>
+        <v>10.52897453308105</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-44.81408309936523</v>
+        <v>-52.95993423461914</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-28.55346488952637</v>
+        <v>-36.26644134521484</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-23.5265998840332</v>
+        <v>-30.24552345275879</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>-10.49355125427246</v>
+        <v>-16.64773941040039</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>2.39120888710022</v>
+        <v>-4.541396141052246</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>20.55089950561523</v>
+        <v>11.22557735443115</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-43.53229522705078</v>
+        <v>-51.51908874511719</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-27.50374221801758</v>
+        <v>-35.23945236206055</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-22.36929130554199</v>
+        <v>-29.1534309387207</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>-9.538240432739258</v>
+        <v>-15.85260581970215</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>3.329457998275757</v>
+        <v>-3.736750602722168</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>21.48556709289551</v>
+        <v>11.89893531799316</v>
       </c>
     </row>
   </sheetData>

--- a/exports/V_final.xlsx
+++ b/exports/V_final.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-961.903076171875</v>
+        <v>-961.8765869140625</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-961.5885009765625</v>
+        <v>-961.4789428710938</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-961.1468505859375</v>
+        <v>-960.899658203125</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-323.6528930664062</v>
+        <v>-128.3709716796875</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-47.30991363525391</v>
+        <v>-11.47010898590088</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.903491973876953</v>
+        <v>7.89049768447876</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-883.2086181640625</v>
+        <v>-860.746826171875</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-882.241943359375</v>
+        <v>-575.9381103515625</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-880.9923095703125</v>
+        <v>-855.145751953125</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-300.0871276855469</v>
+        <v>-95.46586608886719</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-43.08414459228516</v>
+        <v>-7.89225959777832</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.019320487976074</v>
+        <v>9.35844612121582</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-804.4782104492188</v>
+        <v>-759.2510375976562</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-802.8582153320312</v>
+        <v>-191.177734375</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-800.8023071289062</v>
+        <v>-748.9955444335938</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-276.4646301269531</v>
+        <v>-62.63401412963867</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-38.85849761962891</v>
+        <v>-4.318601131439209</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.091889381408691</v>
+        <v>10.82563209533691</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-720.7938232421875</v>
+        <v>-607.6549072265625</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-718.3299560546875</v>
+        <v>-118.8224334716797</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-715.7106323242188</v>
+        <v>-588.7183837890625</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-243.3639526367188</v>
+        <v>-39.86950302124023</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-34.64606857299805</v>
+        <v>-1.896246433258057</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.44481897354126</v>
+        <v>12.20763969421387</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-637.0084228515625</v>
+        <v>-456.8500366210938</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-633.6820068359375</v>
+        <v>-46.62839889526367</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-630.4996948242188</v>
+        <v>-429.2715148925781</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>-210.2403869628906</v>
+        <v>-17.15091705322266</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-30.43738555908203</v>
+        <v>0.5237883925437927</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.7698419094085693</v>
+        <v>13.63187313079834</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-546.5906982421875</v>
+        <v>-286.2007446289062</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-541.9656372070312</v>
+        <v>-28.04358100891113</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-538.5335693359375</v>
+        <v>-260.4698791503906</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-169.612548828125</v>
+        <v>-7.55012035369873</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.35486030578613</v>
+        <v>2.363801717758179</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6505004167556763</v>
+        <v>14.94021892547607</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-456.7471618652344</v>
+        <v>-115.5710678100586</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>-450.84716796875</v>
+        <v>-9.463180541992188</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-447.1690673828125</v>
+        <v>-91.67856597900391</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>-129.1336975097656</v>
+        <v>2.05795955657959</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.26331329345703</v>
+        <v>4.203597068786621</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2.080188989639282</v>
+        <v>16.24851608276367</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-354.1413269042969</v>
+        <v>-60.9320068359375</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-344.2632446289062</v>
+        <v>-3.758975028991699</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-340.4225463867188</v>
+        <v>-46.49102401733398</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-89.56116485595703</v>
+        <v>4.58674144744873</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.6203498840332</v>
+        <v>5.718998908996582</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>3.402368307113647</v>
+        <v>17.4431266784668</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-251.5349578857422</v>
+        <v>-6.290047645568848</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>-237.6762084960938</v>
+        <v>1.947063684463501</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-233.6742248535156</v>
+        <v>-1.300873994827271</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>-49.98225784301758</v>
+        <v>7.117939472198486</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.9724817276001</v>
+        <v>7.277740955352783</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>4.727846622467041</v>
+        <v>18.63521385192871</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-159.2846527099609</v>
+        <v>-1.548406362533569</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-141.4022064208984</v>
+        <v>4.109100341796875</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-137.0582275390625</v>
+        <v>1.978445053100586</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-36.78295135498047</v>
+        <v>8.403505325317383</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.23639869689941</v>
+        <v>8.749795913696289</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>5.608447074890137</v>
+        <v>19.71896934509277</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-880.39404296875</v>
+        <v>-867.0474243164062</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-879.3854370117188</v>
+        <v>-717.1251220703125</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-878.061279296875</v>
+        <v>-862.3192749023438</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-302.0386047363281</v>
+        <v>-92.32656097412109</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-42.92292785644531</v>
+        <v>-8.145133018493652</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>-5.927401542663574</v>
+        <v>9.416197776794434</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-799.2933349609375</v>
+        <v>-740.601806640625</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-797.5547485351562</v>
+        <v>-414.7162170410156</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-795.5414428710938</v>
+        <v>-729.0111083984375</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-275.025390625</v>
+        <v>-64.07273864746094</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-38.69623565673828</v>
+        <v>-4.950931549072266</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>-4.166873931884766</v>
+        <v>10.8294677734375</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-718.1500244140625</v>
+        <v>-613.3834838867188</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-715.67919921875</v>
+        <v>-145.3220062255859</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-712.9788818359375</v>
+        <v>-594.9020385742188</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-247.64306640625</v>
+        <v>-36.10786437988281</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-34.469970703125</v>
+        <v>-1.856840014457703</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>-2.336727619171143</v>
+        <v>12.26905918121338</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-631.10302734375</v>
+        <v>-437.7461242675781</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-627.5972900390625</v>
+        <v>-84.1904296875</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-624.4859619140625</v>
+        <v>-412.5324401855469</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-208.3871002197266</v>
+        <v>-19.98244667053223</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-30.29811859130859</v>
+        <v>0.3347852826118469</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.8211385011672974</v>
+        <v>13.6214599609375</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-543.911865234375</v>
+        <v>-262.375244140625</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-539.3507690429688</v>
+        <v>-26.85018730163574</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-535.8272705078125</v>
+        <v>-230.3483428955078</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-168.816162109375</v>
+        <v>-4.305581092834473</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.13646697998047</v>
+        <v>2.500108957290649</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7090018391609192</v>
+        <v>14.98727607727051</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-448.5763244628906</v>
+        <v>-144.0724182128906</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-441.6454772949219</v>
+        <v>-14.55339431762695</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-437.9948120117188</v>
+        <v>-122.3920059204102</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-129.5927886962891</v>
+        <v>0.5720423460006714</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-22.20552062988281</v>
+        <v>4.14441967010498</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>2.056302070617676</v>
+        <v>16.23600196838379</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-353.3655700683594</v>
+        <v>-30.11587524414062</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-344.0580139160156</v>
+        <v>-3.027936220169067</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-340.2855834960938</v>
+        <v>-19.11365127563477</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-90.38425445556641</v>
+        <v>5.231476306915283</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-18.27026557922363</v>
+        <v>5.780802726745605</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>3.408615827560425</v>
+        <v>17.48535537719727</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-239.1406097412109</v>
+        <v>-14.26197338104248</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-224.5363922119141</v>
+        <v>0.8225046992301941</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-220.4982147216797</v>
+        <v>-7.477799415588379</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-57.55652618408203</v>
+        <v>6.824533939361572</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-15.43263816833496</v>
+        <v>7.264986038208008</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>4.56749153137207</v>
+        <v>18.62089157104492</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-124.9152069091797</v>
+        <v>0.3812242150306702</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-105.0113067626953</v>
+        <v>4.504970550537109</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-100.7086181640625</v>
+        <v>3.221356868743896</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-25.81030082702637</v>
+        <v>8.378279685974121</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-12.65847778320312</v>
+        <v>8.788082122802734</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>5.735262870788574</v>
+        <v>19.75425338745117</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-92.63011932373047</v>
+        <v>2.724527359008789</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-72.23152160644531</v>
+        <v>6.122406005859375</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-67.56233215332031</v>
+        <v>5.000601768493652</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-24.18156242370605</v>
+        <v>9.666939735412598</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-11.55708122253418</v>
+        <v>10.22427082061768</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>6.502682209014893</v>
+        <v>20.78949928283691</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>-796.55224609375</v>
+        <v>-747.370849609375</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>-794.774658203125</v>
+        <v>-327.7333068847656</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-792.6845092773438</v>
+        <v>-736.4283447265625</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>-282.5655212402344</v>
+        <v>-61.18193817138672</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>-38.53322982788086</v>
+        <v>-4.625340461730957</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>-4.043666839599609</v>
+        <v>10.87775802612305</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>-712.626953125</v>
+        <v>-592.5834350585938</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>-709.9993286132812</v>
+        <v>-196.5313568115234</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>-707.3582153320312</v>
+        <v>-572.621337890625</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-247.8766326904297</v>
+        <v>-38.74777984619141</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>-34.32190704345703</v>
+        <v>-2.034865140914917</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>-2.411651849746704</v>
+        <v>12.2436637878418</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>-628.6493530273438</v>
+        <v>-437.7738037109375</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>-625.1680908203125</v>
+        <v>-75.09678649902344</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>-621.9783325195312</v>
+        <v>-408.8807983398438</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>-213.5153656005859</v>
+        <v>-16.40373420715332</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>-30.11152267456055</v>
+        <v>0.5330502986907959</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.7482830286026001</v>
+        <v>13.68089294433594</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-537.419921875</v>
+        <v>-269.771240234375</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>-532.5843505859375</v>
+        <v>-43.87165069580078</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-529.1679077148438</v>
+        <v>-244.1961975097656</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>-173.0440368652344</v>
+        <v>-7.20631217956543</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-26.02734565734863</v>
+        <v>2.40187406539917</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>0.663058876991272</v>
+        <v>14.97003269195557</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>-446.5276489257812</v>
+        <v>-102.0612869262695</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>-440.3540954589844</v>
+        <v>-12.69320964813232</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-436.7098083496094</v>
+        <v>-79.75408935546875</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>-132.7177124023438</v>
+        <v>1.986384153366089</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-21.94919967651367</v>
+        <v>4.275356769561768</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>2.086028814315796</v>
+        <v>16.27364158630371</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>-342.9141845703125</v>
+        <v>-53.77412033081055</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-332.5451049804688</v>
+        <v>-5.410804748535156</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-328.7363586425781</v>
+        <v>-40.27259063720703</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-93.41743469238281</v>
+        <v>4.505532264709473</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>-18.34809303283691</v>
+        <v>5.779577732086182</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>3.39888596534729</v>
+        <v>17.46571731567383</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-239.3023376464844</v>
+        <v>-5.479511737823486</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>-224.7251586914062</v>
+        <v>1.879635572433472</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-220.7546844482422</v>
+        <v>-0.7814356684684753</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-54.10245513916016</v>
+        <v>7.027442932128906</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>-14.74305725097656</v>
+        <v>7.310981750488281</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>4.714208126068115</v>
+        <v>18.65889549255371</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-153.1427154541016</v>
+        <v>-1.104133248329163</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-134.9134063720703</v>
+        <v>4.103424549102783</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-130.5878448486328</v>
+        <v>2.265182971954346</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-38.84949493408203</v>
+        <v>8.348598480224609</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-13.13606929779053</v>
+        <v>8.789604187011719</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>5.601789474487305</v>
+        <v>19.74019050598145</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-66.9832763671875</v>
+        <v>3.273788690567017</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-45.09895706176758</v>
+        <v>6.332467555999756</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-40.41955947875977</v>
+        <v>5.314947605133057</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-23.58949279785156</v>
+        <v>9.705366134643555</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-11.44034194946289</v>
+        <v>10.29341888427734</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>6.496022701263428</v>
+        <v>20.81957626342773</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-64.63907623291016</v>
+        <v>4.751192569732666</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-43.78467178344727</v>
+        <v>7.659745216369629</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-38.79199600219727</v>
+        <v>6.633039951324463</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-22.69476509094238</v>
+        <v>11.02562808990479</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-10.45225715637207</v>
+        <v>11.6555814743042</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>7.228594303131104</v>
+        <v>21.80792045593262</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-710.003173828125</v>
+        <v>-598.81005859375</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-707.3444213867188</v>
+        <v>-140.4506378173828</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-704.631103515625</v>
+        <v>-579.3849487304688</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-258.4054565429688</v>
+        <v>-35.48419570922852</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-34.15481185913086</v>
+        <v>-1.704303026199341</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>-2.31824779510498</v>
+        <v>12.31706142425537</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-622.679931640625</v>
+        <v>-419.9174499511719</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-618.9796142578125</v>
+        <v>-85.26747131347656</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-615.8704223632812</v>
+        <v>-394.1857299804688</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-220.2899169921875</v>
+        <v>-19.61410140991211</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-29.98560905456543</v>
+        <v>0.4487878978252411</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>-0.8144580125808716</v>
+        <v>13.65398216247559</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-535.2877807617188</v>
+        <v>-241.5255889892578</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-530.5311889648438</v>
+        <v>-35.54115676879883</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-527.0279541015625</v>
+        <v>-209.5890350341797</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-182.5705261230469</v>
+        <v>-4.180777072906494</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-25.81830024719238</v>
+        <v>2.590142965316772</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>0.7068126797676086</v>
+        <v>15.03011131286621</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-438.6164245605469</v>
+        <v>-132.2808990478516</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-431.2380981445312</v>
+        <v>-18.99065208435059</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-427.6229858398438</v>
+        <v>-111.1343536376953</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-142.9753570556641</v>
+        <v>0.4806638062000275</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-21.9068660736084</v>
+        <v>4.212191581726074</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>2.050639867782593</v>
+        <v>16.25991439819336</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-342.4588928222656</v>
+        <v>-25.64962387084961</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-332.4865112304688</v>
+        <v>-3.336351633071899</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-328.7606811523438</v>
+        <v>-15.69186305999756</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-103.6075286865234</v>
+        <v>4.904227733612061</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-17.99188995361328</v>
+        <v>5.837297439575195</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>3.396432161331177</v>
+        <v>17.50486755371094</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-226.8265075683594</v>
+        <v>-12.10267639160156</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-211.4859924316406</v>
+        <v>0.7206070423126221</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-207.4784240722656</v>
+        <v>-5.834921836853027</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-66.09090423583984</v>
+        <v>6.685803413391113</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-15.29238796234131</v>
+        <v>7.306299209594727</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>4.555723190307617</v>
+        <v>18.63576889038086</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-111.1960830688477</v>
+        <v>0.5711150765419006</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-90.48027801513672</v>
+        <v>4.598577976226807</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-86.19392395019531</v>
+        <v>3.341089248657227</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-29.94566535949707</v>
+        <v>8.408328056335449</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-12.63224792480469</v>
+        <v>8.838970184326172</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>5.720668792724609</v>
+        <v>19.76812362670898</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-86.39869689941406</v>
+        <v>2.805637836456299</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-65.53955841064453</v>
+        <v>6.177485942840576</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-60.91448593139648</v>
+        <v>5.055483341217041</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-26.12987518310547</v>
+        <v>9.70704460144043</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-11.54788017272949</v>
+        <v>10.27392768859863</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>6.49633264541626</v>
+        <v>20.80131912231445</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-64.54940032958984</v>
+        <v>4.988760948181152</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-43.64686965942383</v>
+        <v>7.747729301452637</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-38.729736328125</v>
+        <v>6.745663642883301</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-22.56196975708008</v>
+        <v>11.09859371185303</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-10.38326263427734</v>
+        <v>11.73095893859863</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>7.279348850250244</v>
+        <v>21.83281898498535</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-62.34721374511719</v>
+        <v>6.150223731994629</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-42.36735916137695</v>
+        <v>8.962342262268066</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-37.14118194580078</v>
+        <v>7.913755416870117</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-21.66316604614258</v>
+        <v>12.3665828704834</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>-9.421422958374023</v>
+        <v>12.99661922454834</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>7.92693567276001</v>
+        <v>22.77242279052734</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>-620.2468872070312</v>
+        <v>-419.8871765136719</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>-616.534423828125</v>
+        <v>-70.17021942138672</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>-613.356201171875</v>
+        <v>-389.6802062988281</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-224.2959899902344</v>
+        <v>-16.42843627929688</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>-29.80990600585938</v>
+        <v>0.6511540412902832</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.7588706612586975</v>
+        <v>13.71733093261719</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>-528.6936645507812</v>
+        <v>-253.8624725341797</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>-523.6129150390625</v>
+        <v>-41.36223602294922</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>-520.2294921875</v>
+        <v>-228.3624572753906</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>-184.3311157226562</v>
+        <v>-7.454856872558594</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>-25.7292308807373</v>
+        <v>2.494303703308105</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>0.648320198059082</v>
+        <v>14.99383354187012</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>-437.0361938476562</v>
+        <v>-88.65280151367188</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>-430.5675659179688</v>
+        <v>-14.24271202087402</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>-426.9795837402344</v>
+        <v>-67.88892364501953</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>-145.2610168457031</v>
+        <v>1.515811920166016</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>-21.65256309509277</v>
+        <v>4.33539867401123</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>2.059758186340332</v>
+        <v>16.30511665344238</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>-331.8388671875</v>
+        <v>-46.69315719604492</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-320.8951721191406</v>
+        <v>-6.079781532287598</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>-317.1469116210938</v>
+        <v>-34.09640121459961</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>-106.6468505859375</v>
+        <v>4.240425109863281</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>-18.09853744506836</v>
+        <v>5.840386390686035</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>3.371438980102539</v>
+        <v>17.47846984863281</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>-227.2224731445312</v>
+        <v>-4.750895977020264</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-211.8283233642578</v>
+        <v>2.092480182647705</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>-207.9241790771484</v>
+        <v>-0.312262088060379</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>-68.18508911132812</v>
+        <v>6.970939636230469</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>-14.53503322601318</v>
+        <v>7.349118709564209</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>4.685686588287354</v>
+        <v>18.66744422912598</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>-147.1580352783203</v>
+        <v>-0.7122491002082825</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-128.4790344238281</v>
+        <v>4.235983371734619</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-124.2077941894531</v>
+        <v>2.518088102340698</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-45.90777969360352</v>
+        <v>8.345173835754395</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-13.06200981140137</v>
+        <v>8.829436302185059</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>5.598164558410645</v>
+        <v>19.74472808837891</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-67.08935546875</v>
+        <v>3.329286575317383</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-45.12691879272461</v>
+        <v>6.380893230438232</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-40.48910522460938</v>
+        <v>5.3511061668396</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-23.62508201599121</v>
+        <v>9.746299743652344</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-11.48242473602295</v>
+        <v>10.34026336669922</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>6.51698112487793</v>
+        <v>20.82372665405273</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-64.72422790527344</v>
+        <v>4.75183629989624</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-43.80922317504883</v>
+        <v>7.690024852752686</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-38.84356307983398</v>
+        <v>6.640202522277832</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-22.74657249450684</v>
+        <v>11.07128524780273</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>-10.454665184021</v>
+        <v>11.69621658325195</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>7.22981071472168</v>
+        <v>21.81079483032227</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-62.35959625244141</v>
+        <v>6.180881023406982</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-42.33838272094727</v>
+        <v>9.020123481750488</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-37.10567855834961</v>
+        <v>7.947686195373535</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-21.61686706542969</v>
+        <v>12.45116138458252</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>-9.369195938110352</v>
+        <v>13.07199382781982</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>7.950465679168701</v>
+        <v>22.79632759094238</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-60.11861801147461</v>
+        <v>7.285080909729004</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-41.00203704833984</v>
+        <v>10.20133495330811</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-35.51087188720703</v>
+        <v>9.091900825500488</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-20.64787101745605</v>
+        <v>13.64211654663086</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>-8.355469703674316</v>
+        <v>14.24853897094727</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>8.576948165893555</v>
+        <v>23.68759155273438</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-526.5852661132812</v>
+        <v>-221.5813903808594</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-521.5421142578125</v>
+        <v>-33.80197143554688</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-518.082275390625</v>
+        <v>-189.6159057617188</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-184.0042419433594</v>
+        <v>-4.793386459350586</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-25.5351448059082</v>
+        <v>2.664407968521118</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>0.6665025949478149</v>
+        <v>15.06023788452148</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-429.2870483398438</v>
+        <v>-120.741340637207</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-421.3768920898438</v>
+        <v>-17.53252220153809</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-417.8345336914062</v>
+        <v>-100.053840637207</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-143.8273162841797</v>
+        <v>0.1097047477960587</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-21.63185501098633</v>
+        <v>4.273756980895996</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>2.004549503326416</v>
+        <v>16.27730178833008</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-331.8390502929688</v>
+        <v>-21.29179954528809</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-321.0422058105469</v>
+        <v>-2.541797161102295</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-317.4156799316406</v>
+        <v>-12.32782649993896</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-104.6362686157227</v>
+        <v>4.705654621124268</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-17.73959159851074</v>
+        <v>5.884796142578125</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>3.346084356307983</v>
+        <v>17.53167343139648</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-214.6808013916016</v>
+        <v>-10.00210094451904</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-198.4895935058594</v>
+        <v>1.126296162605286</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-194.5507354736328</v>
+        <v>-4.22510290145874</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-67.62576293945312</v>
+        <v>6.61254358291626</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-15.17557907104492</v>
+        <v>7.357554912567139</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>4.531346797943115</v>
+        <v>18.64066314697266</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-97.58423614501953</v>
+        <v>0.7269065976142883</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-75.98841857910156</v>
+        <v>4.680193424224854</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-71.7425537109375</v>
+        <v>3.442341804504395</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-32.14667129516602</v>
+        <v>8.457021713256836</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-12.63068008422852</v>
+        <v>8.872539520263672</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>5.721860885620117</v>
+        <v>19.76561546325684</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-80.26286315917969</v>
+        <v>2.853394985198975</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-58.87298965454102</v>
+        <v>6.218665599822998</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-54.26399230957031</v>
+        <v>5.089201927185059</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-27.19601440429688</v>
+        <v>9.757156372070312</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-11.60303115844727</v>
+        <v>10.30505657196045</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>6.503418922424316</v>
+        <v>20.79604721069336</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-64.92189025878906</v>
+        <v>4.937258243560791</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-43.77592849731445</v>
+        <v>7.757335186004639</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-38.85425186157227</v>
+        <v>6.720131874084473</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-22.64911270141602</v>
+        <v>11.13535594940186</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>-10.48214626312256</v>
+        <v>11.76277446746826</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>7.292619705200195</v>
+        <v>21.82839775085449</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-62.47019958496094</v>
+        <v>6.090126037597656</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-42.40860366821289</v>
+        <v>8.971078872680664</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-37.17124176025391</v>
+        <v>7.884192943572998</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-21.69958877563477</v>
+        <v>12.39905166625977</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>-9.433332443237305</v>
+        <v>13.02315330505371</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>7.923115730285645</v>
+        <v>22.76558303833008</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-60.03267669677734</v>
+        <v>7.287917137145996</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-40.97421264648438</v>
+        <v>10.25912189483643</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-35.45717239379883</v>
+        <v>9.131731033325195</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-20.61237335205078</v>
+        <v>13.72507572174072</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>-8.300495147705078</v>
+        <v>14.2975959777832</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>8.561846733093262</v>
+        <v>23.70137786865234</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-57.95730590820312</v>
+        <v>8.374104499816895</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-39.67098617553711</v>
+        <v>11.36753845214844</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-33.97850799560547</v>
+        <v>10.21533012390137</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-19.61487579345703</v>
+        <v>14.83554077148438</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>-7.312356472015381</v>
+        <v>15.41076850891113</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>9.194497108459473</v>
+        <v>24.54021072387695</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>-427.9788818359375</v>
+        <v>-75.67432403564453</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-421.1327514648438</v>
+        <v>-12.66832733154297</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="E364" t="n">
-        <v>-417.6337585449219</v>
+        <v>-56.33031463623047</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-143.0131530761719</v>
+        <v>0.497053474187851</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>-21.39521598815918</v>
+        <v>4.389210224151611</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>1.988033533096313</v>
+        <v>16.32125473022461</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>-321.5326538085938</v>
+        <v>-39.79082489013672</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-309.8619079589844</v>
+        <v>-5.084907531738281</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>-306.2324829101562</v>
+        <v>-28.02031135559082</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>-103.7699432373047</v>
+        <v>3.829094409942627</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>-17.87382888793945</v>
+        <v>5.891215801239014</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>3.298258781433105</v>
+        <v>17.48386001586914</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>-215.4880065917969</v>
+        <v>-4.159532070159912</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-199.0153198242188</v>
+        <v>2.277097225189209</v>
       </c>
     </row>
     <row r="376">
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>-195.2543792724609</v>
+        <v>0.08525893092155457</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-65.56684112548828</v>
+        <v>7.047810077667236</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>-14.35784721374512</v>
+        <v>7.401402473449707</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>4.612188339233398</v>
+        <v>18.68098258972168</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-141.5169525146484</v>
+        <v>-0.4130394756793976</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-122.1322326660156</v>
+        <v>4.34021520614624</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-117.9936981201172</v>
+        <v>2.715979099273682</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-44.63307952880859</v>
+        <v>8.405879020690918</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-13.02408885955811</v>
+        <v>8.878433227539062</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>5.568666934967041</v>
+        <v>19.73870277404785</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-67.51866149902344</v>
+        <v>3.341107845306396</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-45.23940658569336</v>
+        <v>6.410671710968018</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-40.71382522583008</v>
+        <v>5.35655689239502</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-23.69038009643555</v>
+        <v>9.768405914306641</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-11.5706090927124</v>
+        <v>10.36613655090332</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>6.530887126922607</v>
+        <v>20.81265830993652</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-64.91926574707031</v>
+        <v>4.710325717926025</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-43.85537338256836</v>
+        <v>7.700368881225586</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-38.93019104003906</v>
+        <v>6.618257999420166</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-22.78104400634766</v>
+        <v>11.10795497894287</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>-10.50410842895508</v>
+        <v>11.71397399902344</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>7.229371547698975</v>
+        <v>21.79605293273926</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-62.31996154785156</v>
+        <v>6.09084939956665</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-42.31797027587891</v>
+        <v>9.018928527832031</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-37.05392837524414</v>
+        <v>7.905261039733887</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-21.61982345581055</v>
+        <v>12.47850799560547</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>-9.366394996643066</v>
+        <v>13.08767127990723</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>7.936118125915527</v>
+        <v>22.78154182434082</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-60.04475402832031</v>
+        <v>7.191377639770508</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-40.96972274780273</v>
+        <v>10.19002628326416</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-35.45968627929688</v>
+        <v>9.047816276550293</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-20.63326072692871</v>
+        <v>13.66749382019043</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>-8.319177627563477</v>
+        <v>14.25677394866943</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>8.555529594421387</v>
+        <v>23.67041015625</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-57.72756958007812</v>
+        <v>8.35372257232666</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-39.55055999755859</v>
+        <v>11.40209865570068</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-33.83329391479492</v>
+        <v>10.24560928344727</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-19.50335693359375</v>
+        <v>14.91224384307861</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>-7.193847179412842</v>
+        <v>15.44289207458496</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>9.181681632995605</v>
+        <v>24.55800247192383</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-55.91708374023438</v>
+        <v>9.434253692626953</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-38.34880447387695</v>
+        <v>12.45736408233643</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-32.52667999267578</v>
+        <v>11.27738285064697</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-18.53406143188477</v>
+        <v>15.97277069091797</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>-6.267587184906006</v>
+        <v>16.5064640045166</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>9.83919620513916</v>
+        <v>25.35097694396973</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-322.7037353515625</v>
+        <v>-17.2006950378418</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-310.7503662109375</v>
+        <v>-1.824748516082764</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-307.3491516113281</v>
+        <v>-9.106937408447266</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-103.9546127319336</v>
+        <v>4.777607917785645</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-17.51811790466309</v>
+        <v>5.922356605529785</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>3.239773988723755</v>
+        <v>17.5441780090332</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-203.1852874755859</v>
+        <v>-8.015359878540039</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-185.8806304931641</v>
+        <v>1.500311732292175</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-182.1007232666016</v>
+        <v>-2.674068450927734</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-65.08358764648438</v>
+        <v>6.667515754699707</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-15.0900239944458</v>
+        <v>7.396910667419434</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>4.485254764556885</v>
+        <v>18.64090347290039</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-84.1788330078125</v>
+        <v>0.8620781302452087</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-61.55520248413086</v>
+        <v>4.752733707427979</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-57.39709854125977</v>
+        <v>3.521360158920288</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-28.56945419311523</v>
+        <v>8.496206283569336</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-12.66372776031494</v>
+        <v>8.918375015258789</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>5.736543655395508</v>
+        <v>19.76861953735352</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-74.02581787109375</v>
+        <v>2.861241340637207</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-52.16427993774414</v>
+        <v>6.245734214782715</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-47.59302139282227</v>
+        <v>5.09420108795166</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-25.56191444396973</v>
+        <v>9.795891761779785</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-11.63434505462646</v>
+        <v>10.34295272827148</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>6.512957096099854</v>
+        <v>20.77912902832031</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-64.90940856933594</v>
+        <v>4.826754093170166</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-43.77685165405273</v>
+        <v>7.742369651794434</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-38.85319519042969</v>
+        <v>6.656730175018311</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-22.71537971496582</v>
+        <v>11.14862155914307</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>-10.51512432098389</v>
+        <v>11.77960968017578</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>7.29596996307373</v>
+        <v>21.80608177185059</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-62.40692901611328</v>
+        <v>5.978109836578369</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-42.38276672363281</v>
+        <v>8.951178550720215</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-37.1357536315918</v>
+        <v>7.82179069519043</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-21.71571159362793</v>
+        <v>12.42608737945557</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>-9.438702583312988</v>
+        <v>13.02543926239014</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>7.909609794616699</v>
+        <v>22.73866844177246</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-59.93037796020508</v>
+        <v>7.170663833618164</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-40.92097091674805</v>
+        <v>10.23884296417236</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-35.39789199829102</v>
+        <v>9.078583717346191</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-20.57059669494629</v>
+        <v>13.73512077331543</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>-8.27944278717041</v>
+        <v>14.29344367980957</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>8.530887603759766</v>
+        <v>23.67348861694336</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-57.90598678588867</v>
+        <v>8.275643348693848</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-39.65651702880859</v>
+        <v>11.33919239044189</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-33.96086883544922</v>
+        <v>10.14897918701172</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-19.60563087463379</v>
+        <v>14.86166286468506</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>-7.288224220275879</v>
+        <v>15.40896701812744</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>9.173986434936523</v>
+        <v>24.50918579101562</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-55.87022018432617</v>
+        <v>9.427087783813477</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-38.3223876953125</v>
+        <v>12.48250675201416</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-32.49471664428711</v>
+        <v>11.28257369995117</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-18.47667694091797</v>
+        <v>16.02459526062012</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>-6.22242259979248</v>
+        <v>16.53507232666016</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>9.825432777404785</v>
+        <v>25.34370422363281</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-54.36374664306641</v>
+        <v>10.51072311401367</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-37.25388336181641</v>
+        <v>13.48943042755127</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-31.3672046661377</v>
+        <v>12.29365825653076</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-17.57655906677246</v>
+        <v>17.04195213317871</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>-5.384740829467773</v>
+        <v>17.52894592285156</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>10.51222705841064</v>
+        <v>26.08400726318359</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>-205.4837188720703</v>
+        <v>-3.707242012023926</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-186.9614715576172</v>
+        <v>2.424193859100342</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>-183.5543212890625</v>
+        <v>0.4074834585189819</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>-68.64846801757812</v>
+        <v>7.171480178833008</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>-14.21621704101562</v>
+        <v>7.444048881530762</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>4.468867301940918</v>
+        <v>18.67765426635742</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-136.5494079589844</v>
+        <v>-0.2038014829158783</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-115.9365081787109</v>
+        <v>4.419764041900635</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-112.0737686157227</v>
+        <v>2.86456823348999</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-45.52600860595703</v>
+        <v>8.481359481811523</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-12.97710037231445</v>
+        <v>8.913507461547852</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>5.499037742614746</v>
+        <v>19.72749900817871</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-68.1258544921875</v>
+        <v>3.284430503845215</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-45.50205993652344</v>
+        <v>6.412716865539551</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-41.16345596313477</v>
+        <v>5.314963340759277</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-23.79986190795898</v>
+        <v>9.797579765319824</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-11.60568237304688</v>
+        <v>10.40302753448486</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>6.534868717193604</v>
+        <v>20.80471420288086</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-65.13699340820312</v>
+        <v>4.643657207489014</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-43.95873641967773</v>
+        <v>7.682666778564453</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-39.11339950561523</v>
+        <v>6.554562091827393</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-22.82386779785156</v>
+        <v>11.13221073150635</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>-10.5081958770752</v>
+        <v>11.73801136016846</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>7.217187881469727</v>
+        <v>21.76715469360352</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-62.15328979492188</v>
+        <v>6.01750373840332</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-42.2628173828125</v>
+        <v>8.989809989929199</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-36.97784423828125</v>
+        <v>7.828546047210693</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-21.60008239746094</v>
+        <v>12.47991752624512</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>-9.319377899169922</v>
+        <v>13.0862398147583</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>7.908793926239014</v>
+        <v>22.7462043762207</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-59.91058731079102</v>
+        <v>7.141796112060547</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-40.92529296875</v>
+        <v>10.15746784210205</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-35.40177536010742</v>
+        <v>8.963488578796387</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-20.6109790802002</v>
+        <v>13.68241596221924</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>-8.293474197387695</v>
+        <v>14.24569511413574</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>8.522760391235352</v>
+        <v>23.63085556030273</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-57.65976715087891</v>
+        <v>8.333348274230957</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-39.51233291625977</v>
+        <v>11.36442565917969</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-33.80265426635742</v>
+        <v>10.16269111633301</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-19.46212577819824</v>
+        <v>14.90998458862305</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>-7.167966365814209</v>
+        <v>15.43116664886475</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>9.144442558288574</v>
+        <v>24.51785087585449</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-55.90803527832031</v>
+        <v>9.409249305725098</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-38.34865570068359</v>
+        <v>12.41542625427246</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-32.54090118408203</v>
+        <v>11.18307590484619</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-18.52544975280762</v>
+        <v>15.9831657409668</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>-6.261552810668945</v>
+        <v>16.48888397216797</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>9.831002235412598</v>
+        <v>25.30647277832031</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-54.17126846313477</v>
+        <v>10.52733612060547</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-37.138671875</v>
+        <v>13.50368309020996</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-31.26520347595215</v>
+        <v>12.26091575622559</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>-17.46755599975586</v>
+        <v>17.09422874450684</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>-5.259834289550781</v>
+        <v>17.55812454223633</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>10.52562522888184</v>
+        <v>26.09399795532227</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-52.79395294189453</v>
+        <v>11.61820030212402</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-36.17388153076172</v>
+        <v>14.46875286102295</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-30.19890785217285</v>
+        <v>13.27976322174072</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-16.66916084289551</v>
+        <v>17.98280906677246</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>-4.488540172576904</v>
+        <v>18.46894645690918</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>11.21469116210938</v>
+        <v>26.75615119934082</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-71.26741027832031</v>
+        <v>0.9542926549911499</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-47.20882415771484</v>
+        <v>4.811507225036621</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-43.24147796630859</v>
+        <v>3.578248977661133</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-24.75350379943848</v>
+        <v>8.525644302368164</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-12.74772262573242</v>
+        <v>8.948541641235352</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>5.774991989135742</v>
+        <v>19.75521087646484</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-67.65235137939453</v>
+        <v>2.815432071685791</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-45.1634635925293</v>
+        <v>6.251261711120605</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-40.65909576416016</v>
+        <v>5.074511051177979</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-23.68838119506836</v>
+        <v>9.820291519165039</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-11.6568660736084</v>
+        <v>10.36268329620361</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>6.526985168457031</v>
+        <v>20.7574520111084</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-64.74421691894531</v>
+        <v>4.62148380279541</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-43.6966667175293</v>
+        <v>7.692519187927246</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-38.74856567382812</v>
+        <v>6.551949501037598</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-22.6460132598877</v>
+        <v>11.17194271087646</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>-10.46929454803467</v>
+        <v>11.79859828948975</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>7.286198616027832</v>
+        <v>21.78376197814941</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-62.27550888061523</v>
+        <v>5.893577575683594</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-42.34296035766602</v>
+        <v>8.906528472900391</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-37.07228088378906</v>
+        <v>7.717196464538574</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-21.70400428771973</v>
+        <v>12.43985271453857</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>-9.420657157897949</v>
+        <v>13.02916526794434</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>7.888955593109131</v>
+        <v>22.69486618041992</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-59.82861709594727</v>
+        <v>7.198862075805664</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-40.88975524902344</v>
+        <v>10.18494892120361</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-35.36318969726562</v>
+        <v>8.97310733795166</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-20.55537223815918</v>
+        <v>13.72049999237061</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>-8.254825592041016</v>
+        <v>14.27815246582031</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>8.49818229675293</v>
+        <v>23.62271881103516</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-57.87378311157227</v>
+        <v>8.303079605102539</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-39.65763854980469</v>
+        <v>11.28688144683838</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-33.96295928955078</v>
+        <v>10.06337451934814</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-19.60675811767578</v>
+        <v>14.86162185668945</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>-7.300713539123535</v>
+        <v>15.38057327270508</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>9.165114402770996</v>
+        <v>24.45344352722168</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-55.89943313598633</v>
+        <v>9.46246337890625</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-38.34727478027344</v>
+        <v>12.42652225494385</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>-32.54246139526367</v>
+        <v>11.22136116027832</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-18.48178482055664</v>
+        <v>16.01640510559082</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>-6.236949443817139</v>
+        <v>16.50811958312988</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>9.840131759643555</v>
+        <v>25.28661727905273</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-54.42477798461914</v>
+        <v>10.54111385345459</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-37.31841659545898</v>
+        <v>13.42915821075439</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-31.39822769165039</v>
+        <v>12.24178504943848</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-17.61606979370117</v>
+        <v>17.02302742004395</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>-5.436484336853027</v>
+        <v>17.49741172790527</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>10.52897453308105</v>
+        <v>26.05934906005859</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-52.95993423461914</v>
+        <v>11.65802955627441</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-36.26644134521484</v>
+        <v>14.46775150299072</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-30.24552345275879</v>
+        <v>13.30583190917969</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>-16.64773941040039</v>
+        <v>18.08407592773438</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>-4.541396141052246</v>
+        <v>18.50311851501465</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>11.22557735443115</v>
+        <v>26.8310604095459</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-51.51908874511719</v>
+        <v>12.76838493347168</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-35.23945236206055</v>
+        <v>15.38617706298828</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-29.1534309387207</v>
+        <v>14.32351493835449</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>-15.85260581970215</v>
+        <v>18.81247901916504</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>-3.736750602722168</v>
+        <v>19.29593658447266</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>11.89893531799316</v>
+        <v>27.31696319580078</v>
       </c>
     </row>
   </sheetData>

--- a/exports/V_final.xlsx
+++ b/exports/V_final.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-129.1890716552734</v>
+        <v>-961.870361328125</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-44.13080978393555</v>
+        <v>-961.5333862304688</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.14339637756348</v>
+        <v>-961.032958984375</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3.486877918243408</v>
+        <v>-250.5885467529297</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>12.56900596618652</v>
+        <v>-26.63919448852539</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>21.78118705749512</v>
+        <v>0.5577549338340759</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-119.3970947265625</v>
+        <v>-891.7507934570312</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-41.40847396850586</v>
+        <v>-885.0281982421875</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.62170314788818</v>
+        <v>-889.4981079101562</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3.992007732391357</v>
+        <v>-219.3494415283203</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>12.97278881072998</v>
+        <v>-23.07740211486816</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>22.01921463012695</v>
+        <v>1.997649908065796</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-109.6139907836914</v>
+        <v>-821.6882934570312</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-38.68994903564453</v>
+        <v>-807.6505737304688</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.101516723632812</v>
+        <v>-818.0211791992188</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>4.496794700622559</v>
+        <v>-188.1209564208984</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>13.37614822387695</v>
+        <v>-19.51986885070801</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>22.25727081298828</v>
+        <v>3.43645977973938</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-101.0918655395508</v>
+        <v>-759.711181640625</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-36.48337173461914</v>
+        <v>-527.6604614257812</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-7.794568061828613</v>
+        <v>-754.5338745117188</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>4.955559253692627</v>
+        <v>-158.4710845947266</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>13.71981143951416</v>
+        <v>-16.8715705871582</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>22.49986457824707</v>
+        <v>4.728170394897461</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-92.57651519775391</v>
+        <v>-697.781494140625</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-34.279296875</v>
+        <v>-248.1312103271484</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-6.488801002502441</v>
+        <v>-690.2457275390625</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>5.414249897003174</v>
+        <v>-128.9100952148438</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>14.06364822387695</v>
+        <v>-14.22560119628906</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>22.74513244628906</v>
+        <v>6.036009788513184</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-85.22185516357422</v>
+        <v>-643.5946655273438</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-32.51956939697266</v>
+        <v>-227.5656127929688</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-5.379612922668457</v>
+        <v>-626.99755859375</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>5.837423324584961</v>
+        <v>-100.1699905395508</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>14.37209701538086</v>
+        <v>-12.12188339233398</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>22.99808502197266</v>
+        <v>7.221607685089111</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-77.88260650634766</v>
+        <v>-589.4432983398438</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>-30.76235580444336</v>
+        <v>-206.9976654052734</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-4.271773815155029</v>
+        <v>-564.0465087890625</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>6.262524604797363</v>
+        <v>-71.43224334716797</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>14.70188617706299</v>
+        <v>-10.01626110076904</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>23.2481861114502</v>
+        <v>8.408567428588867</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-71.57462310791016</v>
+        <v>-542.5411376953125</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-29.44057846069336</v>
+        <v>-192.0341796875</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.343294620513916</v>
+        <v>-321.5297546386719</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>6.661697864532471</v>
+        <v>-50.43265533447266</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>15.0469970703125</v>
+        <v>-8.271363258361816</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>23.45948600769043</v>
+        <v>9.464190483093262</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-65.27000427246094</v>
+        <v>-495.6639099121094</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>-28.11610221862793</v>
+        <v>-177.0792846679688</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.410907983779907</v>
+        <v>-79.01646423339844</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>7.062517166137695</v>
+        <v>-29.43392753601074</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>15.42015361785889</v>
+        <v>-6.526316165924072</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>23.66879653930664</v>
+        <v>10.52525901794434</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-61.37997436523438</v>
+        <v>-455.4684753417969</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-27.43245506286621</v>
+        <v>-166.0050048828125</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.775040745735168</v>
+        <v>-70.15238952636719</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>7.384489059448242</v>
+        <v>-27.23526954650879</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>15.72293758392334</v>
+        <v>-5.208227157592773</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>23.82074165344238</v>
+        <v>11.44832420349121</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-119.324951171875</v>
+        <v>-891.2078857421875</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-41.39284515380859</v>
+        <v>-885.1493530273438</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.61352634429932</v>
+        <v>-888.9358520507812</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>3.99146032333374</v>
+        <v>-219.2130432128906</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>12.97420120239258</v>
+        <v>-23.09389114379883</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>22.01815414428711</v>
+        <v>2.005072116851807</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-109.6335296630859</v>
+        <v>-821.7469482421875</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-38.70583343505859</v>
+        <v>-801.0140380859375</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-9.108066558837891</v>
+        <v>-818.0900268554688</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>4.493724346160889</v>
+        <v>-188.1112518310547</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>13.37391757965088</v>
+        <v>-19.56435775756836</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>22.25663566589355</v>
+        <v>3.432435750961304</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-101.0231704711914</v>
+        <v>-759.2144775390625</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-36.47017669677734</v>
+        <v>-534.61279296875</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.786907196044922</v>
+        <v>-754.3518676757812</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>4.954374313354492</v>
+        <v>-158.3639678955078</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>13.72079277038574</v>
+        <v>-16.88072395324707</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>22.49985122680664</v>
+        <v>4.733168601989746</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-92.59123992919922</v>
+        <v>-697.8333129882812</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-34.29216384887695</v>
+        <v>-260.6206359863281</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.494112491607666</v>
+        <v>-690.7037353515625</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>5.411459445953369</v>
+        <v>-128.8119354248047</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>14.06162071228027</v>
+        <v>-14.25248622894287</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>22.74497985839844</v>
+        <v>6.029410362243652</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-85.14454650878906</v>
+        <v>-643.0919189453125</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-32.5066032409668</v>
+        <v>-227.4509735107422</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-5.371584415435791</v>
+        <v>-626.8497314453125</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>5.836652278900146</v>
+        <v>-99.95591735839844</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>14.37127017974854</v>
+        <v>-12.12754917144775</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>22.99803161621094</v>
+        <v>7.2279372215271</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-77.88233947753906</v>
+        <v>-589.4723510742188</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.77146530151367</v>
+        <v>-207.1527099609375</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-4.27506160736084</v>
+        <v>-557.2943725585938</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>6.259625434875488</v>
+        <v>-71.32589721679688</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>14.68582916259766</v>
+        <v>-10.03635883331299</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>23.2470703125</v>
+        <v>8.407061576843262</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-71.50348663330078</v>
+        <v>-542.0733032226562</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-29.42510032653809</v>
+        <v>-191.8953552246094</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-3.336042404174805</v>
+        <v>-327.4302368164062</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>6.65963077545166</v>
+        <v>-49.34627151489258</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>15.06000900268555</v>
+        <v>-8.276745796203613</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>23.46000671386719</v>
+        <v>9.472721099853516</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-65.29833221435547</v>
+        <v>-495.68115234375</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-28.13276481628418</v>
+        <v>-177.1704864501953</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-2.418529033660889</v>
+        <v>-90.13037109375</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>7.05726957321167</v>
+        <v>-29.81760215759277</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>15.40431690216064</v>
+        <v>-6.544344425201416</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>23.66745376586914</v>
+        <v>10.51773166656494</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-61.21973419189453</v>
+        <v>-454.9893493652344</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-27.41319465637207</v>
+        <v>-165.9011993408203</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.761324763298035</v>
+        <v>-70.19097137451172</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>7.391109466552734</v>
+        <v>-27.21508407592773</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>15.73751831054688</v>
+        <v>-5.201186656951904</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>23.82161903381348</v>
+        <v>11.44865322113037</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-57.5201530456543</v>
+        <v>-415.2853698730469</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-26.75415229797363</v>
+        <v>-154.9829254150391</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.146321058273315</v>
+        <v>-61.43423080444336</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>7.707018852233887</v>
+        <v>-25.05185699462891</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>16.03426170349121</v>
+        <v>-3.892970323562622</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>23.97068786621094</v>
+        <v>12.36606884002686</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>-109.559196472168</v>
+        <v>-821.21484375</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>-38.70256042480469</v>
+        <v>-808.422607421875</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-9.100419998168945</v>
+        <v>-817.5338134765625</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>4.491379737854004</v>
+        <v>-187.9912567138672</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>13.37467670440674</v>
+        <v>-19.56856346130371</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>22.25629425048828</v>
+        <v>3.437584400177002</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>-101.0361862182617</v>
+        <v>-759.2259521484375</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>-36.49565505981445</v>
+        <v>-531.9577026367188</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>-7.793312549591064</v>
+        <v>-754.3511352539062</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>4.950883865356445</v>
+        <v>-158.3330688476562</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>13.71807861328125</v>
+        <v>-16.89951515197754</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>22.50006484985352</v>
+        <v>4.727940559387207</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>-92.52066802978516</v>
+        <v>-697.2875366210938</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>-34.2921257019043</v>
+        <v>-255.6774597167969</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>-6.487494468688965</v>
+        <v>-691.1539916992188</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>5.409641265869141</v>
+        <v>-128.6807250976562</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>14.06127738952637</v>
+        <v>-14.24584484100342</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>22.74597358703613</v>
+        <v>6.038352012634277</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-85.15094757080078</v>
+        <v>-643.1015014648438</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>-32.52885818481445</v>
+        <v>-231.4018096923828</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-5.377132415771484</v>
+        <v>-626.676025390625</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>5.834058284759521</v>
+        <v>-99.81471252441406</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>14.36975383758545</v>
+        <v>-12.13712882995605</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>22.99752426147461</v>
+        <v>7.224185466766357</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>-77.80448150634766</v>
+        <v>-588.955322265625</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>-30.76955604553223</v>
+        <v>-207.1562042236328</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-4.268466472625732</v>
+        <v>-563.0267333984375</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>6.25827693939209</v>
+        <v>-71.06950378417969</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>14.69865894317627</v>
+        <v>-10.03088283538818</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>23.24683570861816</v>
+        <v>8.411297798156738</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>-71.49622344970703</v>
+        <v>-542.0625610351562</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-29.44524192810059</v>
+        <v>-192.137451171875</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-3.340456962585449</v>
+        <v>-324.3214111328125</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>6.657845020294189</v>
+        <v>-50.25469970703125</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>15.04559898376465</v>
+        <v>-8.284762382507324</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>23.45845794677734</v>
+        <v>9.466557502746582</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-65.19708251953125</v>
+        <v>-495.1978149414062</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>-28.12200546264648</v>
+        <v>-177.1219482421875</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-2.412832736968994</v>
+        <v>-85.08469390869141</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>7.060242176055908</v>
+        <v>-29.44082069396973</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>15.41715908050537</v>
+        <v>-6.536623477935791</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>23.6680793762207</v>
+        <v>10.52690887451172</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-61.36187744140625</v>
+        <v>-454.973876953125</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-27.43835830688477</v>
+        <v>-166.0394897460938</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-1.778454899787903</v>
+        <v>-73.21441650390625</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>7.382021903991699</v>
+        <v>-27.24695777893066</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>15.71989250183105</v>
+        <v>-5.212097644805908</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>23.82007217407227</v>
+        <v>11.4453592300415</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-57.51114654541016</v>
+        <v>-414.7746276855469</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-26.75289916992188</v>
+        <v>-154.9596557617188</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-1.143667221069336</v>
+        <v>-61.34757614135742</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>7.71184253692627</v>
+        <v>-25.05073165893555</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>16.04936790466309</v>
+        <v>-3.887882232666016</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>23.97060012817383</v>
+        <v>12.36636734008789</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-55.89762496948242</v>
+        <v>-380.5647888183594</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-26.33479309082031</v>
+        <v>-146.1343841552734</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-0.776949405670166</v>
+        <v>-56.20577621459961</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>7.927107810974121</v>
+        <v>-23.35462379455566</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>16.24841690063477</v>
+        <v>-2.662618637084961</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>24.09386444091797</v>
+        <v>13.21443462371826</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-100.9819641113281</v>
+        <v>-758.816650390625</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-36.48575973510742</v>
+        <v>-538.91650390625</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-7.788534164428711</v>
+        <v>-753.9698486328125</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>4.948553562164307</v>
+        <v>-158.2334136962891</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>13.71852016448975</v>
+        <v>-16.89048957824707</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>22.50022315979004</v>
+        <v>4.733571529388428</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-92.54892730712891</v>
+        <v>-697.42724609375</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-34.30703353881836</v>
+        <v>-260.3000183105469</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-6.496780395507812</v>
+        <v>-690.9827270507812</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>5.406755924224854</v>
+        <v>-128.6338500976562</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>14.05886173248291</v>
+        <v>-14.26276874542236</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>22.74562454223633</v>
+        <v>6.030972957611084</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-85.09693145751953</v>
+        <v>-642.6828002929688</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-32.5224494934082</v>
+        <v>-228.5334320068359</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-5.372539520263672</v>
+        <v>-627.21533203125</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>5.832269191741943</v>
+        <v>-99.61435699462891</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>14.36818218231201</v>
+        <v>-12.12517547607422</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>22.99823760986328</v>
+        <v>7.230052471160889</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-77.81674194335938</v>
+        <v>-589.0620727539062</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-30.78052711486816</v>
+        <v>-207.7311859130859</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-4.276487350463867</v>
+        <v>-555.2437133789062</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>6.255722999572754</v>
+        <v>-70.9642333984375</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>14.68560886383057</v>
+        <v>-10.03993797302246</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>23.2462215423584</v>
+        <v>8.409275054931641</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-71.43461608886719</v>
+        <v>-541.6685791015625</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-29.43933296203613</v>
+        <v>-192.1509857177734</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-3.33563494682312</v>
+        <v>-325.7564697265625</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>6.656853675842285</v>
+        <v>-48.99069976806641</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>15.05691146850586</v>
+        <v>-8.273785591125488</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>23.45883750915527</v>
+        <v>9.475324630737305</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-65.27159118652344</v>
+        <v>-495.2839660644531</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-28.13698768615723</v>
+        <v>-177.2946472167969</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-2.421468734741211</v>
+        <v>-89.28461456298828</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>7.054187774658203</v>
+        <v>-29.73882293701172</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>15.40092468261719</v>
+        <v>-6.549750804901123</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>23.66647338867188</v>
+        <v>10.51999282836914</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-61.18255233764648</v>
+        <v>-454.5995788574219</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-27.4138069152832</v>
+        <v>-166.0102233886719</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-1.767954111099243</v>
+        <v>-70.15638732910156</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>7.389270782470703</v>
+        <v>-27.22590827941895</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>15.73412418365479</v>
+        <v>-5.199176788330078</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>23.82081031799316</v>
+        <v>11.45039653778076</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-57.51622009277344</v>
+        <v>-414.828857421875</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-26.75721168518066</v>
+        <v>-155.0455322265625</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-1.152067899703979</v>
+        <v>-61.40983963012695</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>7.704923629760742</v>
+        <v>-25.06699752807617</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>16.0310115814209</v>
+        <v>-3.891389608383179</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>23.97001647949219</v>
+        <v>12.36657238006592</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-55.8548698425293</v>
+        <v>-380.1152954101562</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-26.32931327819824</v>
+        <v>-146.1317443847656</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-0.7771711945533752</v>
+        <v>-56.07688140869141</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>7.92962646484375</v>
+        <v>-23.35969924926758</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>16.25986862182617</v>
+        <v>-2.65652060508728</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>24.09376525878906</v>
+        <v>13.21844959259033</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-54.29856872558594</v>
+        <v>-346.3309020996094</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-25.92147445678711</v>
+        <v>-137.3782043457031</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.4163738787174225</v>
+        <v>-51.034423828125</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>8.142447471618652</v>
+        <v>-21.67056655883789</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>16.45771789550781</v>
+        <v>-1.436333537101746</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>24.21538543701172</v>
+        <v>14.05926418304443</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>-92.47686004638672</v>
+        <v>-696.8614501953125</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>-34.31747436523438</v>
+        <v>-259.2660827636719</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>-6.489143371582031</v>
+        <v>-690.7921142578125</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>5.404440879821777</v>
+        <v>-128.5618286132812</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>14.05886840820312</v>
+        <v>-14.24411773681641</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>22.74662590026855</v>
+        <v>6.038841247558594</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>-85.10392761230469</v>
+        <v>-642.6703491210938</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>-32.54762268066406</v>
+        <v>-230.8574829101562</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>-5.378443241119385</v>
+        <v>-626.9020385742188</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>5.830652713775635</v>
+        <v>-99.58794403076172</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>14.3666934967041</v>
+        <v>-12.13178443908691</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>22.9980583190918</v>
+        <v>7.226319789886475</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>-77.73728179931641</v>
+        <v>-588.52294921875</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>-30.78404426574707</v>
+        <v>-207.8829345703125</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>-4.268841743469238</v>
+        <v>-562.2061157226562</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>6.255650520324707</v>
+        <v>-70.71485137939453</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>14.69542026519775</v>
+        <v>-10.0217342376709</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>23.24670600891113</v>
+        <v>8.412328720092773</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>-71.42600250244141</v>
+        <v>-541.6326293945312</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-29.45285987854004</v>
+        <v>-192.606201171875</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>-3.340135335922241</v>
+        <v>-323.2153930664062</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>6.655307769775391</v>
+        <v>-50.08533477783203</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>15.0427827835083</v>
+        <v>-8.277456283569336</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>23.45736885070801</v>
+        <v>9.467236518859863</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>-65.12997436523438</v>
+        <v>-494.774658203125</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-28.12421417236328</v>
+        <v>-177.3438110351562</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>-2.412435293197632</v>
+        <v>-83.33521270751953</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>7.058432579040527</v>
+        <v>-29.45766639709473</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>15.4139461517334</v>
+        <v>-6.530796527862549</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>23.66689300537109</v>
+        <v>10.52735233306885</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>-61.36367416381836</v>
+        <v>-454.5585327148438</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-27.44255447387695</v>
+        <v>-166.2444458007812</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-1.782310843467712</v>
+        <v>-72.32318115234375</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>7.379706859588623</v>
+        <v>-27.26407814025879</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>15.71663188934326</v>
+        <v>-5.208589553833008</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>23.81907081604004</v>
+        <v>11.44663238525391</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-57.54777908325195</v>
+        <v>-414.3639221191406</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-26.75762557983398</v>
+        <v>-155.1527252197266</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-1.148288130760193</v>
+        <v>-61.29743194580078</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>7.709629058837891</v>
+        <v>-25.06965065002441</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>16.04612159729004</v>
+        <v>-3.886199474334717</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>23.96976661682129</v>
+        <v>12.36744785308838</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-55.9205207824707</v>
+        <v>-380.0569152832031</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-26.33944129943848</v>
+        <v>-146.302978515625</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-0.781305730342865</v>
+        <v>-56.12734985351562</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>7.92501163482666</v>
+        <v>-23.37341117858887</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>16.24580764770508</v>
+        <v>-2.667989253997803</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>24.0931339263916</v>
+        <v>13.21521282196045</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-54.29486846923828</v>
+        <v>-345.7735900878906</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-25.92028617858887</v>
+        <v>-137.4617156982422</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-0.4139536023139954</v>
+        <v>-50.96054840087891</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>8.145455360412598</v>
+        <v>-21.67620468139648</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>16.46968841552734</v>
+        <v>-1.426035046577454</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>24.21534538269043</v>
+        <v>14.06407642364502</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-53.36516952514648</v>
+        <v>-316.7633361816406</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-25.65139961242676</v>
+        <v>-130.2414855957031</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-0.1812160015106201</v>
+        <v>-46.58057403564453</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>8.311117172241211</v>
+        <v>-20.14643096923828</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>16.62925148010254</v>
+        <v>-0.2777352929115295</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>24.32323837280273</v>
+        <v>14.83774089813232</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-85.06634521484375</v>
+        <v>-642.3392333984375</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-32.55355834960938</v>
+        <v>-229.1500396728516</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-5.376951217651367</v>
+        <v>-627.4382934570312</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>5.829545974731445</v>
+        <v>-99.50013732910156</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>14.36460304260254</v>
+        <v>-12.11841201782227</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>22.99855804443359</v>
+        <v>7.230218887329102</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-77.77391815185547</v>
+        <v>-588.7113037109375</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-30.80060958862305</v>
+        <v>-208.0196228027344</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-4.280187606811523</v>
+        <v>-554.1356811523438</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>6.25356388092041</v>
+        <v>-70.68550109863281</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>14.68228435516357</v>
+        <v>-10.03631687164307</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>23.24677848815918</v>
+        <v>8.409316062927246</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-71.3779296875</v>
+        <v>-541.31640625</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-29.4582405090332</v>
+        <v>-192.7286224365234</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-3.338014364242554</v>
+        <v>-324.1036987304688</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>6.654768943786621</v>
+        <v>-48.64387130737305</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>15.05378818511963</v>
+        <v>-8.266715049743652</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>23.45890808105469</v>
+        <v>9.476225852966309</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-65.22772216796875</v>
+        <v>-494.9330749511719</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-28.14498519897461</v>
+        <v>-177.7734069824219</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-2.424314498901367</v>
+        <v>-88.43892669677734</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>7.050941467285156</v>
+        <v>-29.66577911376953</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>15.39811325073242</v>
+        <v>-6.551185607910156</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>23.66518402099609</v>
+        <v>10.52054405212402</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-61.15157318115234</v>
+        <v>-454.2563781738281</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-27.41320610046387</v>
+        <v>-166.4195556640625</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-1.774550437927246</v>
+        <v>-70.07011413574219</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>7.386785507202148</v>
+        <v>-27.24921417236328</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>15.73050308227539</v>
+        <v>-5.19860315322876</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>23.81961250305176</v>
+        <v>11.45042896270752</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-57.51066970825195</v>
+        <v>-414.4847106933594</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-26.76013565063477</v>
+        <v>-155.361083984375</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-1.158776164054871</v>
+        <v>-61.39238357543945</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>7.702334403991699</v>
+        <v>-25.08522033691406</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>16.02812004089355</v>
+        <v>-3.890976190567017</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>23.96902275085449</v>
+        <v>12.36671447753906</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-55.85477447509766</v>
+        <v>-379.766845703125</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-26.33139419555664</v>
+        <v>-146.3783874511719</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-0.7844734191894531</v>
+        <v>-56.03276443481445</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>7.927132129669189</v>
+        <v>-23.380126953125</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>16.25635528564453</v>
+        <v>-2.668053865432739</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>24.09295654296875</v>
+        <v>13.21937274932861</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-54.29870986938477</v>
+        <v>-345.8485412597656</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-25.92561340332031</v>
+        <v>-137.5489196777344</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-0.4217558801174164</v>
+        <v>-50.97611236572266</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>8.140348434448242</v>
+        <v>-21.68623924255371</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>16.45523834228516</v>
+        <v>-1.43735146522522</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>24.21463584899902</v>
+        <v>14.06012535095215</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-53.3610954284668</v>
+        <v>-316.3226623535156</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-25.65050506591797</v>
+        <v>-130.2381286621094</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-0.1820826530456543</v>
+        <v>-46.52687835693359</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>8.311554908752441</v>
+        <v>-20.14920616149902</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>16.63954925537109</v>
+        <v>-0.2686147093772888</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>24.32289505004883</v>
+        <v>14.8431282043457</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-52.44316864013672</v>
+        <v>-287.6837768554688</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-25.3825740814209</v>
+        <v>-123.0657043457031</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>0.0474928542971611</v>
+        <v>-42.19883346557617</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>8.476829528808594</v>
+        <v>-18.62347793579102</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>16.79822158813477</v>
+        <v>0.8745131492614746</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>24.42993927001953</v>
+        <v>15.61330223083496</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>-77.70484924316406</v>
+        <v>-588.1541748046875</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-30.82048225402832</v>
+        <v>-208.3823699951172</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="E364" t="n">
-        <v>-4.27348804473877</v>
+        <v>-563.0740356445312</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>6.254377365112305</v>
+        <v>-70.52027130126953</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>14.69200038909912</v>
+        <v>-10.01335144042969</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>23.24702262878418</v>
+        <v>8.411661148071289</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>-71.37770080566406</v>
+        <v>-541.259521484375</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-29.4624080657959</v>
+        <v>-192.7700958251953</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>-3.343535184860229</v>
+        <v>-322.68603515625</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>6.653313636779785</v>
+        <v>-49.94549560546875</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>15.03955841064453</v>
+        <v>-8.268291473388672</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>23.45784950256348</v>
+        <v>9.466262817382812</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>-65.07417297363281</v>
+        <v>-494.4013061523438</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-28.12492561340332</v>
+        <v>-177.6923370361328</v>
       </c>
     </row>
     <row r="376">
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>-2.414921045303345</v>
+        <v>-81.59376525878906</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>7.055850982666016</v>
+        <v>-29.4831371307373</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>15.41069793701172</v>
+        <v>-6.525547981262207</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>23.66641998291016</v>
+        <v>10.52614498138428</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-61.33438491821289</v>
+        <v>-454.189453125</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-27.44282722473145</v>
+        <v>-166.5086212158203</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-1.783507823944092</v>
+        <v>-71.43846893310547</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>7.377400875091553</v>
+        <v>-27.28303146362305</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>15.71442794799805</v>
+        <v>-5.20608377456665</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>23.81768608093262</v>
+        <v>11.44618701934814</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-57.55224609375</v>
+        <v>-414.0022277832031</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-26.76174736022949</v>
+        <v>-155.3337860107422</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-1.152412891387939</v>
+        <v>-61.21120452880859</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>7.707011222839355</v>
+        <v>-25.08391380310059</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>16.04295921325684</v>
+        <v>-3.885713338851929</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>23.96852874755859</v>
+        <v>12.36684131622314</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-55.92584991455078</v>
+        <v>-379.6929016113281</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-26.34393310546875</v>
+        <v>-146.4103698730469</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-0.7853800654411316</v>
+        <v>-56.0622444152832</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>7.922712326049805</v>
+        <v>-23.38353538513184</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>16.24375534057617</v>
+        <v>-2.671538829803467</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>24.09210586547852</v>
+        <v>13.21456527709961</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-54.30124282836914</v>
+        <v>-345.4038696289062</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-25.92453575134277</v>
+        <v>-137.4941864013672</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-0.4179899990558624</v>
+        <v>-50.91621398925781</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>8.143267631530762</v>
+        <v>-21.6838264465332</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>16.46660041809082</v>
+        <v>-1.431460618972778</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>24.21450996398926</v>
+        <v>14.06351280212402</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-53.3690299987793</v>
+        <v>-316.2291870117188</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-25.65569686889648</v>
+        <v>-130.2240753173828</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-0.185147687792778</v>
+        <v>-46.51763153076172</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>8.309409141540527</v>
+        <v>-20.15125274658203</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>16.62726020812988</v>
+        <v>-0.2764939963817596</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>24.32250022888184</v>
+        <v>14.837890625</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-52.43671035766602</v>
+        <v>-287.0781860351562</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-25.38604164123535</v>
+        <v>-122.9624633789062</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>0.04882340133190155</v>
+        <v>-42.12232208251953</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>8.477679252624512</v>
+        <v>-18.61634254455566</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>16.80745506286621</v>
+        <v>0.8837360143661499</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>24.42954254150391</v>
+        <v>15.61606597900391</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-51.75596237182617</v>
+        <v>-262.6253051757812</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-25.13216400146484</v>
+        <v>-117.3717651367188</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>0.2888402938842773</v>
+        <v>-38.38318634033203</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>8.635948181152344</v>
+        <v>-17.22819900512695</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>16.94951438903809</v>
+        <v>1.9655921459198</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>24.53383827209473</v>
+        <v>16.2978630065918</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-71.35302734375</v>
+        <v>-541.0252685546875</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-29.46908569335938</v>
+        <v>-193.0962066650391</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-3.345084190368652</v>
+        <v>-324.283447265625</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>6.652777194976807</v>
+        <v>-48.33505249023438</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>15.05030727386475</v>
+        <v>-8.261861801147461</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>23.45970153808594</v>
+        <v>9.475190162658691</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-65.19528198242188</v>
+        <v>-494.6363525390625</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-28.14669227600098</v>
+        <v>-177.8013916015625</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-2.429955959320068</v>
+        <v>-87.64076995849609</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>7.047347068786621</v>
+        <v>-29.60616493225098</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>15.39487361907959</v>
+        <v>-6.547555446624756</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>23.66593170166016</v>
+        <v>10.51974391937256</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-61.12652587890625</v>
+        <v>-453.9611511230469</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-27.41259574890137</v>
+        <v>-166.4762573242188</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-1.782067894935608</v>
+        <v>-69.99098205566406</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>7.383517265319824</v>
+        <v>-27.28747367858887</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>15.72683048248291</v>
+        <v>-5.200133323669434</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>23.8189582824707</v>
+        <v>11.44903469085693</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-57.48940658569336</v>
+        <v>-414.1881713867188</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-26.75980949401855</v>
+        <v>-155.3924713134766</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-1.164724946022034</v>
+        <v>-61.38044357299805</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>7.699657917022705</v>
+        <v>-25.10156631469727</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>16.02679824829102</v>
+        <v>-3.892209529876709</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>23.96765899658203</v>
+        <v>12.36520767211914</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-55.82242584228516</v>
+        <v>-379.4719543457031</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-26.3347110748291</v>
+        <v>-146.3855438232422</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-0.7919432520866394</v>
+        <v>-55.99672317504883</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>7.923930168151855</v>
+        <v>-23.38398170471191</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>16.25304222106934</v>
+        <v>-2.66469931602478</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>24.0916805267334</v>
+        <v>13.21855163574219</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-54.28860473632812</v>
+        <v>-345.5433959960938</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-25.93045234680176</v>
+        <v>-137.5325927734375</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-0.4277852177619934</v>
+        <v>-50.93996810913086</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>8.137917518615723</v>
+        <v>-21.68986320495605</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>16.45339775085449</v>
+        <v>-1.442346811294556</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>24.21352767944336</v>
+        <v>14.05921077728271</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-53.35091781616211</v>
+        <v>-316.0038757324219</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-25.65557098388672</v>
+        <v>-130.1970520019531</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-0.186567947268486</v>
+        <v>-46.49029159545898</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>8.309282302856445</v>
+        <v>-20.14655685424805</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>16.63623237609863</v>
+        <v>-0.2705686688423157</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>24.32193374633789</v>
+        <v>14.84301948547363</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-52.43886947631836</v>
+        <v>-287.1649169921875</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-25.38711357116699</v>
+        <v>-122.9871597290039</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>0.04254069924354553</v>
+        <v>-42.13964080810547</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>8.474968910217285</v>
+        <v>-18.62248992919922</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>16.79642295837402</v>
+        <v>0.8766213059425354</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>24.42912483215332</v>
+        <v>15.61319160461426</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-51.73527526855469</v>
+        <v>-262.1727905273438</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-25.11924171447754</v>
+        <v>-117.2994079589844</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>0.2938577234745026</v>
+        <v>-38.33125305175781</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>8.635555267333984</v>
+        <v>-17.22378349304199</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>16.95721626281738</v>
+        <v>1.97173023223877</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>24.53362083435059</v>
+        <v>16.30147171020508</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-51.07553482055664</v>
+        <v>-238.1233825683594</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-24.86060523986816</v>
+        <v>-111.7819519042969</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>0.5327190756797791</v>
+        <v>-34.64719390869141</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>8.792570114135742</v>
+        <v>-15.84637355804443</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>17.09913635253906</v>
+        <v>3.048808813095093</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>24.63691711425781</v>
+        <v>16.97718048095703</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>-65.03011322021484</v>
+        <v>-494.0868225097656</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-28.11731719970703</v>
+        <v>-177.9620971679688</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>-2.422109365463257</v>
+        <v>-80.58104705810547</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>7.052436828613281</v>
+        <v>-29.53903388977051</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>15.40694618225098</v>
+        <v>-6.518683433532715</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>23.66690635681152</v>
+        <v>10.5238733291626</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-61.31225204467773</v>
+        <v>-453.8712463378906</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-27.43872833251953</v>
+        <v>-166.4954223632812</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-1.786305665969849</v>
+        <v>-70.56719207763672</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>7.375278472900391</v>
+        <v>-27.30256462097168</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>15.71428775787354</v>
+        <v>-5.204235076904297</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>23.8179931640625</v>
+        <v>11.44426250457764</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-57.55045700073242</v>
+        <v>-413.68408203125</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-26.76164054870605</v>
+        <v>-155.3181610107422</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-1.152291774749756</v>
+        <v>-61.13177490234375</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>7.703887939453125</v>
+        <v>-25.08919715881348</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>16.04010963439941</v>
+        <v>-3.887168645858765</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>23.96773147583008</v>
+        <v>12.36507225036621</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-55.92216873168945</v>
+        <v>-379.3754272460938</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-26.34613227844238</v>
+        <v>-146.3890228271484</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-0.7887461185455322</v>
+        <v>-56.00422286987305</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>7.920669555664062</v>
+        <v>-23.38348388671875</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>16.2435417175293</v>
+        <v>-2.669383764266968</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>24.09072875976562</v>
+        <v>13.21247959136963</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-54.30202102661133</v>
+        <v>-345.0899658203125</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-25.92871284484863</v>
+        <v>-137.4682159423828</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-0.4216779470443726</v>
+        <v>-50.8804817199707</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>8.140659332275391</v>
+        <v>-21.67763519287109</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>16.46342849731445</v>
+        <v>-1.427904963493347</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>24.21326446533203</v>
+        <v>14.06157684326172</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-53.37016677856445</v>
+        <v>-315.9036865234375</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-25.65986251831055</v>
+        <v>-130.1867828369141</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-0.1890226006507874</v>
+        <v>-46.48069381713867</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>8.307497978210449</v>
+        <v>-20.14450836181641</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>16.62581253051758</v>
+        <v>-0.282254159450531</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>24.32146835327148</v>
+        <v>14.83623600006104</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-52.44009780883789</v>
+        <v>-286.7377014160156</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-25.3902702331543</v>
+        <v>-122.9126052856445</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>0.04413384944200516</v>
+        <v>-42.08383560180664</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>8.475358963012695</v>
+        <v>-18.61165046691895</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>16.80398178100586</v>
+        <v>0.8843458890914917</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>24.4286994934082</v>
+        <v>15.61429882049561</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-51.75798797607422</v>
+        <v>-262.0546569824219</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-25.1368350982666</v>
+        <v>-117.2804107666016</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>0.2857448160648346</v>
+        <v>-38.31852340698242</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>8.634498596191406</v>
+        <v>-17.22407341003418</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>16.94789505004883</v>
+        <v>1.964583516120911</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>24.53310012817383</v>
+        <v>16.29598426818848</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-51.07746887207031</v>
+        <v>-237.3953094482422</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-24.84807777404785</v>
+        <v>-111.6539306640625</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>0.5412134528160095</v>
+        <v>-34.55648803710938</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>8.794478416442871</v>
+        <v>-15.83676147460938</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>17.10637283325195</v>
+        <v>3.054637670516968</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>24.63669013977051</v>
+        <v>16.97940635681152</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-50.56277084350586</v>
+        <v>-218.3131866455078</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-24.65317726135254</v>
+        <v>-107.8432540893555</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>0.7226186990737915</v>
+        <v>-31.54647254943848</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>8.927689552307129</v>
+        <v>-14.57466125488281</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>17.23776245117188</v>
+        <v>4.065409660339355</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>24.7332878112793</v>
+        <v>17.54119300842285</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-61.11809921264648</v>
+        <v>-453.7196044921875</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-27.41464805603027</v>
+        <v>-166.6677398681641</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-1.783363580703735</v>
+        <v>-69.93278503417969</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>7.379336357116699</v>
+        <v>-27.30583572387695</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>15.7225456237793</v>
+        <v>-5.200384140014648</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>23.81962394714355</v>
+        <v>11.44652462005615</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-57.46758651733398</v>
+        <v>-413.939453125</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-26.7604808807373</v>
+        <v>-155.3918609619141</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-1.166898965835571</v>
+        <v>-61.32994079589844</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>7.696981430053711</v>
+        <v>-25.11001777648926</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>16.02703475952148</v>
+        <v>-3.894635677337646</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>23.96791458129883</v>
+        <v>12.36354541778564</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-55.78216934204102</v>
+        <v>-379.2196655273438</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-26.33565330505371</v>
+        <v>-146.3780670166016</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-0.7970443367958069</v>
+        <v>-55.9666862487793</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>7.91987419128418</v>
+        <v>-23.37749099731445</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>16.24995231628418</v>
+        <v>-2.662631511688232</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>24.0907154083252</v>
+        <v>13.2165412902832</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-54.26348495483398</v>
+        <v>-345.2866516113281</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-25.93525123596191</v>
+        <v>-137.5182342529297</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-0.433628648519516</v>
+        <v>-50.91079711914062</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>8.135396957397461</v>
+        <v>-21.68593978881836</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>16.45314598083496</v>
+        <v>-1.441417217254639</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>24.21200370788574</v>
+        <v>14.0569543838501</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-53.34004592895508</v>
+        <v>-315.7456665039062</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-25.66174507141113</v>
+        <v>-130.1769409179688</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-0.1911013573408127</v>
+        <v>-46.46287536621094</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>8.306543350219727</v>
+        <v>-20.14048385620117</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>16.63292121887207</v>
+        <v>-0.2667194902896881</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>24.32050514221191</v>
+        <v>14.84144306182861</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-52.42848587036133</v>
+        <v>-286.8882446289062</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-25.39216804504395</v>
+        <v>-122.9550170898438</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>0.0382373183965683</v>
+        <v>-42.11032867431641</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>8.47280216217041</v>
+        <v>-18.61823081970215</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>16.7947940826416</v>
+        <v>0.8724492788314819</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>24.42795753479004</v>
+        <v>15.6113109588623</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-51.72465896606445</v>
+        <v>-261.8742370605469</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-25.12114334106445</v>
+        <v>-117.2539978027344</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>0.289722204208374</v>
+        <v>-38.29970169067383</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>8.632802963256836</v>
+        <v>-17.2212028503418</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>16.95390129089355</v>
+        <v>1.97322940826416</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>24.53269004821777</v>
+        <v>16.29945182800293</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-51.06736373901367</v>
+        <v>-237.5687561035156</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-24.86350631713867</v>
+        <v>-111.6911468505859</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>0.529908299446106</v>
+        <v>-34.58666229248047</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>8.790824890136719</v>
+        <v>-15.8442497253418</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>17.0972728729248</v>
+        <v>3.049748420715332</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>24.63608741760254</v>
+        <v>16.9749870300293</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-50.56054306030273</v>
+        <v>-217.7433624267578</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-24.64336967468262</v>
+        <v>-107.7275772094727</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>0.7280135750770569</v>
+        <v>-31.48488235473633</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>8.928286552429199</v>
+        <v>-14.57581806182861</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>17.24348640441895</v>
+        <v>4.067524433135986</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>24.7328987121582</v>
+        <v>17.54496192932129</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-50.05497360229492</v>
+        <v>-199.9799957275391</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-24.45077133178711</v>
+        <v>-104.1393966674805</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>0.907812774181366</v>
+        <v>-28.6340217590332</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>9.060359954833984</v>
+        <v>-13.33145427703857</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>17.3742504119873</v>
+        <v>5.061058044433594</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>24.82896423339844</v>
+        <v>18.09428215026855</v>
       </c>
     </row>
   </sheetData>

--- a/exports/V_final.xlsx
+++ b/exports/V_final.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-961.870361328125</v>
+        <v>-961.8846435546875</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-961.5333862304688</v>
+        <v>-961.5421752929688</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-961.032958984375</v>
+        <v>-961.093017578125</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-250.5885467529297</v>
+        <v>-303.7433471679688</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-26.63919448852539</v>
+        <v>-29.42596054077148</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5577549338340759</v>
+        <v>-1.914252042770386</v>
       </c>
     </row>
     <row r="8">
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-891.7507934570312</v>
+        <v>-891.781982421875</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-885.0281982421875</v>
+        <v>-887.070556640625</v>
       </c>
     </row>
     <row r="10">
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-889.4981079101562</v>
+        <v>-889.6786499023438</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-219.3494415283203</v>
+        <v>-280.8253784179688</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.07740211486816</v>
+        <v>-26.80632019042969</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1.997649908065796</v>
+        <v>-0.6202974915504456</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-821.6882934570312</v>
+        <v>-821.7377319335938</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-807.6505737304688</v>
+        <v>-812.0175170898438</v>
       </c>
     </row>
     <row r="16">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-818.0211791992188</v>
+        <v>-818.3272705078125</v>
       </c>
     </row>
     <row r="17">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-188.1209564208984</v>
+        <v>-257.9340209960938</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.51986885070801</v>
+        <v>-24.18886756896973</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3.43645977973938</v>
+        <v>0.6732306480407715</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-759.711181640625</v>
+        <v>-759.9832763671875</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-527.6604614257812</v>
+        <v>-600.0770874023438</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-754.5338745117188</v>
+        <v>-755.9544677734375</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-158.4710845947266</v>
+        <v>-238.6524505615234</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-16.8715705871582</v>
+        <v>-21.88411521911621</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>4.728170394897461</v>
+        <v>1.93474268913269</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-697.781494140625</v>
+        <v>-698.2763671875</v>
       </c>
     </row>
     <row r="27">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-248.1312103271484</v>
+        <v>-388.5523376464844</v>
       </c>
     </row>
     <row r="28">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-690.2457275390625</v>
+        <v>-693.62939453125</v>
       </c>
     </row>
     <row r="29">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>-128.9100952148438</v>
+        <v>-219.3936004638672</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-14.22560119628906</v>
+        <v>-19.58091163635254</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>6.036009788513184</v>
+        <v>3.228014469146729</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-643.5946655273438</v>
+        <v>-644.304931640625</v>
       </c>
     </row>
     <row r="33">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-227.5656127929688</v>
+        <v>-326.7460327148438</v>
       </c>
     </row>
     <row r="34">
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-626.99755859375</v>
+        <v>-639.411865234375</v>
       </c>
     </row>
     <row r="35">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-100.1699905395508</v>
+        <v>-203.3472747802734</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-12.12188339233398</v>
+        <v>-17.55707550048828</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>7.221607685089111</v>
+        <v>4.385341167449951</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-589.4432983398438</v>
+        <v>-590.3689575195312</v>
       </c>
     </row>
     <row r="39">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>-206.9976654052734</v>
+        <v>-264.9593811035156</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-564.0465087890625</v>
+        <v>-585.23046875</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>-71.43224334716797</v>
+        <v>-187.3206787109375</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-10.01626110076904</v>
+        <v>-15.53433132171631</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>8.408567428588867</v>
+        <v>5.546765327453613</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-542.5411376953125</v>
+        <v>-543.7008056640625</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-192.0341796875</v>
+        <v>-242.1002655029297</v>
       </c>
     </row>
     <row r="46">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-321.5297546386719</v>
+        <v>-538.3546142578125</v>
       </c>
     </row>
     <row r="47">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-50.43265533447266</v>
+        <v>-174.1484832763672</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-8.271363258361816</v>
+        <v>-13.74661445617676</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>9.464190483093262</v>
+        <v>6.593929290771484</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-495.6639099121094</v>
+        <v>-497.0571899414062</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>-177.0792846679688</v>
+        <v>-219.2458038330078</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-79.01646423339844</v>
+        <v>-491.5040588378906</v>
       </c>
     </row>
     <row r="53">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>-29.43392753601074</v>
+        <v>-160.9828948974609</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-6.526316165924072</v>
+        <v>-11.95932197570801</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>10.52525901794434</v>
+        <v>7.635989665985107</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-455.4684753417969</v>
+        <v>-457.1607360839844</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-166.0050048828125</v>
+        <v>-207.1111755371094</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-70.15238952636719</v>
+        <v>-451.4354248046875</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-27.23526954650879</v>
+        <v>-150.4653778076172</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-5.208227157592773</v>
+        <v>-10.39111328125</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>11.44832420349121</v>
+        <v>8.55799674987793</v>
       </c>
     </row>
     <row r="62">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>-891.2078857421875</v>
+        <v>-891.2431030273438</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-885.1493530273438</v>
+        <v>-886.9750366210938</v>
       </c>
     </row>
     <row r="64">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-888.9358520507812</v>
+        <v>-889.118896484375</v>
       </c>
     </row>
     <row r="65">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-219.2130432128906</v>
+        <v>-280.6761169433594</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-23.09389114379883</v>
+        <v>-26.79224014282227</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>2.005072116851807</v>
+        <v>-0.6208683252334595</v>
       </c>
     </row>
     <row r="68">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-821.7469482421875</v>
+        <v>-821.8108520507812</v>
       </c>
     </row>
     <row r="69">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-801.0140380859375</v>
+        <v>-807.4755859375</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-818.0900268554688</v>
+        <v>-818.4208374023438</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-188.1112518310547</v>
+        <v>-258.0316162109375</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-19.56435775756836</v>
+        <v>-24.19745635986328</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>3.432435750961304</v>
+        <v>0.671063244342804</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-759.2144775390625</v>
+        <v>-759.4835815429688</v>
       </c>
     </row>
     <row r="75">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-534.61279296875</v>
+        <v>-604.8884887695312</v>
       </c>
     </row>
     <row r="76">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-754.3518676757812</v>
+        <v>-755.4204711914062</v>
       </c>
     </row>
     <row r="77">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-158.3639678955078</v>
+        <v>-238.5050048828125</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-16.88072395324707</v>
+        <v>-21.87080383300781</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>4.733168601989746</v>
+        <v>1.947968006134033</v>
       </c>
     </row>
     <row r="80">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>-697.8333129882812</v>
+        <v>-698.3309936523438</v>
       </c>
     </row>
     <row r="81">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-260.6206359863281</v>
+        <v>-396.9931945800781</v>
       </c>
     </row>
     <row r="82">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-690.7037353515625</v>
+        <v>-693.6876831054688</v>
       </c>
     </row>
     <row r="83">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-128.8119354248047</v>
+        <v>-219.4653472900391</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.25248622894287</v>
+        <v>-19.58798789978027</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>6.029410362243652</v>
+        <v>3.211820840835571</v>
       </c>
     </row>
     <row r="86">
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>-643.0919189453125</v>
+        <v>-643.8117065429688</v>
       </c>
     </row>
     <row r="87">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-227.4509735107422</v>
+        <v>-328.4107360839844</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-626.8497314453125</v>
+        <v>-638.90771484375</v>
       </c>
     </row>
     <row r="89">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-99.95591735839844</v>
+        <v>-203.2047882080078</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-12.12754917144775</v>
+        <v>-17.54469871520996</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>7.2279372215271</v>
+        <v>4.389341354370117</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>-589.4723510742188</v>
+        <v>-590.40576171875</v>
       </c>
     </row>
     <row r="93">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-207.1527099609375</v>
+        <v>-267.4230651855469</v>
       </c>
     </row>
     <row r="94">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-557.2943725585938</v>
+        <v>-585.2623291015625</v>
       </c>
     </row>
     <row r="95">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-71.32589721679688</v>
+        <v>-187.3745422363281</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-10.03635883331299</v>
+        <v>-15.53982925415039</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>8.407061576843262</v>
+        <v>5.536102294921875</v>
       </c>
     </row>
     <row r="98">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-542.0733032226562</v>
+        <v>-543.236328125</v>
       </c>
     </row>
     <row r="99">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-191.8953552246094</v>
+        <v>-242.6473999023438</v>
       </c>
     </row>
     <row r="100">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>-327.4302368164062</v>
+        <v>-537.8858642578125</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.34627151489258</v>
+        <v>-174.0165557861328</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-8.276745796203613</v>
+        <v>-13.7375373840332</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>9.472721099853516</v>
+        <v>6.587376117706299</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-495.68115234375</v>
+        <v>-497.0836181640625</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-177.1704864501953</v>
+        <v>-220.0154418945312</v>
       </c>
     </row>
     <row r="106">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>-90.13037109375</v>
+        <v>-491.5266723632812</v>
       </c>
     </row>
     <row r="107">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-29.81760215759277</v>
+        <v>-161.0274658203125</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-6.544344425201416</v>
+        <v>-11.96613025665283</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>10.51773166656494</v>
+        <v>7.625579833984375</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-454.9893493652344</v>
+        <v>-456.690185546875</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-165.9011993408203</v>
+        <v>-207.3357696533203</v>
       </c>
     </row>
     <row r="112">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-70.19097137451172</v>
+        <v>-450.9556579589844</v>
       </c>
     </row>
     <row r="113">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-27.21508407592773</v>
+        <v>-150.3482360839844</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-5.201186656951904</v>
+        <v>-10.38253974914551</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>11.44865322113037</v>
+        <v>8.553444862365723</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-415.2853698730469</v>
+        <v>-417.2848205566406</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-154.9829254150391</v>
+        <v>-195.2495269775391</v>
       </c>
     </row>
     <row r="118">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>-61.43423080444336</v>
+        <v>-411.3847045898438</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-25.05185699462891</v>
+        <v>-139.9828186035156</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-3.892970323562622</v>
+        <v>-8.830005645751953</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>12.36606884002686</v>
+        <v>9.469502449035645</v>
       </c>
     </row>
     <row r="122">
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>-821.21484375</v>
+        <v>-821.2745971679688</v>
       </c>
     </row>
     <row r="123">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>-808.422607421875</v>
+        <v>-812.4059448242188</v>
       </c>
     </row>
     <row r="124">
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-817.5338134765625</v>
+        <v>-817.8433227539062</v>
       </c>
     </row>
     <row r="125">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>-187.9912567138672</v>
+        <v>-257.9519348144531</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>-19.56856346130371</v>
+        <v>-24.18292236328125</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>3.437584400177002</v>
+        <v>0.6687352657318115</v>
       </c>
     </row>
     <row r="128">
@@ -2616,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>-759.2259521484375</v>
+        <v>-759.510498046875</v>
       </c>
     </row>
     <row r="129">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>-531.9577026367188</v>
+        <v>-603.1485595703125</v>
       </c>
     </row>
     <row r="130">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>-754.3511352539062</v>
+        <v>-755.4644165039062</v>
       </c>
     </row>
     <row r="131">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-158.3330688476562</v>
+        <v>-238.6535339355469</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>-16.89951515197754</v>
+        <v>-21.87777900695801</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>4.727940559387207</v>
+        <v>1.925709128379822</v>
       </c>
     </row>
     <row r="134">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>-697.2875366210938</v>
+        <v>-697.7969970703125</v>
       </c>
     </row>
     <row r="135">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>-255.6774597167969</v>
+        <v>-393.739990234375</v>
       </c>
     </row>
     <row r="136">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>-691.1539916992188</v>
+        <v>-693.1385498046875</v>
       </c>
     </row>
     <row r="137">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>-128.6807250976562</v>
+        <v>-219.3804931640625</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>-14.24584484100342</v>
+        <v>-19.57444953918457</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>6.038352012634277</v>
+        <v>3.224536895751953</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-643.1015014648438</v>
+        <v>-643.824951171875</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>-231.4018096923828</v>
+        <v>-330.1467590332031</v>
       </c>
     </row>
     <row r="142">
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-626.676025390625</v>
+        <v>-638.9214477539062</v>
       </c>
     </row>
     <row r="143">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>-99.81471252441406</v>
+        <v>-203.3220367431641</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-12.13712882995605</v>
+        <v>-17.55044364929199</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>7.224185466766357</v>
+        <v>4.375596523284912</v>
       </c>
     </row>
     <row r="146">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>-588.955322265625</v>
+        <v>-589.8931274414062</v>
       </c>
     </row>
     <row r="147">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>-207.1562042236328</v>
+        <v>-266.6482238769531</v>
       </c>
     </row>
     <row r="148">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-563.0267333984375</v>
+        <v>-584.7449340820312</v>
       </c>
     </row>
     <row r="149">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>-71.06950378417969</v>
+        <v>-187.2937622070312</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-10.03088283538818</v>
+        <v>-15.52781200408936</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>8.411297798156738</v>
+        <v>5.539447784423828</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>-542.0625610351562</v>
+        <v>-543.235107421875</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-192.137451171875</v>
+        <v>-243.2978057861328</v>
       </c>
     </row>
     <row r="154">
@@ -3058,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-324.3214111328125</v>
+        <v>-537.87841796875</v>
       </c>
     </row>
     <row r="155">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-50.25469970703125</v>
+        <v>-174.1188049316406</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>-8.284762382507324</v>
+        <v>-13.74367427825928</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>9.466557502746582</v>
+        <v>6.575891017913818</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-495.1978149414062</v>
+        <v>-496.6048889160156</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>-177.1219482421875</v>
+        <v>-219.9533081054688</v>
       </c>
     </row>
     <row r="160">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>-85.08469390869141</v>
+        <v>-491.0404968261719</v>
       </c>
     </row>
     <row r="161">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-29.44082069396973</v>
+        <v>-160.9508056640625</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>-6.536623477935791</v>
+        <v>-11.95697021484375</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>10.52690887451172</v>
+        <v>7.618538379669189</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-454.973876953125</v>
+        <v>-456.6838684082031</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-166.0394897460938</v>
+        <v>-207.6253814697266</v>
       </c>
     </row>
     <row r="166">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-73.21441650390625</v>
+        <v>-450.9466552734375</v>
       </c>
     </row>
     <row r="167">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-27.24695777893066</v>
+        <v>-150.4290771484375</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-5.212097644805908</v>
+        <v>-10.38971900939941</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>11.4453592300415</v>
+        <v>8.543241500854492</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-414.7746276855469</v>
+        <v>-416.786865234375</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-154.9596557617188</v>
+        <v>-195.3084411621094</v>
       </c>
     </row>
     <row r="172">
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>-61.34757614135742</v>
+        <v>-410.8773193359375</v>
       </c>
     </row>
     <row r="173">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-25.05073165893555</v>
+        <v>-139.9172515869141</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-3.887882232666016</v>
+        <v>-8.822669982910156</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>12.36636734008789</v>
+        <v>9.464383125305176</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-380.5647888183594</v>
+        <v>-382.8934631347656</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-146.1343841552734</v>
+        <v>-184.5383758544922</v>
       </c>
     </row>
     <row r="178">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>-56.20577621459961</v>
+        <v>-376.8858947753906</v>
       </c>
     </row>
     <row r="179">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-23.35462379455566</v>
+        <v>-131.5896911621094</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-2.662618637084961</v>
+        <v>-7.46781587600708</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>13.21443462371826</v>
+        <v>10.31226062774658</v>
       </c>
     </row>
     <row r="182">
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-758.816650390625</v>
+        <v>-759.1028442382812</v>
       </c>
     </row>
     <row r="183">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-538.91650390625</v>
+        <v>-607.720947265625</v>
       </c>
     </row>
     <row r="184">
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-753.9698486328125</v>
+        <v>-755.02685546875</v>
       </c>
     </row>
     <row r="185">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-158.2334136962891</v>
+        <v>-238.56982421875</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-16.89048957824707</v>
+        <v>-21.86878204345703</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>4.733571529388428</v>
+        <v>1.944493532180786</v>
       </c>
     </row>
     <row r="188">
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-697.42724609375</v>
+        <v>-697.941650390625</v>
       </c>
     </row>
     <row r="189">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-260.3000183105469</v>
+        <v>-396.5036315917969</v>
       </c>
     </row>
     <row r="190">
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>-690.9827270507812</v>
+        <v>-693.2862548828125</v>
       </c>
     </row>
     <row r="191">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-128.6338500976562</v>
+        <v>-219.5184020996094</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-14.26276874542236</v>
+        <v>-19.58547592163086</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>6.030972957611084</v>
+        <v>3.206154108047485</v>
       </c>
     </row>
     <row r="194">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>-642.6828002929688</v>
+        <v>-643.418212890625</v>
       </c>
     </row>
     <row r="195">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-228.5334320068359</v>
+        <v>-328.1333312988281</v>
       </c>
     </row>
     <row r="196">
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>-627.21533203125</v>
+        <v>-638.5037841796875</v>
       </c>
     </row>
     <row r="197">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-99.61435699462891</v>
+        <v>-203.22021484375</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-12.12517547607422</v>
+        <v>-17.54195404052734</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>7.230052471160889</v>
+        <v>4.38555383682251</v>
       </c>
     </row>
     <row r="200">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>-589.0620727539062</v>
+        <v>-590.0113525390625</v>
       </c>
     </row>
     <row r="201">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-207.7311859130859</v>
+        <v>-267.3248596191406</v>
       </c>
     </row>
     <row r="202">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-555.2437133789062</v>
+        <v>-584.8565063476562</v>
       </c>
     </row>
     <row r="203">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-70.9642333984375</v>
+        <v>-187.3935241699219</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-10.03993797302246</v>
+        <v>-15.53656768798828</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>8.409275054931641</v>
+        <v>5.53001594543457</v>
       </c>
     </row>
     <row r="206">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>-541.6685791015625</v>
+        <v>-542.8480224609375</v>
       </c>
     </row>
     <row r="207">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-192.1509857177734</v>
+        <v>-242.7725372314453</v>
       </c>
     </row>
     <row r="208">
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="n">
-        <v>-325.7564697265625</v>
+        <v>-537.4852905273438</v>
       </c>
     </row>
     <row r="209">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-48.99069976806641</v>
+        <v>-174.0107116699219</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-8.273785591125488</v>
+        <v>-13.73626899719238</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>9.475324630737305</v>
+        <v>6.579704761505127</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-495.2839660644531</v>
+        <v>-496.7037353515625</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-177.2946472167969</v>
+        <v>-220.1502685546875</v>
       </c>
     </row>
     <row r="214">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>-89.28461456298828</v>
+        <v>-491.1341857910156</v>
       </c>
     </row>
     <row r="215">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-29.73882293701172</v>
+        <v>-161.0407409667969</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-6.549750804901123</v>
+        <v>-11.96664714813232</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>10.51999282836914</v>
+        <v>7.60902738571167</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-454.5995788574219</v>
+        <v>-456.319091796875</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-166.0102233886719</v>
+        <v>-207.4749298095703</v>
       </c>
     </row>
     <row r="220">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>-70.15638732910156</v>
+        <v>-450.5716552734375</v>
       </c>
     </row>
     <row r="221">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-27.22590827941895</v>
+        <v>-150.3385009765625</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-5.199176788330078</v>
+        <v>-10.38365840911865</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>11.45039653778076</v>
+        <v>8.535442352294922</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-414.828857421875</v>
+        <v>-416.8530883789062</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-155.0455322265625</v>
+        <v>-195.3271026611328</v>
       </c>
     </row>
     <row r="226">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E226" t="n">
-        <v>-61.40983963012695</v>
+        <v>-410.9387817382812</v>
       </c>
     </row>
     <row r="227">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-25.06699752807617</v>
+        <v>-139.9841918945312</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-3.891389608383179</v>
+        <v>-8.83287239074707</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>12.36657238006592</v>
+        <v>9.454194068908691</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-380.1152954101562</v>
+        <v>-382.4629516601562</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-146.1317443847656</v>
+        <v>-184.4724273681641</v>
       </c>
     </row>
     <row r="232">
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>-56.07688140869141</v>
+        <v>-376.4433898925781</v>
       </c>
     </row>
     <row r="233">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-23.35969924926758</v>
+        <v>-131.5057983398438</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-2.65652060508728</v>
+        <v>-7.463750839233398</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>13.21844959259033</v>
+        <v>10.3063793182373</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-346.3309020996094</v>
+        <v>-348.9926452636719</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-137.3782043457031</v>
+        <v>-173.7567749023438</v>
       </c>
     </row>
     <row r="238">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="E238" t="n">
-        <v>-51.034423828125</v>
+        <v>-342.8808898925781</v>
       </c>
     </row>
     <row r="239">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-21.67056655883789</v>
+        <v>-123.3063888549805</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>-1.436333537101746</v>
+        <v>-6.119706630706787</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>14.05926418304443</v>
+        <v>11.15235710144043</v>
       </c>
     </row>
     <row r="242">
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>-696.8614501953125</v>
+        <v>-697.3932495117188</v>
       </c>
     </row>
     <row r="243">
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>-259.2660827636719</v>
+        <v>-396.1829528808594</v>
       </c>
     </row>
     <row r="244">
@@ -4588,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>-690.7921142578125</v>
+        <v>-692.7191162109375</v>
       </c>
     </row>
     <row r="245">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-128.5618286132812</v>
+        <v>-219.6032562255859</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>-14.24411773681641</v>
+        <v>-19.57194709777832</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>6.038841247558594</v>
+        <v>3.219433069229126</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>-642.6703491210938</v>
+        <v>-643.414794921875</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>-230.8574829101562</v>
+        <v>-329.4523315429688</v>
       </c>
     </row>
     <row r="250">
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>-626.9020385742188</v>
+        <v>-638.4967651367188</v>
       </c>
     </row>
     <row r="251">
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>-99.58794403076172</v>
+        <v>-203.4944763183594</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>-12.13178443908691</v>
+        <v>-17.54762649536133</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>7.226319789886475</v>
+        <v>4.372262954711914</v>
       </c>
     </row>
     <row r="254">
@@ -4758,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>-588.52294921875</v>
+        <v>-589.4804077148438</v>
       </c>
     </row>
     <row r="255">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>-207.8829345703125</v>
+        <v>-266.322265625</v>
       </c>
     </row>
     <row r="256">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>-562.2061157226562</v>
+        <v>-584.3185424804688</v>
       </c>
     </row>
     <row r="257">
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>-70.71485137939453</v>
+        <v>-187.4146423339844</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>-10.0217342376709</v>
+        <v>-15.52472400665283</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>8.412328720092773</v>
+        <v>5.534410953521729</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>-541.6326293945312</v>
+        <v>-542.8255004882812</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-192.606201171875</v>
+        <v>-243.0926818847656</v>
       </c>
     </row>
     <row r="262">
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>-323.2153930664062</v>
+        <v>-537.454345703125</v>
       </c>
     </row>
     <row r="263">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>-50.08533477783203</v>
+        <v>-174.2155914306641</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>-8.277456283569336</v>
+        <v>-13.74049472808838</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>9.467236518859863</v>
+        <v>6.570565700531006</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>-494.774658203125</v>
+        <v>-496.2027893066406</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-177.3438110351562</v>
+        <v>-219.8777160644531</v>
       </c>
     </row>
     <row r="268">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>-83.33521270751953</v>
+        <v>-490.6230773925781</v>
       </c>
     </row>
     <row r="269">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>-29.45766639709473</v>
+        <v>-161.0214385986328</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>-6.530796527862549</v>
+        <v>-11.95693588256836</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>10.52735233306885</v>
+        <v>7.60960578918457</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>-454.5585327148438</v>
+        <v>-456.2901306152344</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-166.2444458007812</v>
+        <v>-207.5792999267578</v>
       </c>
     </row>
     <row r="274">
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E274" t="n">
-        <v>-72.32318115234375</v>
+        <v>-450.5384521484375</v>
       </c>
     </row>
     <row r="275">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-27.26407814025879</v>
+        <v>-150.5011138916016</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-5.208589553833008</v>
+        <v>-10.39040851593018</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>11.44663238525391</v>
+        <v>8.528219223022461</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-414.3639221191406</v>
+        <v>-416.3991394042969</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-155.1527252197266</v>
+        <v>-195.2847290039062</v>
       </c>
     </row>
     <row r="280">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>-61.29743194580078</v>
+        <v>-410.4755249023438</v>
       </c>
     </row>
     <row r="281">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-25.06965065002441</v>
+        <v>-139.9889831542969</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-3.886199474334717</v>
+        <v>-8.824345588684082</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>12.36744785308838</v>
+        <v>9.446773529052734</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-380.0569152832031</v>
+        <v>-382.4164428710938</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-146.302978515625</v>
+        <v>-184.4711151123047</v>
       </c>
     </row>
     <row r="286">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>-56.12734985351562</v>
+        <v>-376.3929443359375</v>
       </c>
     </row>
     <row r="287">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-23.37341117858887</v>
+        <v>-131.6417846679688</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>-2.667989253997803</v>
+        <v>-7.470647811889648</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>13.21521282196045</v>
+        <v>10.29411315917969</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-345.7735900878906</v>
+        <v>-348.4567565917969</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-137.4617156982422</v>
+        <v>-173.6682891845703</v>
       </c>
     </row>
     <row r="292">
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>-50.96054840087891</v>
+        <v>-342.3338012695312</v>
       </c>
     </row>
     <row r="293">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-21.67620468139648</v>
+        <v>-123.3012008666992</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>-1.426035046577454</v>
+        <v>-6.116745471954346</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>14.06407642364502</v>
+        <v>11.14368152618408</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-316.7633361816406</v>
+        <v>-319.7595520019531</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-130.2414855957031</v>
+        <v>-163.9362182617188</v>
       </c>
     </row>
     <row r="298">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>-46.58057403564453</v>
+        <v>-313.6028442382812</v>
       </c>
     </row>
     <row r="299">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-20.14643096923828</v>
+        <v>-116.8606948852539</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>-0.2777352929115295</v>
+        <v>-4.869688510894775</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>14.83774089813232</v>
+        <v>11.92877006530762</v>
       </c>
     </row>
     <row r="302">
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>-642.3392333984375</v>
+        <v>-643.1010131835938</v>
       </c>
     </row>
     <row r="303">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-229.1500396728516</v>
+        <v>-328.7776489257812</v>
       </c>
     </row>
     <row r="304">
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>-627.4382934570312</v>
+        <v>-638.1699829101562</v>
       </c>
     </row>
     <row r="305">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-99.50013732910156</v>
+        <v>-203.7750396728516</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-12.11841201782227</v>
+        <v>-17.5433464050293</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>7.230218887329102</v>
+        <v>4.379711151123047</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-588.7113037109375</v>
+        <v>-589.68701171875</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-208.0196228027344</v>
+        <v>-267.19580078125</v>
       </c>
     </row>
     <row r="310">
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>-554.1356811523438</v>
+        <v>-584.5150756835938</v>
       </c>
     </row>
     <row r="311">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-70.68550109863281</v>
+        <v>-187.6821899414062</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-10.03631687164307</v>
+        <v>-15.53733348846436</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>8.409316062927246</v>
+        <v>5.523956298828125</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-541.31640625</v>
+        <v>-542.5223999023438</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-192.7286224365234</v>
+        <v>-242.71337890625</v>
       </c>
     </row>
     <row r="316">
@@ -5812,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>-324.1036987304688</v>
+        <v>-537.141845703125</v>
       </c>
     </row>
     <row r="317">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-48.64387130737305</v>
+        <v>-174.2741394042969</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-8.266715049743652</v>
+        <v>-13.73644161224365</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>9.476225852966309</v>
+        <v>6.574222087860107</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-494.9330749511719</v>
+        <v>-496.3803405761719</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-177.7734069824219</v>
+        <v>-220.1195068359375</v>
       </c>
     </row>
     <row r="322">
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>-88.43892669677734</v>
+        <v>-490.7923889160156</v>
       </c>
     </row>
     <row r="323">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-29.66577911376953</v>
+        <v>-161.2015380859375</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-6.551185607910156</v>
+        <v>-11.96871471405029</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>10.52054405212402</v>
+        <v>7.603590965270996</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-454.2563781738281</v>
+        <v>-456.0041198730469</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-166.4195556640625</v>
+        <v>-207.4746398925781</v>
       </c>
     </row>
     <row r="328">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="E328" t="n">
-        <v>-70.07011413574219</v>
+        <v>-450.2380981445312</v>
       </c>
     </row>
     <row r="329">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-27.24921417236328</v>
+        <v>-150.5368041992188</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-5.19860315322876</v>
+        <v>-10.38735771179199</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>11.45042896270752</v>
+        <v>8.527848243713379</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-414.4847106933594</v>
+        <v>-416.5375671386719</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-155.361083984375</v>
+        <v>-195.3184661865234</v>
       </c>
     </row>
     <row r="334">
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>-61.39238357543945</v>
+        <v>-410.6056518554688</v>
       </c>
     </row>
     <row r="335">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-25.08522033691406</v>
+        <v>-140.1045684814453</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-3.890976190567017</v>
+        <v>-8.837337493896484</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>12.36671447753906</v>
+        <v>9.442255973815918</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-379.766845703125</v>
+        <v>-382.144287109375</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-146.3783874511719</v>
+        <v>-184.4482116699219</v>
       </c>
     </row>
     <row r="340">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>-56.03276443481445</v>
+        <v>-376.1077270507812</v>
       </c>
     </row>
     <row r="341">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-23.380126953125</v>
+        <v>-131.6757354736328</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>-2.668053865432739</v>
+        <v>-7.469154834747314</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>13.21937274932861</v>
+        <v>10.29197788238525</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-345.8485412597656</v>
+        <v>-348.5498962402344</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-137.5489196777344</v>
+        <v>-173.679931640625</v>
       </c>
     </row>
     <row r="346">
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>-50.97611236572266</v>
+        <v>-342.4186401367188</v>
       </c>
     </row>
     <row r="347">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-21.68623924255371</v>
+        <v>-123.404426574707</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>-1.43735146522522</v>
+        <v>-6.125463962554932</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>14.06012535095215</v>
+        <v>11.13486480712891</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-316.3226623535156</v>
+        <v>-319.349365234375</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-130.2381286621094</v>
+        <v>-163.8528900146484</v>
       </c>
     </row>
     <row r="352">
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="E352" t="n">
-        <v>-46.52687835693359</v>
+        <v>-313.1767272949219</v>
       </c>
     </row>
     <row r="353">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-20.14920616149902</v>
+        <v>-116.8873291015625</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>-0.2686147093772888</v>
+        <v>-4.86584997177124</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>14.8431282043457</v>
+        <v>11.92187595367432</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-287.6837768554688</v>
+        <v>-291.0198059082031</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-123.0657043457031</v>
+        <v>-154.1654968261719</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-42.19883346557617</v>
+        <v>-284.8184509277344</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-18.62347793579102</v>
+        <v>-110.5083694458008</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>0.8745131492614746</v>
+        <v>-3.623149633407593</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>15.61330223083496</v>
+        <v>12.70160388946533</v>
       </c>
     </row>
     <row r="362">
@@ -6594,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>-588.1541748046875</v>
+        <v>-589.1464233398438</v>
       </c>
     </row>
     <row r="363">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-208.3823699951172</v>
+        <v>-266.7744750976562</v>
       </c>
     </row>
     <row r="364">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="E364" t="n">
-        <v>-563.0740356445312</v>
+        <v>-583.9624633789062</v>
       </c>
     </row>
     <row r="365">
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-70.52027130126953</v>
+        <v>-188.5674133300781</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>-10.01335144042969</v>
+        <v>-15.52600383758545</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>8.411661148071289</v>
+        <v>5.52721118927002</v>
       </c>
     </row>
     <row r="368">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>-541.259521484375</v>
+        <v>-542.4873657226562</v>
       </c>
     </row>
     <row r="369">
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-192.7700958251953</v>
+        <v>-242.9237213134766</v>
       </c>
     </row>
     <row r="370">
@@ -6730,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>-322.68603515625</v>
+        <v>-537.0933227539062</v>
       </c>
     </row>
     <row r="371">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>-49.94549560546875</v>
+        <v>-174.7944641113281</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>-8.268291473388672</v>
+        <v>-13.74115753173828</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>9.466262817382812</v>
+        <v>6.563104629516602</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>-494.4013061523438</v>
+        <v>-495.8653259277344</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-177.6923370361328</v>
+        <v>-219.8136138916016</v>
       </c>
     </row>
     <row r="376">
@@ -6832,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>-81.59376525878906</v>
+        <v>-490.2614440917969</v>
       </c>
     </row>
     <row r="377">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-29.4831371307373</v>
+        <v>-161.4901885986328</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>-6.525547981262207</v>
+        <v>-11.95759963989258</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>10.52614498138428</v>
+        <v>7.602756500244141</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-454.189453125</v>
+        <v>-455.9561767578125</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-166.5086212158203</v>
+        <v>-207.5461273193359</v>
       </c>
     </row>
     <row r="382">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="E382" t="n">
-        <v>-71.43846893310547</v>
+        <v>-450.1821899414062</v>
       </c>
     </row>
     <row r="383">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-27.28303146362305</v>
+        <v>-150.8994750976562</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-5.20608377456665</v>
+        <v>-10.39457893371582</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>11.44618701934814</v>
+        <v>8.521480560302734</v>
       </c>
     </row>
     <row r="386">
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>-414.0022277832031</v>
+        <v>-416.0717163085938</v>
       </c>
     </row>
     <row r="387">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-155.3337860107422</v>
+        <v>-195.283935546875</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-61.21120452880859</v>
+        <v>-410.1278381347656</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-25.08391380310059</v>
+        <v>-140.3187866210938</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-3.885713338851929</v>
+        <v>-8.829195976257324</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>12.36684131622314</v>
+        <v>9.440544128417969</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-379.6929016113281</v>
+        <v>-382.0868835449219</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-146.4103698730469</v>
+        <v>-184.4573516845703</v>
       </c>
     </row>
     <row r="394">
@@ -7138,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>-56.0622444152832</v>
+        <v>-376.0440979003906</v>
       </c>
     </row>
     <row r="395">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-23.38353538513184</v>
+        <v>-131.9022827148438</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>-2.671538829803467</v>
+        <v>-7.47632884979248</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>13.21456527709961</v>
+        <v>10.28682136535645</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-345.4038696289062</v>
+        <v>-348.1224060058594</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-137.4941864013672</v>
+        <v>-173.6343231201172</v>
       </c>
     </row>
     <row r="400">
@@ -7240,7 +7240,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>-50.91621398925781</v>
+        <v>-341.9808349609375</v>
       </c>
     </row>
     <row r="401">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-21.6838264465332</v>
+        <v>-123.4935302734375</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>-1.431460618972778</v>
+        <v>-6.119801044464111</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>14.06351280212402</v>
+        <v>11.13323783874512</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-316.2291870117188</v>
+        <v>-319.2723693847656</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-130.2240753173828</v>
+        <v>-163.8405914306641</v>
       </c>
     </row>
     <row r="406">
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>-46.51763153076172</v>
+        <v>-313.093994140625</v>
       </c>
     </row>
     <row r="407">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-20.15125274658203</v>
+        <v>-116.9831161499023</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>-0.2764939963817596</v>
+        <v>-4.872126579284668</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>14.837890625</v>
+        <v>11.9132251739502</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-287.0781860351562</v>
+        <v>-290.4452819824219</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-122.9624633789062</v>
+        <v>-154.0576171875</v>
       </c>
     </row>
     <row r="412">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="E412" t="n">
-        <v>-42.12232208251953</v>
+        <v>-284.2305297851562</v>
       </c>
     </row>
     <row r="413">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-18.61634254455566</v>
+        <v>-110.4821929931641</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>0.8837360143661499</v>
+        <v>-3.621522903442383</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>15.61606597900391</v>
+        <v>12.6970157623291</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-262.6253051757812</v>
+        <v>-266.2835083007812</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-117.3717651367188</v>
+        <v>-145.0072326660156</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-38.38318634033203</v>
+        <v>-260.0895080566406</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-17.22819900512695</v>
+        <v>-105.6824798583984</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>1.9655921459198</v>
+        <v>-2.462515830993652</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>16.2978630065918</v>
+        <v>13.40538692474365</v>
       </c>
     </row>
     <row r="422">
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="E422" t="n">
-        <v>-541.0252685546875</v>
+        <v>-542.2801513671875</v>
       </c>
     </row>
     <row r="423">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-193.0962066650391</v>
+        <v>-242.9086456298828</v>
       </c>
     </row>
     <row r="424">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>-324.283447265625</v>
+        <v>-536.8682250976562</v>
       </c>
     </row>
     <row r="425">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-48.33505249023438</v>
+        <v>-175.314453125</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-8.261861801147461</v>
+        <v>-13.74126529693604</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>9.475190162658691</v>
+        <v>6.566313743591309</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-494.6363525390625</v>
+        <v>-496.1306457519531</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-177.8013916015625</v>
+        <v>-220.1029510498047</v>
       </c>
     </row>
     <row r="430">
@@ -7750,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>-87.64076995849609</v>
+        <v>-490.5130920410156</v>
       </c>
     </row>
     <row r="431">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-29.60616493225098</v>
+        <v>-161.7034759521484</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-6.547555446624756</v>
+        <v>-11.97272777557373</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>10.51974391937256</v>
+        <v>7.595359325408936</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-453.9611511230469</v>
+        <v>-455.7539978027344</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-166.4762573242188</v>
+        <v>-207.4847106933594</v>
       </c>
     </row>
     <row r="436">
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="E436" t="n">
-        <v>-69.99098205566406</v>
+        <v>-449.9606628417969</v>
       </c>
     </row>
     <row r="437">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-27.28747367858887</v>
+        <v>-150.9721984863281</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-5.200133323669434</v>
+        <v>-10.39349746704102</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>11.44903469085693</v>
+        <v>8.519869804382324</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-414.1881713867188</v>
+        <v>-416.28662109375</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-155.3924713134766</v>
+        <v>-195.3260040283203</v>
       </c>
     </row>
     <row r="442">
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>-61.38044357299805</v>
+        <v>-410.32763671875</v>
       </c>
     </row>
     <row r="443">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-25.10156631469727</v>
+        <v>-140.4398345947266</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-3.892209529876709</v>
+        <v>-8.845120429992676</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>12.36520767211914</v>
+        <v>9.434500694274902</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-379.4719543457031</v>
+        <v>-381.8955078125</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-146.3855438232422</v>
+        <v>-184.4546966552734</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-55.99672317504883</v>
+        <v>-375.8321228027344</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-23.38398170471191</v>
+        <v>-131.9281311035156</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>-2.66469931602478</v>
+        <v>-7.477786064147949</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>13.21855163574219</v>
+        <v>10.28446102142334</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-345.5433959960938</v>
+        <v>-348.2904663085938</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-137.5325927734375</v>
+        <v>-173.6693420410156</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-50.93996810913086</v>
+        <v>-342.1338500976562</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-21.68986320495605</v>
+        <v>-123.5769119262695</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>-1.442346811294556</v>
+        <v>-6.131516933441162</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>14.05921077728271</v>
+        <v>11.12778472900391</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-316.0038757324219</v>
+        <v>-319.0767822265625</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-130.1970520019531</v>
+        <v>-163.8103179931641</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-46.49029159545898</v>
+        <v>-312.8798217773438</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-20.14655685424805</v>
+        <v>-116.978141784668</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>-0.2705686688423157</v>
+        <v>-4.870260238647461</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>14.84301948547363</v>
+        <v>11.91432857513428</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-287.1649169921875</v>
+        <v>-290.5601806640625</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-122.9871597290039</v>
+        <v>-154.0508270263672</v>
       </c>
     </row>
     <row r="466">
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="E466" t="n">
-        <v>-42.13964080810547</v>
+        <v>-284.3310546875</v>
       </c>
     </row>
     <row r="467">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-18.62248992919922</v>
+        <v>-110.5216751098633</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>0.8766213059425354</v>
+        <v>-3.628363847732544</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>15.61319160461426</v>
+        <v>12.68842792510986</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-262.1727905273438</v>
+        <v>-265.8767395019531</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-117.2994079589844</v>
+        <v>-144.8668823242188</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-38.33125305175781</v>
+        <v>-259.6600646972656</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-17.22378349304199</v>
+        <v>-105.6351928710938</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>1.97173023223877</v>
+        <v>-2.461009502410889</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>16.30147171020508</v>
+        <v>13.4044885635376</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-238.1233825683594</v>
+        <v>-242.1068267822266</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-111.7819519042969</v>
+        <v>-135.9791259765625</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-34.64719390869141</v>
+        <v>-235.9176330566406</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-15.84637355804443</v>
+        <v>-100.9037170410156</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>3.048808813095093</v>
+        <v>-1.3111172914505</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>16.97718048095703</v>
+        <v>14.10874366760254</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>-494.0868225097656</v>
+        <v>-495.6173095703125</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-177.9620971679688</v>
+        <v>-219.8908386230469</v>
       </c>
     </row>
     <row r="484">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>-80.58104705810547</v>
+        <v>-489.9707336425781</v>
       </c>
     </row>
     <row r="485">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>-29.53903388977051</v>
+        <v>-161.9704742431641</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>-6.518683433532715</v>
+        <v>-11.96249008178711</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>10.5238733291626</v>
+        <v>7.593279361724854</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-453.8712463378906</v>
+        <v>-455.7022705078125</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-166.4954223632812</v>
+        <v>-207.5247650146484</v>
       </c>
     </row>
     <row r="490">
@@ -8770,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="E490" t="n">
-        <v>-70.56719207763672</v>
+        <v>-449.8882751464844</v>
       </c>
     </row>
     <row r="491">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-27.30256462097168</v>
+        <v>-150.9953460693359</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-5.204235076904297</v>
+        <v>-10.3998498916626</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>11.44426250457764</v>
+        <v>8.511792182922363</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-413.68408203125</v>
+        <v>-415.8157958984375</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-155.3181610107422</v>
+        <v>-195.2925720214844</v>
       </c>
     </row>
     <row r="496">
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>-61.13177490234375</v>
+        <v>-409.8345336914062</v>
       </c>
     </row>
     <row r="497">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-25.08919715881348</v>
+        <v>-140.3708343505859</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-3.887168645858765</v>
+        <v>-8.83748722076416</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>12.36507225036621</v>
+        <v>9.431015968322754</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-379.3754272460938</v>
+        <v>-381.8280944824219</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-146.3890228271484</v>
+        <v>-184.4631652832031</v>
       </c>
     </row>
     <row r="502">
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>-56.00422286987305</v>
+        <v>-375.7515258789062</v>
       </c>
     </row>
     <row r="503">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-23.38348388671875</v>
+        <v>-131.9341278076172</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>-2.669383764266968</v>
+        <v>-7.48541259765625</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>13.21247959136963</v>
+        <v>10.27769088745117</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-345.0899658203125</v>
+        <v>-347.8636779785156</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-137.4682159423828</v>
+        <v>-173.6258087158203</v>
       </c>
     </row>
     <row r="508">
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>-50.8804817199707</v>
+        <v>-341.6919555664062</v>
       </c>
     </row>
     <row r="509">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-21.67763519287109</v>
+        <v>-123.5068893432617</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>-1.427904963493347</v>
+        <v>-6.124424457550049</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>14.06157684326172</v>
+        <v>11.12439346313477</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-315.9036865234375</v>
+        <v>-319.0010070800781</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-130.1867828369141</v>
+        <v>-163.7866363525391</v>
       </c>
     </row>
     <row r="514">
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="E514" t="n">
-        <v>-46.48069381713867</v>
+        <v>-312.7942199707031</v>
       </c>
     </row>
     <row r="515">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-20.14450836181641</v>
+        <v>-116.9729309082031</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.282254159450531</v>
+        <v>-4.877052307128906</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>14.83623600006104</v>
+        <v>11.90534114837646</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-286.7377014160156</v>
+        <v>-290.1587219238281</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-122.9126052856445</v>
+        <v>-153.9510192871094</v>
       </c>
     </row>
     <row r="520">
@@ -9280,7 +9280,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>-42.08383560180664</v>
+        <v>-283.9169311523438</v>
       </c>
     </row>
     <row r="521">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-18.61165046691895</v>
+        <v>-110.4466934204102</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>0.8843458890914917</v>
+        <v>-3.626709222793579</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>15.61429882049561</v>
+        <v>12.69026660919189</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-262.0546569824219</v>
+        <v>-265.78125</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-117.2804107666016</v>
+        <v>-144.8213806152344</v>
       </c>
     </row>
     <row r="526">
@@ -9382,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>-38.31852340698242</v>
+        <v>-259.556396484375</v>
       </c>
     </row>
     <row r="527">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-17.22407341003418</v>
+        <v>-105.6141204833984</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>1.964583516120911</v>
+        <v>-2.468056678771973</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>16.29598426818848</v>
+        <v>13.39894199371338</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-237.3953094482422</v>
+        <v>-241.4267120361328</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-111.6539306640625</v>
+        <v>-135.7025299072266</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-34.55648803710938</v>
+        <v>-235.2192993164062</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>-15.83676147460938</v>
+        <v>-100.7910537719727</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>3.054637670516968</v>
+        <v>-1.306813359260559</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>16.97940635681152</v>
+        <v>14.11185932159424</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-218.3131866455078</v>
+        <v>-222.5008087158203</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-107.8432540893555</v>
+        <v>-128.9750671386719</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-31.54647254943848</v>
+        <v>-216.3858337402344</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-14.57466125488281</v>
+        <v>-97.96491241455078</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>4.065409660339355</v>
+        <v>-0.2377374321222305</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>17.54119300842285</v>
+        <v>14.7170991897583</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-453.7196044921875</v>
+        <v>-455.5881042480469</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-166.6677398681641</v>
+        <v>-207.5251159667969</v>
       </c>
     </row>
     <row r="544">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>-69.93278503417969</v>
+        <v>-449.7583312988281</v>
       </c>
     </row>
     <row r="545">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-27.30583572387695</v>
+        <v>-151.2398986816406</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-5.200384140014648</v>
+        <v>-10.40191650390625</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>11.44652462005615</v>
+        <v>8.508993148803711</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-413.939453125</v>
+        <v>-416.1103820800781</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-155.3918609619141</v>
+        <v>-195.34423828125</v>
       </c>
     </row>
     <row r="550">
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>-61.32994079589844</v>
+        <v>-410.1158447265625</v>
       </c>
     </row>
     <row r="551">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-25.11001777648926</v>
+        <v>-140.4438934326172</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-3.894635677337646</v>
+        <v>-8.856029510498047</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>12.36354541778564</v>
+        <v>9.423735618591309</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-379.2196655273438</v>
+        <v>-381.7125549316406</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-146.3780670166016</v>
+        <v>-184.4497528076172</v>
       </c>
     </row>
     <row r="556">
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>-55.9666862487793</v>
+        <v>-375.6145935058594</v>
       </c>
     </row>
     <row r="557">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-23.37749099731445</v>
+        <v>-131.9193115234375</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>-2.662631511688232</v>
+        <v>-7.49056339263916</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>13.2165412902832</v>
+        <v>10.27376365661621</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-345.2866516113281</v>
+        <v>-348.1020812988281</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-137.5182342529297</v>
+        <v>-173.6718597412109</v>
       </c>
     </row>
     <row r="562">
@@ -9994,7 +9994,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>-50.91079711914062</v>
+        <v>-341.9112548828125</v>
       </c>
     </row>
     <row r="563">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-21.68593978881836</v>
+        <v>-123.5610122680664</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>-1.441417217254639</v>
+        <v>-6.13887882232666</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>14.0569543838501</v>
+        <v>11.11819553375244</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-315.7456665039062</v>
+        <v>-318.8859252929688</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-130.1769409179688</v>
+        <v>-163.7586059570312</v>
       </c>
     </row>
     <row r="568">
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>-46.46287536621094</v>
+        <v>-312.6551818847656</v>
       </c>
     </row>
     <row r="569">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-20.14048385620117</v>
+        <v>-116.9569244384766</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>-0.2667194902896881</v>
+        <v>-4.877549648284912</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>14.84144306182861</v>
+        <v>11.90532779693604</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-286.8882446289062</v>
+        <v>-290.3530883789062</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-122.9550170898438</v>
+        <v>-153.9777679443359</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-42.11032867431641</v>
+        <v>-284.0881958007812</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-18.61823081970215</v>
+        <v>-110.4868621826172</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>0.8724492788314819</v>
+        <v>-3.634261846542358</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>15.6113109588623</v>
+        <v>12.68167114257812</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-261.8742370605469</v>
+        <v>-265.65087890625</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-117.2539978027344</v>
+        <v>-144.7652435302734</v>
       </c>
     </row>
     <row r="580">
@@ -10300,7 +10300,7 @@
         <v>0</v>
       </c>
       <c r="E580" t="n">
-        <v>-38.29970169067383</v>
+        <v>-259.39599609375</v>
       </c>
     </row>
     <row r="581">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-17.2212028503418</v>
+        <v>-105.5850143432617</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>1.97322940826416</v>
+        <v>-2.468128681182861</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>16.29945182800293</v>
+        <v>13.40029525756836</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-237.5687561035156</v>
+        <v>-241.6394500732422</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-111.6911468505859</v>
+        <v>-135.8031005859375</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-34.58666229248047</v>
+        <v>-235.4086303710938</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-15.8442497253418</v>
+        <v>-100.8296051025391</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>3.049748420715332</v>
+        <v>-1.31861674785614</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>16.9749870300293</v>
+        <v>14.10535526275635</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-217.7433624267578</v>
+        <v>-222.0014038085938</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-107.7275772094727</v>
+        <v>-128.7960662841797</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-31.48488235473633</v>
+        <v>-215.8540496826172</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>-14.57581806182861</v>
+        <v>-97.9036865234375</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>4.067524433135986</v>
+        <v>-0.2348658889532089</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>17.54496192932129</v>
+        <v>14.71749877929688</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-199.9799957275391</v>
+        <v>-204.2795562744141</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-104.1393966674805</v>
+        <v>-122.4404067993164</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-28.6340217590332</v>
+        <v>-198.2685394287109</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>-13.33145427703857</v>
+        <v>-95.18112182617188</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>5.061058044433594</v>
+        <v>0.8219196796417236</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>18.09428215026855</v>
+        <v>15.3117036819458</v>
       </c>
     </row>
   </sheetData>

--- a/exports/V_final.xlsx
+++ b/exports/V_final.xlsx
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-303.7433471679688</v>
+        <v>-303.7429809570312</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-29.42596054077148</v>
+        <v>-29.42618560791016</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.914252042770386</v>
+        <v>-1.91429591178894</v>
       </c>
     </row>
     <row r="8">
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-887.070556640625</v>
+        <v>-887.0703735351562</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-280.8253784179688</v>
+        <v>-280.8248901367188</v>
       </c>
     </row>
     <row r="12">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-26.80632019042969</v>
+        <v>-26.8065299987793</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6202974915504456</v>
+        <v>-0.6203272938728333</v>
       </c>
     </row>
     <row r="14">
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-812.0175170898438</v>
+        <v>-812.0172119140625</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>-257.9340209960938</v>
+        <v>-257.9334411621094</v>
       </c>
     </row>
     <row r="18">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.18886756896973</v>
+        <v>-24.18905830383301</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6732306480407715</v>
+        <v>0.673214852809906</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-600.0770874023438</v>
+        <v>-600.0697631835938</v>
       </c>
     </row>
     <row r="22">
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>-238.6524505615234</v>
+        <v>-238.6518096923828</v>
       </c>
     </row>
     <row r="24">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.88411521911621</v>
+        <v>-21.88429260253906</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1.93474268913269</v>
+        <v>1.93473744392395</v>
       </c>
     </row>
     <row r="26">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>-388.5523376464844</v>
+        <v>-388.5381164550781</v>
       </c>
     </row>
     <row r="28">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>-219.3936004638672</v>
+        <v>-219.3929290771484</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-19.58091163635254</v>
+        <v>-19.58107376098633</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>3.228014469146729</v>
+        <v>3.228021144866943</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>-326.7460327148438</v>
+        <v>-326.7270202636719</v>
       </c>
     </row>
     <row r="34">
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>-203.3472747802734</v>
+        <v>-203.3465576171875</v>
       </c>
     </row>
     <row r="36">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-17.55707550048828</v>
+        <v>-17.55721473693848</v>
       </c>
     </row>
     <row r="37">
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>4.385341167449951</v>
+        <v>4.385359764099121</v>
       </c>
     </row>
     <row r="38">
@@ -1103,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>-264.9593811035156</v>
+        <v>-264.935546875</v>
       </c>
     </row>
     <row r="40">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>-187.3206787109375</v>
+        <v>-187.3199005126953</v>
       </c>
     </row>
     <row r="42">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.53433132171631</v>
+        <v>-15.53445243835449</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>5.546765327453613</v>
+        <v>5.546795845031738</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>-543.7008056640625</v>
+        <v>-543.7007446289062</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>-242.1002655029297</v>
+        <v>-242.0828094482422</v>
       </c>
     </row>
     <row r="46">
@@ -1239,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>-174.1484832763672</v>
+        <v>-174.147705078125</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-13.74661445617676</v>
+        <v>-13.74671745300293</v>
       </c>
     </row>
     <row r="49">
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>6.593929290771484</v>
+        <v>6.593969345092773</v>
       </c>
     </row>
     <row r="50">
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>-497.0571899414062</v>
+        <v>-497.05712890625</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>-219.2458038330078</v>
+        <v>-219.2347259521484</v>
       </c>
     </row>
     <row r="52">
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>-160.9828948974609</v>
+        <v>-160.9821014404297</v>
       </c>
     </row>
     <row r="54">
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.95932197570801</v>
+        <v>-11.95940589904785</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>7.635989665985107</v>
+        <v>7.636039733886719</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>-457.1607360839844</v>
+        <v>-457.1607055664062</v>
       </c>
     </row>
     <row r="57">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>-207.1111755371094</v>
+        <v>-207.1004943847656</v>
       </c>
     </row>
     <row r="58">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>-451.4354248046875</v>
+        <v>-451.4353942871094</v>
       </c>
     </row>
     <row r="59">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>-150.4653778076172</v>
+        <v>-150.4646148681641</v>
       </c>
     </row>
     <row r="60">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-10.39111328125</v>
+        <v>-10.39117622375488</v>
       </c>
     </row>
     <row r="61">
@@ -1477,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>8.55799674987793</v>
+        <v>8.558053016662598</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>-886.9750366210938</v>
+        <v>-886.9749145507812</v>
       </c>
     </row>
     <row r="64">
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>-280.6761169433594</v>
+        <v>-280.6756286621094</v>
       </c>
     </row>
     <row r="66">
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-26.79224014282227</v>
+        <v>-26.79244613647461</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.6208683252334595</v>
+        <v>-0.6208980083465576</v>
       </c>
     </row>
     <row r="68">
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>-807.4755859375</v>
+        <v>-807.4750366210938</v>
       </c>
     </row>
     <row r="70">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>-258.0316162109375</v>
+        <v>-258.0310363769531</v>
       </c>
     </row>
     <row r="72">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>-24.19745635986328</v>
+        <v>-24.19764709472656</v>
       </c>
     </row>
     <row r="73">
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>0.671063244342804</v>
+        <v>0.6710473895072937</v>
       </c>
     </row>
     <row r="74">
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>-604.8884887695312</v>
+        <v>-604.8814086914062</v>
       </c>
     </row>
     <row r="76">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>-238.5050048828125</v>
+        <v>-238.5043640136719</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-21.87080383300781</v>
+        <v>-21.87098121643066</v>
       </c>
     </row>
     <row r="79">
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>1.947968006134033</v>
+        <v>1.947962880134583</v>
       </c>
     </row>
     <row r="80">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>-396.9931945800781</v>
+        <v>-396.9792785644531</v>
       </c>
     </row>
     <row r="82">
@@ -1851,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>-219.4653472900391</v>
+        <v>-219.4646606445312</v>
       </c>
     </row>
     <row r="84">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.58798789978027</v>
+        <v>-19.5881462097168</v>
       </c>
     </row>
     <row r="85">
@@ -1885,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>3.211820840835571</v>
+        <v>3.211827754974365</v>
       </c>
     </row>
     <row r="86">
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>-328.4107360839844</v>
+        <v>-328.3919982910156</v>
       </c>
     </row>
     <row r="88">
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>-203.2047882080078</v>
+        <v>-203.2040405273438</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-17.54469871520996</v>
+        <v>-17.54483795166016</v>
       </c>
     </row>
     <row r="91">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>4.389341354370117</v>
+        <v>4.389359951019287</v>
       </c>
     </row>
     <row r="92">
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>-267.4230651855469</v>
+        <v>-267.399658203125</v>
       </c>
     </row>
     <row r="94">
@@ -2055,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>-187.3745422363281</v>
+        <v>-187.373779296875</v>
       </c>
     </row>
     <row r="96">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-15.53982925415039</v>
+        <v>-15.53995132446289</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>5.536102294921875</v>
+        <v>5.536132335662842</v>
       </c>
     </row>
     <row r="98">
@@ -2123,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>-242.6473999023438</v>
+        <v>-242.6297607421875</v>
       </c>
     </row>
     <row r="100">
@@ -2157,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>-174.0165557861328</v>
+        <v>-174.0157623291016</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-13.7375373840332</v>
+        <v>-13.73764133453369</v>
       </c>
     </row>
     <row r="103">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>6.587376117706299</v>
+        <v>6.587416172027588</v>
       </c>
     </row>
     <row r="104">
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-497.0836181640625</v>
+        <v>-497.0835876464844</v>
       </c>
     </row>
     <row r="105">
@@ -2225,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="n">
-        <v>-220.0154418945312</v>
+        <v>-220.0040435791016</v>
       </c>
     </row>
     <row r="106">
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>-161.0274658203125</v>
+        <v>-161.0266723632812</v>
       </c>
     </row>
     <row r="108">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-11.96613025665283</v>
+        <v>-11.96621513366699</v>
       </c>
     </row>
     <row r="109">
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>7.625579833984375</v>
+        <v>7.625629901885986</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-456.690185546875</v>
+        <v>-456.6901245117188</v>
       </c>
     </row>
     <row r="111">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>-207.3357696533203</v>
+        <v>-207.3250885009766</v>
       </c>
     </row>
     <row r="112">
@@ -2361,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="n">
-        <v>-150.3482360839844</v>
+        <v>-150.3474426269531</v>
       </c>
     </row>
     <row r="114">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-10.38253974914551</v>
+        <v>-10.38260459899902</v>
       </c>
     </row>
     <row r="115">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>8.553444862365723</v>
+        <v>8.553501129150391</v>
       </c>
     </row>
     <row r="116">
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-417.2848205566406</v>
+        <v>-417.2847900390625</v>
       </c>
     </row>
     <row r="117">
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>-195.2495269775391</v>
+        <v>-195.2392272949219</v>
       </c>
     </row>
     <row r="118">
@@ -2463,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>-139.9828186035156</v>
+        <v>-139.9820861816406</v>
       </c>
     </row>
     <row r="120">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-8.830005645751953</v>
+        <v>-8.830049514770508</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>9.469502449035645</v>
+        <v>9.469566345214844</v>
       </c>
     </row>
     <row r="122">
@@ -2531,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="n">
-        <v>-812.4059448242188</v>
+        <v>-812.4055786132812</v>
       </c>
     </row>
     <row r="124">
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>-257.9519348144531</v>
+        <v>-257.9513549804688</v>
       </c>
     </row>
     <row r="126">
@@ -2582,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>-24.18292236328125</v>
+        <v>-24.18311309814453</v>
       </c>
     </row>
     <row r="127">
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6687352657318115</v>
+        <v>0.668719470500946</v>
       </c>
     </row>
     <row r="128">
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>-603.1485595703125</v>
+        <v>-603.141357421875</v>
       </c>
     </row>
     <row r="130">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>-238.6535339355469</v>
+        <v>-238.6528778076172</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>-21.87777900695801</v>
+        <v>-21.87795829772949</v>
       </c>
     </row>
     <row r="133">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>1.925709128379822</v>
+        <v>1.92570436000824</v>
       </c>
     </row>
     <row r="134">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>-393.739990234375</v>
+        <v>-393.7260131835938</v>
       </c>
     </row>
     <row r="136">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>-219.3804931640625</v>
+        <v>-219.3798065185547</v>
       </c>
     </row>
     <row r="138">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>-19.57444953918457</v>
+        <v>-19.57461166381836</v>
       </c>
     </row>
     <row r="139">
@@ -2803,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>3.224536895751953</v>
+        <v>3.224544048309326</v>
       </c>
     </row>
     <row r="140">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-643.824951171875</v>
+        <v>-643.8248901367188</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>-330.1467590332031</v>
+        <v>-330.1279907226562</v>
       </c>
     </row>
     <row r="142">
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>-203.3220367431641</v>
+        <v>-203.3213043212891</v>
       </c>
     </row>
     <row r="144">
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>-17.55044364929199</v>
+        <v>-17.55058479309082</v>
       </c>
     </row>
     <row r="145">
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>4.375596523284912</v>
+        <v>4.375615119934082</v>
       </c>
     </row>
     <row r="146">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>-266.6482238769531</v>
+        <v>-266.6246337890625</v>
       </c>
     </row>
     <row r="148">
@@ -2973,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="n">
-        <v>-187.2937622070312</v>
+        <v>-187.2929992675781</v>
       </c>
     </row>
     <row r="150">
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>-15.52781200408936</v>
+        <v>-15.52793312072754</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="n">
-        <v>5.539447784423828</v>
+        <v>5.539477825164795</v>
       </c>
     </row>
     <row r="152">
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>-543.235107421875</v>
+        <v>-543.2350463867188</v>
       </c>
     </row>
     <row r="153">
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>-243.2978057861328</v>
+        <v>-243.2803955078125</v>
       </c>
     </row>
     <row r="154">
@@ -3075,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>-174.1188049316406</v>
+        <v>-174.1180419921875</v>
       </c>
     </row>
     <row r="156">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>-13.74367427825928</v>
+        <v>-13.74377727508545</v>
       </c>
     </row>
     <row r="157">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>6.575891017913818</v>
+        <v>6.575930595397949</v>
       </c>
     </row>
     <row r="158">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-496.6048889160156</v>
+        <v>-496.6048583984375</v>
       </c>
     </row>
     <row r="159">
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="n">
-        <v>-219.9533081054688</v>
+        <v>-219.9421234130859</v>
       </c>
     </row>
     <row r="160">
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>-160.9508056640625</v>
+        <v>-160.9500122070312</v>
       </c>
     </row>
     <row r="162">
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>-11.95697021484375</v>
+        <v>-11.95705318450928</v>
       </c>
     </row>
     <row r="163">
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>7.618538379669189</v>
+        <v>7.618587970733643</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-456.6838684082031</v>
+        <v>-456.683837890625</v>
       </c>
     </row>
     <row r="165">
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>-207.6253814697266</v>
+        <v>-207.6146545410156</v>
       </c>
     </row>
     <row r="166">
@@ -3279,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-150.4290771484375</v>
+        <v>-150.4282989501953</v>
       </c>
     </row>
     <row r="168">
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-10.38971900939941</v>
+        <v>-10.38978290557861</v>
       </c>
     </row>
     <row r="169">
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>8.543241500854492</v>
+        <v>8.543298721313477</v>
       </c>
     </row>
     <row r="170">
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-416.786865234375</v>
+        <v>-416.7868347167969</v>
       </c>
     </row>
     <row r="171">
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>-195.3084411621094</v>
+        <v>-195.2981719970703</v>
       </c>
     </row>
     <row r="172">
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>-139.9172515869141</v>
+        <v>-139.9164886474609</v>
       </c>
     </row>
     <row r="174">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-8.822669982910156</v>
+        <v>-8.822713851928711</v>
       </c>
     </row>
     <row r="175">
@@ -3415,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>9.464383125305176</v>
+        <v>9.464447021484375</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>-382.8934631347656</v>
+        <v>-382.8934020996094</v>
       </c>
     </row>
     <row r="177">
@@ -3449,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>-184.5383758544922</v>
+        <v>-184.5287322998047</v>
       </c>
     </row>
     <row r="178">
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>-131.5896911621094</v>
+        <v>-131.5889739990234</v>
       </c>
     </row>
     <row r="180">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>-7.46781587600708</v>
+        <v>-7.467843055725098</v>
       </c>
     </row>
     <row r="181">
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>10.31226062774658</v>
+        <v>10.31232929229736</v>
       </c>
     </row>
     <row r="182">
@@ -3551,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="E183" t="n">
-        <v>-607.720947265625</v>
+        <v>-607.7140502929688</v>
       </c>
     </row>
     <row r="184">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>-238.56982421875</v>
+        <v>-238.5691833496094</v>
       </c>
     </row>
     <row r="186">
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>-21.86878204345703</v>
+        <v>-21.86895942687988</v>
       </c>
     </row>
     <row r="187">
@@ -3619,7 +3619,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>1.944493532180786</v>
+        <v>1.944488406181335</v>
       </c>
     </row>
     <row r="188">
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>-396.5036315917969</v>
+        <v>-396.4896850585938</v>
       </c>
     </row>
     <row r="190">
@@ -3687,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>-219.5184020996094</v>
+        <v>-219.5177001953125</v>
       </c>
     </row>
     <row r="192">
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="n">
-        <v>-19.58547592163086</v>
+        <v>-19.58563613891602</v>
       </c>
     </row>
     <row r="193">
@@ -3721,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>3.206154108047485</v>
+        <v>3.206161260604858</v>
       </c>
     </row>
     <row r="194">
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="n">
-        <v>-328.1333312988281</v>
+        <v>-328.1144714355469</v>
       </c>
     </row>
     <row r="196">
@@ -3789,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>-203.22021484375</v>
+        <v>-203.2194671630859</v>
       </c>
     </row>
     <row r="198">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>-17.54195404052734</v>
+        <v>-17.5420970916748</v>
       </c>
     </row>
     <row r="199">
@@ -3823,7 +3823,7 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>4.38555383682251</v>
+        <v>4.38557243347168</v>
       </c>
     </row>
     <row r="200">
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>-267.3248596191406</v>
+        <v>-267.3014831542969</v>
       </c>
     </row>
     <row r="202">
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="n">
-        <v>-187.3935241699219</v>
+        <v>-187.3927459716797</v>
       </c>
     </row>
     <row r="204">
@@ -3908,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>-15.53656768798828</v>
+        <v>-15.53668880462646</v>
       </c>
     </row>
     <row r="205">
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>5.53001594543457</v>
+        <v>5.530046463012695</v>
       </c>
     </row>
     <row r="206">
@@ -3959,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>-242.7725372314453</v>
+        <v>-242.7550201416016</v>
       </c>
     </row>
     <row r="208">
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>-174.0107116699219</v>
+        <v>-174.0099334716797</v>
       </c>
     </row>
     <row r="210">
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>-13.73626899719238</v>
+        <v>-13.73637199401855</v>
       </c>
     </row>
     <row r="211">
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>6.579704761505127</v>
+        <v>6.579744338989258</v>
       </c>
     </row>
     <row r="212">
@@ -4044,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>-496.7037353515625</v>
+        <v>-496.7037048339844</v>
       </c>
     </row>
     <row r="213">
@@ -4061,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>-220.1502685546875</v>
+        <v>-220.1389770507812</v>
       </c>
     </row>
     <row r="214">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>-161.0407409667969</v>
+        <v>-161.0399475097656</v>
       </c>
     </row>
     <row r="216">
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>-11.96664714813232</v>
+        <v>-11.96673011779785</v>
       </c>
     </row>
     <row r="217">
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>7.60902738571167</v>
+        <v>7.609077453613281</v>
       </c>
     </row>
     <row r="218">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>-456.319091796875</v>
+        <v>-456.3190307617188</v>
       </c>
     </row>
     <row r="219">
@@ -4163,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>-207.4749298095703</v>
+        <v>-207.4642944335938</v>
       </c>
     </row>
     <row r="220">
@@ -4197,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>-150.3385009765625</v>
+        <v>-150.3377532958984</v>
       </c>
     </row>
     <row r="222">
@@ -4214,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>-10.38365840911865</v>
+        <v>-10.38372135162354</v>
       </c>
     </row>
     <row r="223">
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E223" t="n">
-        <v>8.535442352294922</v>
+        <v>8.53549861907959</v>
       </c>
     </row>
     <row r="224">
@@ -4248,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="E224" t="n">
-        <v>-416.8530883789062</v>
+        <v>-416.8530578613281</v>
       </c>
     </row>
     <row r="225">
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="E225" t="n">
-        <v>-195.3271026611328</v>
+        <v>-195.3168487548828</v>
       </c>
     </row>
     <row r="226">
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>-139.9841918945312</v>
+        <v>-139.9834289550781</v>
       </c>
     </row>
     <row r="228">
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="E228" t="n">
-        <v>-8.83287239074707</v>
+        <v>-8.832917213439941</v>
       </c>
     </row>
     <row r="229">
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>9.454194068908691</v>
+        <v>9.454257965087891</v>
       </c>
     </row>
     <row r="230">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="E230" t="n">
-        <v>-382.4629516601562</v>
+        <v>-382.462890625</v>
       </c>
     </row>
     <row r="231">
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>-184.4724273681641</v>
+        <v>-184.4627685546875</v>
       </c>
     </row>
     <row r="232">
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="E233" t="n">
-        <v>-131.5057983398438</v>
+        <v>-131.5050811767578</v>
       </c>
     </row>
     <row r="234">
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="E234" t="n">
-        <v>-7.463750839233398</v>
+        <v>-7.4637770652771</v>
       </c>
     </row>
     <row r="235">
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>10.3063793182373</v>
+        <v>10.30644989013672</v>
       </c>
     </row>
     <row r="236">
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>-348.9926452636719</v>
+        <v>-348.9925537109375</v>
       </c>
     </row>
     <row r="237">
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>-173.7567749023438</v>
+        <v>-173.7477416992188</v>
       </c>
     </row>
     <row r="238">
@@ -4503,7 +4503,7 @@
         <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>-123.3063888549805</v>
+        <v>-123.3057022094727</v>
       </c>
     </row>
     <row r="240">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="E240" t="n">
-        <v>-6.119706630706787</v>
+        <v>-6.119716167449951</v>
       </c>
     </row>
     <row r="241">
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="E241" t="n">
-        <v>11.15235710144043</v>
+        <v>11.15243148803711</v>
       </c>
     </row>
     <row r="242">
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="E243" t="n">
-        <v>-396.1829528808594</v>
+        <v>-396.169189453125</v>
       </c>
     </row>
     <row r="244">
@@ -4605,7 +4605,7 @@
         <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>-219.6032562255859</v>
+        <v>-219.6025238037109</v>
       </c>
     </row>
     <row r="246">
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>-19.57194709777832</v>
+        <v>-19.57210922241211</v>
       </c>
     </row>
     <row r="247">
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="E247" t="n">
-        <v>3.219433069229126</v>
+        <v>3.219439744949341</v>
       </c>
     </row>
     <row r="248">
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>-643.414794921875</v>
+        <v>-643.4147338867188</v>
       </c>
     </row>
     <row r="249">
@@ -4673,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>-329.4523315429688</v>
+        <v>-329.4335021972656</v>
       </c>
     </row>
     <row r="250">
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>-203.4944763183594</v>
+        <v>-203.4937133789062</v>
       </c>
     </row>
     <row r="252">
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>-17.54762649536133</v>
+        <v>-17.54776954650879</v>
       </c>
     </row>
     <row r="253">
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>4.372262954711914</v>
+        <v>4.372281551361084</v>
       </c>
     </row>
     <row r="254">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="E255" t="n">
-        <v>-266.322265625</v>
+        <v>-266.2986450195312</v>
       </c>
     </row>
     <row r="256">
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="E257" t="n">
-        <v>-187.4146423339844</v>
+        <v>-187.413818359375</v>
       </c>
     </row>
     <row r="258">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>-15.52472400665283</v>
+        <v>-15.5248441696167</v>
       </c>
     </row>
     <row r="259">
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>5.534410953521729</v>
+        <v>5.534441947937012</v>
       </c>
     </row>
     <row r="260">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>-542.8255004882812</v>
+        <v>-542.825439453125</v>
       </c>
     </row>
     <row r="261">
@@ -4877,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="E261" t="n">
-        <v>-243.0926818847656</v>
+        <v>-243.0752868652344</v>
       </c>
     </row>
     <row r="262">
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="E263" t="n">
-        <v>-174.2155914306641</v>
+        <v>-174.2147827148438</v>
       </c>
     </row>
     <row r="264">
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>-13.74049472808838</v>
+        <v>-13.74059677124023</v>
       </c>
     </row>
     <row r="265">
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="E265" t="n">
-        <v>6.570565700531006</v>
+        <v>6.570605754852295</v>
       </c>
     </row>
     <row r="266">
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>-496.2027893066406</v>
+        <v>-496.2027587890625</v>
       </c>
     </row>
     <row r="267">
@@ -4979,7 +4979,7 @@
         <v>1</v>
       </c>
       <c r="E267" t="n">
-        <v>-219.8777160644531</v>
+        <v>-219.8665466308594</v>
       </c>
     </row>
     <row r="268">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>-161.0214385986328</v>
+        <v>-161.0206298828125</v>
       </c>
     </row>
     <row r="270">
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>-11.95693588256836</v>
+        <v>-11.95701885223389</v>
       </c>
     </row>
     <row r="271">
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>7.60960578918457</v>
+        <v>7.609654426574707</v>
       </c>
     </row>
     <row r="272">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="E272" t="n">
-        <v>-456.2901306152344</v>
+        <v>-456.2901000976562</v>
       </c>
     </row>
     <row r="273">
@@ -5081,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>-207.5792999267578</v>
+        <v>-207.5685882568359</v>
       </c>
     </row>
     <row r="274">
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>-150.5011138916016</v>
+        <v>-150.5003356933594</v>
       </c>
     </row>
     <row r="276">
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>-10.39040851593018</v>
+        <v>-10.39047241210938</v>
       </c>
     </row>
     <row r="277">
@@ -5149,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="E277" t="n">
-        <v>8.528219223022461</v>
+        <v>8.528275489807129</v>
       </c>
     </row>
     <row r="278">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>-416.3991394042969</v>
+        <v>-416.3990783691406</v>
       </c>
     </row>
     <row r="279">
@@ -5183,7 +5183,7 @@
         <v>1</v>
       </c>
       <c r="E279" t="n">
-        <v>-195.2847290039062</v>
+        <v>-195.2744750976562</v>
       </c>
     </row>
     <row r="280">
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>-139.9889831542969</v>
+        <v>-139.9882202148438</v>
       </c>
     </row>
     <row r="282">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>-8.824345588684082</v>
+        <v>-8.824389457702637</v>
       </c>
     </row>
     <row r="283">
@@ -5251,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="E283" t="n">
-        <v>9.446773529052734</v>
+        <v>9.44683837890625</v>
       </c>
     </row>
     <row r="284">
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>-382.4164428710938</v>
+        <v>-382.4163818359375</v>
       </c>
     </row>
     <row r="285">
@@ -5285,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>-184.4711151123047</v>
+        <v>-184.4614562988281</v>
       </c>
     </row>
     <row r="286">
@@ -5319,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>-131.6417846679688</v>
+        <v>-131.6410675048828</v>
       </c>
     </row>
     <row r="288">
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>-7.470647811889648</v>
+        <v>-7.470674514770508</v>
       </c>
     </row>
     <row r="289">
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>10.29411315917969</v>
+        <v>10.29418087005615</v>
       </c>
     </row>
     <row r="290">
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>-348.4567565917969</v>
+        <v>-348.4566650390625</v>
       </c>
     </row>
     <row r="291">
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
       <c r="E291" t="n">
-        <v>-173.6682891845703</v>
+        <v>-173.6592559814453</v>
       </c>
     </row>
     <row r="292">
@@ -5421,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="E293" t="n">
-        <v>-123.3012008666992</v>
+        <v>-123.3005065917969</v>
       </c>
     </row>
     <row r="294">
@@ -5438,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>-6.116745471954346</v>
+        <v>-6.116758346557617</v>
       </c>
     </row>
     <row r="295">
@@ -5455,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="E295" t="n">
-        <v>11.14368152618408</v>
+        <v>11.14375495910645</v>
       </c>
     </row>
     <row r="296">
@@ -5472,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>-319.7595520019531</v>
+        <v>-319.7594299316406</v>
       </c>
     </row>
     <row r="297">
@@ -5489,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="E297" t="n">
-        <v>-163.9362182617188</v>
+        <v>-163.9281616210938</v>
       </c>
     </row>
     <row r="298">
@@ -5523,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="E299" t="n">
-        <v>-116.8606948852539</v>
+        <v>-116.8600234985352</v>
       </c>
     </row>
     <row r="300">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>-4.869688510894775</v>
+        <v>-4.869690895080566</v>
       </c>
     </row>
     <row r="301">
@@ -5557,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="E301" t="n">
-        <v>11.92877006530762</v>
+        <v>11.92884731292725</v>
       </c>
     </row>
     <row r="302">
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="E303" t="n">
-        <v>-328.7776489257812</v>
+        <v>-328.7589416503906</v>
       </c>
     </row>
     <row r="304">
@@ -5625,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="E305" t="n">
-        <v>-203.7750396728516</v>
+        <v>-203.7741546630859</v>
       </c>
     </row>
     <row r="306">
@@ -5642,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>-17.5433464050293</v>
+        <v>-17.54348754882812</v>
       </c>
     </row>
     <row r="307">
@@ -5659,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E307" t="n">
-        <v>4.379711151123047</v>
+        <v>4.379730224609375</v>
       </c>
     </row>
     <row r="308">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>-589.68701171875</v>
+        <v>-589.6868896484375</v>
       </c>
     </row>
     <row r="309">
@@ -5693,7 +5693,7 @@
         <v>1</v>
       </c>
       <c r="E309" t="n">
-        <v>-267.19580078125</v>
+        <v>-267.1723937988281</v>
       </c>
     </row>
     <row r="310">
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="E311" t="n">
-        <v>-187.6821899414062</v>
+        <v>-187.6813507080078</v>
       </c>
     </row>
     <row r="312">
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E312" t="n">
-        <v>-15.53733348846436</v>
+        <v>-15.53745555877686</v>
       </c>
     </row>
     <row r="313">
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>5.523956298828125</v>
+        <v>5.523986339569092</v>
       </c>
     </row>
     <row r="314">
@@ -5778,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="E314" t="n">
-        <v>-542.5223999023438</v>
+        <v>-542.5223388671875</v>
       </c>
     </row>
     <row r="315">
@@ -5795,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="E315" t="n">
-        <v>-242.71337890625</v>
+        <v>-242.6959228515625</v>
       </c>
     </row>
     <row r="316">
@@ -5829,7 +5829,7 @@
         <v>1</v>
       </c>
       <c r="E317" t="n">
-        <v>-174.2741394042969</v>
+        <v>-174.2732849121094</v>
       </c>
     </row>
     <row r="318">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="n">
-        <v>-13.73644161224365</v>
+        <v>-13.73654270172119</v>
       </c>
     </row>
     <row r="319">
@@ -5863,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="E319" t="n">
-        <v>6.574222087860107</v>
+        <v>6.574262142181396</v>
       </c>
     </row>
     <row r="320">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>-496.3803405761719</v>
+        <v>-496.3803100585938</v>
       </c>
     </row>
     <row r="321">
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>-220.1195068359375</v>
+        <v>-220.1082000732422</v>
       </c>
     </row>
     <row r="322">
@@ -5931,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="E323" t="n">
-        <v>-161.2015380859375</v>
+        <v>-161.2007141113281</v>
       </c>
     </row>
     <row r="324">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>-11.96871471405029</v>
+        <v>-11.96879768371582</v>
       </c>
     </row>
     <row r="325">
@@ -5965,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>7.603590965270996</v>
+        <v>7.603641033172607</v>
       </c>
     </row>
     <row r="326">
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>-456.0041198730469</v>
+        <v>-456.0040893554688</v>
       </c>
     </row>
     <row r="327">
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="E327" t="n">
-        <v>-207.4746398925781</v>
+        <v>-207.4639892578125</v>
       </c>
     </row>
     <row r="328">
@@ -6033,7 +6033,7 @@
         <v>1</v>
       </c>
       <c r="E329" t="n">
-        <v>-150.5368041992188</v>
+        <v>-150.5359802246094</v>
       </c>
     </row>
     <row r="330">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>-10.38735771179199</v>
+        <v>-10.38742065429688</v>
       </c>
     </row>
     <row r="331">
@@ -6067,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E331" t="n">
-        <v>8.527848243713379</v>
+        <v>8.527904510498047</v>
       </c>
     </row>
     <row r="332">
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-416.5375671386719</v>
+        <v>-416.5375061035156</v>
       </c>
     </row>
     <row r="333">
@@ -6101,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="E333" t="n">
-        <v>-195.3184661865234</v>
+        <v>-195.3082122802734</v>
       </c>
     </row>
     <row r="334">
@@ -6135,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="E335" t="n">
-        <v>-140.1045684814453</v>
+        <v>-140.1038208007812</v>
       </c>
     </row>
     <row r="336">
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>-8.837337493896484</v>
+        <v>-8.837381362915039</v>
       </c>
     </row>
     <row r="337">
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="n">
-        <v>9.442255973815918</v>
+        <v>9.442319869995117</v>
       </c>
     </row>
     <row r="338">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>-382.144287109375</v>
+        <v>-382.1442565917969</v>
       </c>
     </row>
     <row r="339">
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E339" t="n">
-        <v>-184.4482116699219</v>
+        <v>-184.4385833740234</v>
       </c>
     </row>
     <row r="340">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="E341" t="n">
-        <v>-131.6757354736328</v>
+        <v>-131.6749877929688</v>
       </c>
     </row>
     <row r="342">
@@ -6254,7 +6254,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>-7.469154834747314</v>
+        <v>-7.469181060791016</v>
       </c>
     </row>
     <row r="343">
@@ -6271,7 +6271,7 @@
         <v>1</v>
       </c>
       <c r="E343" t="n">
-        <v>10.29197788238525</v>
+        <v>10.29204654693604</v>
       </c>
     </row>
     <row r="344">
@@ -6288,7 +6288,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>-348.5498962402344</v>
+        <v>-348.5498046875</v>
       </c>
     </row>
     <row r="345">
@@ -6305,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="E345" t="n">
-        <v>-173.679931640625</v>
+        <v>-173.6708984375</v>
       </c>
     </row>
     <row r="346">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="E347" t="n">
-        <v>-123.404426574707</v>
+        <v>-123.4037017822266</v>
       </c>
     </row>
     <row r="348">
@@ -6356,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>-6.125463962554932</v>
+        <v>-6.125473976135254</v>
       </c>
     </row>
     <row r="349">
@@ -6373,7 +6373,7 @@
         <v>1</v>
       </c>
       <c r="E349" t="n">
-        <v>11.13486480712891</v>
+        <v>11.13493919372559</v>
       </c>
     </row>
     <row r="350">
@@ -6390,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>-319.349365234375</v>
+        <v>-319.3492431640625</v>
       </c>
     </row>
     <row r="351">
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="E351" t="n">
-        <v>-163.8528900146484</v>
+        <v>-163.8448486328125</v>
       </c>
     </row>
     <row r="352">
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>-116.8873291015625</v>
+        <v>-116.8866271972656</v>
       </c>
     </row>
     <row r="354">
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>-4.86584997177124</v>
+        <v>-4.865853309631348</v>
       </c>
     </row>
     <row r="355">
@@ -6475,7 +6475,7 @@
         <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>11.92187595367432</v>
+        <v>11.92195129394531</v>
       </c>
     </row>
     <row r="356">
@@ -6492,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>-291.0198059082031</v>
+        <v>-291.0196228027344</v>
       </c>
     </row>
     <row r="357">
@@ -6509,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="E357" t="n">
-        <v>-154.1654968261719</v>
+        <v>-154.1584930419922</v>
       </c>
     </row>
     <row r="358">
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>-284.8184509277344</v>
+        <v>-284.8184204101562</v>
       </c>
     </row>
     <row r="359">
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-110.5083694458008</v>
+        <v>-110.5077056884766</v>
       </c>
     </row>
     <row r="360">
@@ -6560,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>-3.623149633407593</v>
+        <v>-3.62314248085022</v>
       </c>
     </row>
     <row r="361">
@@ -6577,7 +6577,7 @@
         <v>1</v>
       </c>
       <c r="E361" t="n">
-        <v>12.70160388946533</v>
+        <v>12.70168304443359</v>
       </c>
     </row>
     <row r="362">
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="E363" t="n">
-        <v>-266.7744750976562</v>
+        <v>-266.7509460449219</v>
       </c>
     </row>
     <row r="364">
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>-188.5674133300781</v>
+        <v>-188.5666198730469</v>
       </c>
     </row>
     <row r="366">
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>-15.52600383758545</v>
+        <v>-15.52612495422363</v>
       </c>
     </row>
     <row r="367">
@@ -6679,7 +6679,7 @@
         <v>1</v>
       </c>
       <c r="E367" t="n">
-        <v>5.52721118927002</v>
+        <v>5.527241706848145</v>
       </c>
     </row>
     <row r="368">
@@ -6713,7 +6713,7 @@
         <v>1</v>
       </c>
       <c r="E369" t="n">
-        <v>-242.9237213134766</v>
+        <v>-242.9063110351562</v>
       </c>
     </row>
     <row r="370">
@@ -6747,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="E371" t="n">
-        <v>-174.7944641113281</v>
+        <v>-174.7935791015625</v>
       </c>
     </row>
     <row r="372">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>-13.74115753173828</v>
+        <v>-13.74125957489014</v>
       </c>
     </row>
     <row r="373">
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="E373" t="n">
-        <v>6.563104629516602</v>
+        <v>6.563145160675049</v>
       </c>
     </row>
     <row r="374">
@@ -6798,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>-495.8653259277344</v>
+        <v>-495.8652954101562</v>
       </c>
     </row>
     <row r="375">
@@ -6815,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="E375" t="n">
-        <v>-219.8136138916016</v>
+        <v>-219.8025054931641</v>
       </c>
     </row>
     <row r="376">
@@ -6849,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="E377" t="n">
-        <v>-161.4901885986328</v>
+        <v>-161.4892120361328</v>
       </c>
     </row>
     <row r="378">
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>-11.95759963989258</v>
+        <v>-11.95768165588379</v>
       </c>
     </row>
     <row r="379">
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="E379" t="n">
-        <v>7.602756500244141</v>
+        <v>7.602806091308594</v>
       </c>
     </row>
     <row r="380">
@@ -6900,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>-455.9561767578125</v>
+        <v>-455.9561462402344</v>
       </c>
     </row>
     <row r="381">
@@ -6917,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="E381" t="n">
-        <v>-207.5461273193359</v>
+        <v>-207.5354309082031</v>
       </c>
     </row>
     <row r="382">
@@ -6951,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="E383" t="n">
-        <v>-150.8994750976562</v>
+        <v>-150.8986206054688</v>
       </c>
     </row>
     <row r="384">
@@ -6968,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>-10.39457893371582</v>
+        <v>-10.3946418762207</v>
       </c>
     </row>
     <row r="385">
@@ -6985,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>8.521480560302734</v>
+        <v>8.521536827087402</v>
       </c>
     </row>
     <row r="386">
@@ -7019,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>-195.283935546875</v>
+        <v>-195.273681640625</v>
       </c>
     </row>
     <row r="388">
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>-410.1278381347656</v>
+        <v>-410.1277770996094</v>
       </c>
     </row>
     <row r="389">
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="E389" t="n">
-        <v>-140.3187866210938</v>
+        <v>-140.3180389404297</v>
       </c>
     </row>
     <row r="390">
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="E390" t="n">
-        <v>-8.829195976257324</v>
+        <v>-8.829238891601562</v>
       </c>
     </row>
     <row r="391">
@@ -7087,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="E391" t="n">
-        <v>9.440544128417969</v>
+        <v>9.440608024597168</v>
       </c>
     </row>
     <row r="392">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>-382.0868835449219</v>
+        <v>-382.0867614746094</v>
       </c>
     </row>
     <row r="393">
@@ -7121,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>-184.4573516845703</v>
+        <v>-184.4477081298828</v>
       </c>
     </row>
     <row r="394">
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
       <c r="E395" t="n">
-        <v>-131.9022827148438</v>
+        <v>-131.9015655517578</v>
       </c>
     </row>
     <row r="396">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>-7.47632884979248</v>
+        <v>-7.476355075836182</v>
       </c>
     </row>
     <row r="397">
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E397" t="n">
-        <v>10.28682136535645</v>
+        <v>10.28689098358154</v>
       </c>
     </row>
     <row r="398">
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>-348.1224060058594</v>
+        <v>-348.122314453125</v>
       </c>
     </row>
     <row r="399">
@@ -7223,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="E399" t="n">
-        <v>-173.6343231201172</v>
+        <v>-173.6253204345703</v>
       </c>
     </row>
     <row r="400">
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="E401" t="n">
-        <v>-123.4935302734375</v>
+        <v>-123.4928436279297</v>
       </c>
     </row>
     <row r="402">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E402" t="n">
-        <v>-6.119801044464111</v>
+        <v>-6.119813442230225</v>
       </c>
     </row>
     <row r="403">
@@ -7291,7 +7291,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="n">
-        <v>11.13323783874512</v>
+        <v>11.1333122253418</v>
       </c>
     </row>
     <row r="404">
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="E404" t="n">
-        <v>-319.2723693847656</v>
+        <v>-319.2722473144531</v>
       </c>
     </row>
     <row r="405">
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="n">
-        <v>-163.8405914306641</v>
+        <v>-163.8325500488281</v>
       </c>
     </row>
     <row r="406">
@@ -7359,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="n">
-        <v>-116.9831161499023</v>
+        <v>-116.9824523925781</v>
       </c>
     </row>
     <row r="408">
@@ -7376,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>-4.872126579284668</v>
+        <v>-4.872129440307617</v>
       </c>
     </row>
     <row r="409">
@@ -7393,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="n">
-        <v>11.9132251739502</v>
+        <v>11.91330146789551</v>
       </c>
     </row>
     <row r="410">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>-290.4452819824219</v>
+        <v>-290.4451293945312</v>
       </c>
     </row>
     <row r="411">
@@ -7427,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>-154.0576171875</v>
+        <v>-154.0505828857422</v>
       </c>
     </row>
     <row r="412">
@@ -7461,7 +7461,7 @@
         <v>1</v>
       </c>
       <c r="E413" t="n">
-        <v>-110.4821929931641</v>
+        <v>-110.4815521240234</v>
       </c>
     </row>
     <row r="414">
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>-3.621522903442383</v>
+        <v>-3.621515512466431</v>
       </c>
     </row>
     <row r="415">
@@ -7495,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="E415" t="n">
-        <v>12.6970157623291</v>
+        <v>12.69709396362305</v>
       </c>
     </row>
     <row r="416">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>-266.2835083007812</v>
+        <v>-266.2832946777344</v>
       </c>
     </row>
     <row r="417">
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="E417" t="n">
-        <v>-145.0072326660156</v>
+        <v>-145.0018157958984</v>
       </c>
     </row>
     <row r="418">
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>-260.0895080566406</v>
+        <v>-260.0894775390625</v>
       </c>
     </row>
     <row r="419">
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="E419" t="n">
-        <v>-105.6824798583984</v>
+        <v>-105.6818923950195</v>
       </c>
     </row>
     <row r="420">
@@ -7580,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="E420" t="n">
-        <v>-2.462515830993652</v>
+        <v>-2.462500333786011</v>
       </c>
     </row>
     <row r="421">
@@ -7597,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="E421" t="n">
-        <v>13.40538692474365</v>
+        <v>13.40546607971191</v>
       </c>
     </row>
     <row r="422">
@@ -7631,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="E423" t="n">
-        <v>-242.9086456298828</v>
+        <v>-242.8912353515625</v>
       </c>
     </row>
     <row r="424">
@@ -7665,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="E425" t="n">
-        <v>-175.314453125</v>
+        <v>-175.3136749267578</v>
       </c>
     </row>
     <row r="426">
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>-13.74126529693604</v>
+        <v>-13.74136734008789</v>
       </c>
     </row>
     <row r="427">
@@ -7699,7 +7699,7 @@
         <v>1</v>
       </c>
       <c r="E427" t="n">
-        <v>6.566313743591309</v>
+        <v>6.566353321075439</v>
       </c>
     </row>
     <row r="428">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="E428" t="n">
-        <v>-496.1306457519531</v>
+        <v>-496.130615234375</v>
       </c>
     </row>
     <row r="429">
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>-220.1029510498047</v>
+        <v>-220.0916442871094</v>
       </c>
     </row>
     <row r="430">
@@ -7767,7 +7767,7 @@
         <v>1</v>
       </c>
       <c r="E431" t="n">
-        <v>-161.7034759521484</v>
+        <v>-161.7026672363281</v>
       </c>
     </row>
     <row r="432">
@@ -7784,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>-11.97272777557373</v>
+        <v>-11.97280979156494</v>
       </c>
     </row>
     <row r="433">
@@ -7801,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="E433" t="n">
-        <v>7.595359325408936</v>
+        <v>7.595409393310547</v>
       </c>
     </row>
     <row r="434">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>-455.7539978027344</v>
+        <v>-455.7539672851562</v>
       </c>
     </row>
     <row r="435">
@@ -7835,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="E435" t="n">
-        <v>-207.4847106933594</v>
+        <v>-207.4740295410156</v>
       </c>
     </row>
     <row r="436">
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="E437" t="n">
-        <v>-150.9721984863281</v>
+        <v>-150.9714202880859</v>
       </c>
     </row>
     <row r="438">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>-10.39349746704102</v>
+        <v>-10.3935604095459</v>
       </c>
     </row>
     <row r="439">
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="E439" t="n">
-        <v>8.519869804382324</v>
+        <v>8.519926071166992</v>
       </c>
     </row>
     <row r="440">
@@ -7920,7 +7920,7 @@
         <v>0</v>
       </c>
       <c r="E440" t="n">
-        <v>-416.28662109375</v>
+        <v>-416.2865905761719</v>
       </c>
     </row>
     <row r="441">
@@ -7937,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="E441" t="n">
-        <v>-195.3260040283203</v>
+        <v>-195.3157501220703</v>
       </c>
     </row>
     <row r="442">
@@ -7971,7 +7971,7 @@
         <v>1</v>
       </c>
       <c r="E443" t="n">
-        <v>-140.4398345947266</v>
+        <v>-140.4390716552734</v>
       </c>
     </row>
     <row r="444">
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="E444" t="n">
-        <v>-8.845120429992676</v>
+        <v>-8.845163345336914</v>
       </c>
     </row>
     <row r="445">
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="E445" t="n">
-        <v>9.434500694274902</v>
+        <v>9.434564590454102</v>
       </c>
     </row>
     <row r="446">
@@ -8022,7 +8022,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>-381.8955078125</v>
+        <v>-381.8954467773438</v>
       </c>
     </row>
     <row r="447">
@@ -8039,7 +8039,7 @@
         <v>1</v>
       </c>
       <c r="E447" t="n">
-        <v>-184.4546966552734</v>
+        <v>-184.4450378417969</v>
       </c>
     </row>
     <row r="448">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="E448" t="n">
-        <v>-375.8321228027344</v>
+        <v>-375.8320922851562</v>
       </c>
     </row>
     <row r="449">
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="E449" t="n">
-        <v>-131.9281311035156</v>
+        <v>-131.9274139404297</v>
       </c>
     </row>
     <row r="450">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E450" t="n">
-        <v>-7.477786064147949</v>
+        <v>-7.477811813354492</v>
       </c>
     </row>
     <row r="451">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>10.28446102142334</v>
+        <v>10.28452968597412</v>
       </c>
     </row>
     <row r="452">
@@ -8124,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>-348.2904663085938</v>
+        <v>-348.2903442382812</v>
       </c>
     </row>
     <row r="453">
@@ -8141,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="E453" t="n">
-        <v>-173.6693420410156</v>
+        <v>-173.6603088378906</v>
       </c>
     </row>
     <row r="454">
@@ -8158,7 +8158,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>-342.1338500976562</v>
+        <v>-342.1338195800781</v>
       </c>
     </row>
     <row r="455">
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E455" t="n">
-        <v>-123.5769119262695</v>
+        <v>-123.5762176513672</v>
       </c>
     </row>
     <row r="456">
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>-6.131516933441162</v>
+        <v>-6.131529331207275</v>
       </c>
     </row>
     <row r="457">
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="E457" t="n">
-        <v>11.12778472900391</v>
+        <v>11.12785816192627</v>
       </c>
     </row>
     <row r="458">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="E458" t="n">
-        <v>-319.0767822265625</v>
+        <v>-319.0766296386719</v>
       </c>
     </row>
     <row r="459">
@@ -8243,7 +8243,7 @@
         <v>1</v>
       </c>
       <c r="E459" t="n">
-        <v>-163.8103179931641</v>
+        <v>-163.8023681640625</v>
       </c>
     </row>
     <row r="460">
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>-312.8798217773438</v>
+        <v>-312.8797912597656</v>
       </c>
     </row>
     <row r="461">
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
       <c r="E461" t="n">
-        <v>-116.978141784668</v>
+        <v>-116.9774780273438</v>
       </c>
     </row>
     <row r="462">
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="E462" t="n">
-        <v>-4.870260238647461</v>
+        <v>-4.870263576507568</v>
       </c>
     </row>
     <row r="463">
@@ -8311,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="E463" t="n">
-        <v>11.91432857513428</v>
+        <v>11.91440582275391</v>
       </c>
     </row>
     <row r="464">
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="E464" t="n">
-        <v>-290.5601806640625</v>
+        <v>-290.5600280761719</v>
       </c>
     </row>
     <row r="465">
@@ -8345,7 +8345,7 @@
         <v>1</v>
       </c>
       <c r="E465" t="n">
-        <v>-154.0508270263672</v>
+        <v>-154.0438995361328</v>
       </c>
     </row>
     <row r="466">
@@ -8379,7 +8379,7 @@
         <v>1</v>
       </c>
       <c r="E467" t="n">
-        <v>-110.5216751098633</v>
+        <v>-110.5210418701172</v>
       </c>
     </row>
     <row r="468">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="E468" t="n">
-        <v>-3.628363847732544</v>
+        <v>-3.62835693359375</v>
       </c>
     </row>
     <row r="469">
@@ -8413,7 +8413,7 @@
         <v>1</v>
       </c>
       <c r="E469" t="n">
-        <v>12.68842792510986</v>
+        <v>12.68850612640381</v>
       </c>
     </row>
     <row r="470">
@@ -8430,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="E470" t="n">
-        <v>-265.8767395019531</v>
+        <v>-265.8765258789062</v>
       </c>
     </row>
     <row r="471">
@@ -8447,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="E471" t="n">
-        <v>-144.8668823242188</v>
+        <v>-144.8615112304688</v>
       </c>
     </row>
     <row r="472">
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>-259.6600646972656</v>
+        <v>-259.6600341796875</v>
       </c>
     </row>
     <row r="473">
@@ -8481,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="E473" t="n">
-        <v>-105.6351928710938</v>
+        <v>-105.6346206665039</v>
       </c>
     </row>
     <row r="474">
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>-2.461009502410889</v>
+        <v>-2.460993051528931</v>
       </c>
     </row>
     <row r="475">
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="E475" t="n">
-        <v>13.4044885635376</v>
+        <v>13.40456771850586</v>
       </c>
     </row>
     <row r="476">
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>-242.1068267822266</v>
+        <v>-242.1065673828125</v>
       </c>
     </row>
     <row r="477">
@@ -8549,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="E477" t="n">
-        <v>-135.9791259765625</v>
+        <v>-135.9752502441406</v>
       </c>
     </row>
     <row r="478">
@@ -8566,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>-235.9176330566406</v>
+        <v>-235.9176025390625</v>
       </c>
     </row>
     <row r="479">
@@ -8583,7 +8583,7 @@
         <v>1</v>
       </c>
       <c r="E479" t="n">
-        <v>-100.9037170410156</v>
+        <v>-100.903190612793</v>
       </c>
     </row>
     <row r="480">
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="E480" t="n">
-        <v>-1.3111172914505</v>
+        <v>-1.311093330383301</v>
       </c>
     </row>
     <row r="481">
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="E481" t="n">
-        <v>14.10874366760254</v>
+        <v>14.10882186889648</v>
       </c>
     </row>
     <row r="482">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>-495.6173095703125</v>
+        <v>-495.6172790527344</v>
       </c>
     </row>
     <row r="483">
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="E483" t="n">
-        <v>-219.8908386230469</v>
+        <v>-219.8797760009766</v>
       </c>
     </row>
     <row r="484">
@@ -8685,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E485" t="n">
-        <v>-161.9704742431641</v>
+        <v>-161.9696960449219</v>
       </c>
     </row>
     <row r="486">
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="E486" t="n">
-        <v>-11.96249008178711</v>
+        <v>-11.96257209777832</v>
       </c>
     </row>
     <row r="487">
@@ -8719,7 +8719,7 @@
         <v>1</v>
       </c>
       <c r="E487" t="n">
-        <v>7.593279361724854</v>
+        <v>7.593328475952148</v>
       </c>
     </row>
     <row r="488">
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>-455.7022705078125</v>
+        <v>-455.7022094726562</v>
       </c>
     </row>
     <row r="489">
@@ -8753,7 +8753,7 @@
         <v>1</v>
       </c>
       <c r="E489" t="n">
-        <v>-207.5247650146484</v>
+        <v>-207.5140991210938</v>
       </c>
     </row>
     <row r="490">
@@ -8787,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="E491" t="n">
-        <v>-150.9953460693359</v>
+        <v>-150.9945983886719</v>
       </c>
     </row>
     <row r="492">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>-10.3998498916626</v>
+        <v>-10.39991283416748</v>
       </c>
     </row>
     <row r="493">
@@ -8821,7 +8821,7 @@
         <v>1</v>
       </c>
       <c r="E493" t="n">
-        <v>8.511792182922363</v>
+        <v>8.511849403381348</v>
       </c>
     </row>
     <row r="494">
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>-415.8157958984375</v>
+        <v>-415.8157653808594</v>
       </c>
     </row>
     <row r="495">
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="E495" t="n">
-        <v>-195.2925720214844</v>
+        <v>-195.2823028564453</v>
       </c>
     </row>
     <row r="496">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="E497" t="n">
-        <v>-140.3708343505859</v>
+        <v>-140.3701171875</v>
       </c>
     </row>
     <row r="498">
@@ -8906,7 +8906,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>-8.83748722076416</v>
+        <v>-8.837529182434082</v>
       </c>
     </row>
     <row r="499">
@@ -8923,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="E499" t="n">
-        <v>9.431015968322754</v>
+        <v>9.431079864501953</v>
       </c>
     </row>
     <row r="500">
@@ -8940,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>-381.8280944824219</v>
+        <v>-381.8279724121094</v>
       </c>
     </row>
     <row r="501">
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="E501" t="n">
-        <v>-184.4631652832031</v>
+        <v>-184.4535064697266</v>
       </c>
     </row>
     <row r="502">
@@ -8991,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="E503" t="n">
-        <v>-131.9341278076172</v>
+        <v>-131.9334259033203</v>
       </c>
     </row>
     <row r="504">
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>-7.48541259765625</v>
+        <v>-7.485437870025635</v>
       </c>
     </row>
     <row r="505">
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="E505" t="n">
-        <v>10.27769088745117</v>
+        <v>10.27775955200195</v>
       </c>
     </row>
     <row r="506">
@@ -9042,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>-347.8636779785156</v>
+        <v>-347.8635559082031</v>
       </c>
     </row>
     <row r="507">
@@ -9059,7 +9059,7 @@
         <v>1</v>
       </c>
       <c r="E507" t="n">
-        <v>-173.6258087158203</v>
+        <v>-173.6168212890625</v>
       </c>
     </row>
     <row r="508">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="E509" t="n">
-        <v>-123.5068893432617</v>
+        <v>-123.5062103271484</v>
       </c>
     </row>
     <row r="510">
@@ -9110,7 +9110,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>-6.124424457550049</v>
+        <v>-6.124436855316162</v>
       </c>
     </row>
     <row r="511">
@@ -9127,7 +9127,7 @@
         <v>1</v>
       </c>
       <c r="E511" t="n">
-        <v>11.12439346313477</v>
+        <v>11.12446689605713</v>
       </c>
     </row>
     <row r="512">
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="E512" t="n">
-        <v>-319.0010070800781</v>
+        <v>-319.0008544921875</v>
       </c>
     </row>
     <row r="513">
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="E513" t="n">
-        <v>-163.7866363525391</v>
+        <v>-163.7786560058594</v>
       </c>
     </row>
     <row r="514">
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
       <c r="E515" t="n">
-        <v>-116.9729309082031</v>
+        <v>-116.9722671508789</v>
       </c>
     </row>
     <row r="516">
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>-4.877052307128906</v>
+        <v>-4.877054214477539</v>
       </c>
     </row>
     <row r="517">
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="E517" t="n">
-        <v>11.90534114837646</v>
+        <v>11.90541839599609</v>
       </c>
     </row>
     <row r="518">
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>-290.1587219238281</v>
+        <v>-290.1585693359375</v>
       </c>
     </row>
     <row r="519">
@@ -9263,7 +9263,7 @@
         <v>1</v>
       </c>
       <c r="E519" t="n">
-        <v>-153.9510192871094</v>
+        <v>-153.9440612792969</v>
       </c>
     </row>
     <row r="520">
@@ -9297,7 +9297,7 @@
         <v>1</v>
       </c>
       <c r="E521" t="n">
-        <v>-110.4466934204102</v>
+        <v>-110.4460601806641</v>
       </c>
     </row>
     <row r="522">
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="E522" t="n">
-        <v>-3.626709222793579</v>
+        <v>-3.626701593399048</v>
       </c>
     </row>
     <row r="523">
@@ -9331,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E523" t="n">
-        <v>12.69026660919189</v>
+        <v>12.69034481048584</v>
       </c>
     </row>
     <row r="524">
@@ -9348,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>-265.78125</v>
+        <v>-265.781005859375</v>
       </c>
     </row>
     <row r="525">
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="E525" t="n">
-        <v>-144.8213806152344</v>
+        <v>-144.8159942626953</v>
       </c>
     </row>
     <row r="526">
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="E527" t="n">
-        <v>-105.6141204833984</v>
+        <v>-105.6135406494141</v>
       </c>
     </row>
     <row r="528">
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>-2.468056678771973</v>
+        <v>-2.468040943145752</v>
       </c>
     </row>
     <row r="529">
@@ -9433,7 +9433,7 @@
         <v>1</v>
       </c>
       <c r="E529" t="n">
-        <v>13.39894199371338</v>
+        <v>13.39902210235596</v>
       </c>
     </row>
     <row r="530">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>-241.4267120361328</v>
+        <v>-241.4264373779297</v>
       </c>
     </row>
     <row r="531">
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
       <c r="E531" t="n">
-        <v>-135.7025299072266</v>
+        <v>-135.6987152099609</v>
       </c>
     </row>
     <row r="532">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="E532" t="n">
-        <v>-235.2192993164062</v>
+        <v>-235.2192535400391</v>
       </c>
     </row>
     <row r="533">
@@ -9501,7 +9501,7 @@
         <v>1</v>
       </c>
       <c r="E533" t="n">
-        <v>-100.7910537719727</v>
+        <v>-100.79052734375</v>
       </c>
     </row>
     <row r="534">
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="E534" t="n">
-        <v>-1.306813359260559</v>
+        <v>-1.306788563728333</v>
       </c>
     </row>
     <row r="535">
@@ -9535,7 +9535,7 @@
         <v>1</v>
       </c>
       <c r="E535" t="n">
-        <v>14.11185932159424</v>
+        <v>14.1119384765625</v>
       </c>
     </row>
     <row r="536">
@@ -9552,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>-222.5008087158203</v>
+        <v>-222.5005340576172</v>
       </c>
     </row>
     <row r="537">
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="E537" t="n">
-        <v>-128.9750671386719</v>
+        <v>-128.9713134765625</v>
       </c>
     </row>
     <row r="538">
@@ -9586,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="E538" t="n">
-        <v>-216.3858337402344</v>
+        <v>-216.3857879638672</v>
       </c>
     </row>
     <row r="539">
@@ -9603,7 +9603,7 @@
         <v>1</v>
       </c>
       <c r="E539" t="n">
-        <v>-97.96491241455078</v>
+        <v>-97.96443176269531</v>
       </c>
     </row>
     <row r="540">
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>-0.2377374321222305</v>
+        <v>-0.2377039790153503</v>
       </c>
     </row>
     <row r="541">
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="E541" t="n">
-        <v>14.7170991897583</v>
+        <v>14.71717643737793</v>
       </c>
     </row>
     <row r="542">
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>-455.5881042480469</v>
+        <v>-455.5880737304688</v>
       </c>
     </row>
     <row r="543">
@@ -9671,7 +9671,7 @@
         <v>1</v>
       </c>
       <c r="E543" t="n">
-        <v>-207.5251159667969</v>
+        <v>-207.5144958496094</v>
       </c>
     </row>
     <row r="544">
@@ -9705,7 +9705,7 @@
         <v>1</v>
       </c>
       <c r="E545" t="n">
-        <v>-151.2398986816406</v>
+        <v>-151.2391357421875</v>
       </c>
     </row>
     <row r="546">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>-10.40191650390625</v>
+        <v>-10.40197849273682</v>
       </c>
     </row>
     <row r="547">
@@ -9739,7 +9739,7 @@
         <v>1</v>
       </c>
       <c r="E547" t="n">
-        <v>8.508993148803711</v>
+        <v>8.509051322937012</v>
       </c>
     </row>
     <row r="548">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>-416.1103820800781</v>
+        <v>-416.1103515625</v>
       </c>
     </row>
     <row r="549">
@@ -9773,7 +9773,7 @@
         <v>1</v>
       </c>
       <c r="E549" t="n">
-        <v>-195.34423828125</v>
+        <v>-195.333984375</v>
       </c>
     </row>
     <row r="550">
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>-140.4438934326172</v>
+        <v>-140.4431457519531</v>
       </c>
     </row>
     <row r="552">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>-8.856029510498047</v>
+        <v>-8.856073379516602</v>
       </c>
     </row>
     <row r="553">
@@ -9841,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="E553" t="n">
-        <v>9.423735618591309</v>
+        <v>9.423799514770508</v>
       </c>
     </row>
     <row r="554">
@@ -9858,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>-381.7125549316406</v>
+        <v>-381.7124938964844</v>
       </c>
     </row>
     <row r="555">
@@ -9875,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="E555" t="n">
-        <v>-184.4497528076172</v>
+        <v>-184.4401397705078</v>
       </c>
     </row>
     <row r="556">
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E557" t="n">
-        <v>-131.9193115234375</v>
+        <v>-131.9185943603516</v>
       </c>
     </row>
     <row r="558">
@@ -9926,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>-7.49056339263916</v>
+        <v>-7.490588188171387</v>
       </c>
     </row>
     <row r="559">
@@ -9943,7 +9943,7 @@
         <v>1</v>
       </c>
       <c r="E559" t="n">
-        <v>10.27376365661621</v>
+        <v>10.27383232116699</v>
       </c>
     </row>
     <row r="560">
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>-348.1020812988281</v>
+        <v>-348.1019897460938</v>
       </c>
     </row>
     <row r="561">
@@ -9977,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="E561" t="n">
-        <v>-173.6718597412109</v>
+        <v>-173.6629028320312</v>
       </c>
     </row>
     <row r="562">
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="E563" t="n">
-        <v>-123.5610122680664</v>
+        <v>-123.5603332519531</v>
       </c>
     </row>
     <row r="564">
@@ -10028,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>-6.13887882232666</v>
+        <v>-6.138891220092773</v>
       </c>
     </row>
     <row r="565">
@@ -10045,7 +10045,7 @@
         <v>1</v>
       </c>
       <c r="E565" t="n">
-        <v>11.11819553375244</v>
+        <v>11.1182689666748</v>
       </c>
     </row>
     <row r="566">
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="E566" t="n">
-        <v>-318.8859252929688</v>
+        <v>-318.8857727050781</v>
       </c>
     </row>
     <row r="567">
@@ -10079,7 +10079,7 @@
         <v>1</v>
       </c>
       <c r="E567" t="n">
-        <v>-163.7586059570312</v>
+        <v>-163.7506103515625</v>
       </c>
     </row>
     <row r="568">
@@ -10113,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="E569" t="n">
-        <v>-116.9569244384766</v>
+        <v>-116.9562759399414</v>
       </c>
     </row>
     <row r="570">
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>-4.877549648284912</v>
+        <v>-4.87755298614502</v>
       </c>
     </row>
     <row r="571">
@@ -10147,7 +10147,7 @@
         <v>1</v>
       </c>
       <c r="E571" t="n">
-        <v>11.90532779693604</v>
+        <v>11.90540504455566</v>
       </c>
     </row>
     <row r="572">
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="E572" t="n">
-        <v>-290.3530883789062</v>
+        <v>-290.3529052734375</v>
       </c>
     </row>
     <row r="573">
@@ -10181,7 +10181,7 @@
         <v>1</v>
       </c>
       <c r="E573" t="n">
-        <v>-153.9777679443359</v>
+        <v>-153.9708404541016</v>
       </c>
     </row>
     <row r="574">
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>-284.0881958007812</v>
+        <v>-284.0881652832031</v>
       </c>
     </row>
     <row r="575">
@@ -10215,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="E575" t="n">
-        <v>-110.4868621826172</v>
+        <v>-110.4862289428711</v>
       </c>
     </row>
     <row r="576">
@@ -10232,7 +10232,7 @@
         <v>0</v>
       </c>
       <c r="E576" t="n">
-        <v>-3.634261846542358</v>
+        <v>-3.634253740310669</v>
       </c>
     </row>
     <row r="577">
@@ -10249,7 +10249,7 @@
         <v>1</v>
       </c>
       <c r="E577" t="n">
-        <v>12.68167114257812</v>
+        <v>12.68174934387207</v>
       </c>
     </row>
     <row r="578">
@@ -10266,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="E578" t="n">
-        <v>-265.65087890625</v>
+        <v>-265.6506652832031</v>
       </c>
     </row>
     <row r="579">
@@ -10283,7 +10283,7 @@
         <v>1</v>
       </c>
       <c r="E579" t="n">
-        <v>-144.7652435302734</v>
+        <v>-144.7599182128906</v>
       </c>
     </row>
     <row r="580">
@@ -10317,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="E581" t="n">
-        <v>-105.5850143432617</v>
+        <v>-105.5844268798828</v>
       </c>
     </row>
     <row r="582">
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="E582" t="n">
-        <v>-2.468128681182861</v>
+        <v>-2.468111753463745</v>
       </c>
     </row>
     <row r="583">
@@ -10351,7 +10351,7 @@
         <v>1</v>
       </c>
       <c r="E583" t="n">
-        <v>13.40029525756836</v>
+        <v>13.4003734588623</v>
       </c>
     </row>
     <row r="584">
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>-241.6394500732422</v>
+        <v>-241.6391906738281</v>
       </c>
     </row>
     <row r="585">
@@ -10385,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="E585" t="n">
-        <v>-135.8031005859375</v>
+        <v>-135.7992401123047</v>
       </c>
     </row>
     <row r="586">
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>-235.4086303710938</v>
+        <v>-235.4085998535156</v>
       </c>
     </row>
     <row r="587">
@@ -10419,7 +10419,7 @@
         <v>1</v>
       </c>
       <c r="E587" t="n">
-        <v>-100.8296051025391</v>
+        <v>-100.8290863037109</v>
       </c>
     </row>
     <row r="588">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="E588" t="n">
-        <v>-1.31861674785614</v>
+        <v>-1.318591833114624</v>
       </c>
     </row>
     <row r="589">
@@ -10453,7 +10453,7 @@
         <v>1</v>
       </c>
       <c r="E589" t="n">
-        <v>14.10535526275635</v>
+        <v>14.10543441772461</v>
       </c>
     </row>
     <row r="590">
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>-222.0014038085938</v>
+        <v>-222.0011444091797</v>
       </c>
     </row>
     <row r="591">
@@ -10487,7 +10487,7 @@
         <v>1</v>
       </c>
       <c r="E591" t="n">
-        <v>-128.7960662841797</v>
+        <v>-128.7923126220703</v>
       </c>
     </row>
     <row r="592">
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="E592" t="n">
-        <v>-215.8540496826172</v>
+        <v>-215.8539886474609</v>
       </c>
     </row>
     <row r="593">
@@ -10521,7 +10521,7 @@
         <v>1</v>
       </c>
       <c r="E593" t="n">
-        <v>-97.9036865234375</v>
+        <v>-97.90321350097656</v>
       </c>
     </row>
     <row r="594">
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>-0.2348658889532089</v>
+        <v>-0.2348328232765198</v>
       </c>
     </row>
     <row r="595">
@@ -10555,7 +10555,7 @@
         <v>1</v>
       </c>
       <c r="E595" t="n">
-        <v>14.71749877929688</v>
+        <v>14.71757698059082</v>
       </c>
     </row>
     <row r="596">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>-204.2795562744141</v>
+        <v>-204.279296875</v>
       </c>
     </row>
     <row r="597">
@@ -10589,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="E597" t="n">
-        <v>-122.4404067993164</v>
+        <v>-122.436653137207</v>
       </c>
     </row>
     <row r="598">
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>-198.2685394287109</v>
+        <v>-198.2684631347656</v>
       </c>
     </row>
     <row r="599">
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="E599" t="n">
-        <v>-95.18112182617188</v>
+        <v>-95.18069458007812</v>
       </c>
     </row>
     <row r="600">
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="E600" t="n">
-        <v>0.8219196796417236</v>
+        <v>0.8219610452651978</v>
       </c>
     </row>
     <row r="601">
@@ -10657,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="E601" t="n">
-        <v>15.3117036819458</v>
+        <v>15.3117790222168</v>
       </c>
     </row>
   </sheetData>
